--- a/test.xlsx
+++ b/test.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D106"/>
+  <dimension ref="B2:E107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -421,2756 +421,2756 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
+    <row r="2">
+      <c r="B2" t="inlineStr">
         <is>
           <t xml:space="preserve">1
 </t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t xml:space="preserve">الثلاثية
 </t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t xml:space="preserve">نجيب محفوظ
 </t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t xml:space="preserve"> مصر
 </t>
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
+    <row r="3">
+      <c r="B3" t="inlineStr">
         <is>
           <t xml:space="preserve">2
 </t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t xml:space="preserve">البحث عن وليد مسعود
 </t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t xml:space="preserve">جبرا إبراهيم جبرا
 </t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t xml:space="preserve"> فلسطين
 </t>
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
+    <row r="4">
+      <c r="B4" t="inlineStr">
         <is>
           <t xml:space="preserve">3
 </t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve">شرف
 </t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t xml:space="preserve">صنع الله إبراهيم
 </t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t xml:space="preserve"> مصر
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+    <row r="5">
+      <c r="B5" t="inlineStr">
         <is>
           <t xml:space="preserve">4
 </t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t xml:space="preserve">الحرب في بر مصر
 </t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t xml:space="preserve">يوسف القعيد
 </t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t xml:space="preserve"> مصر
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+    <row r="6">
+      <c r="B6" t="inlineStr">
         <is>
           <t xml:space="preserve">5
 </t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t xml:space="preserve">رجال في الشمس
 </t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t xml:space="preserve">غسان كنفاني
 </t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t xml:space="preserve"> فلسطين
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+    <row r="7">
+      <c r="B7" t="inlineStr">
         <is>
           <t xml:space="preserve">6
 </t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t xml:space="preserve">الوقائع الغريبة في اختفاء سعيد ابي النحس المتشائل
 </t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t xml:space="preserve">إميل حبيبي
 </t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t xml:space="preserve"> فلسطين
 </t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+    <row r="8">
+      <c r="B8" t="inlineStr">
         <is>
           <t xml:space="preserve">7
 </t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t xml:space="preserve">الزمن الموحش
 </t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t xml:space="preserve">حيدر حيدر
 </t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t xml:space="preserve"> سوريا
 </t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+    <row r="9">
+      <c r="B9" t="inlineStr">
         <is>
           <t xml:space="preserve">8
 </t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t xml:space="preserve">رامة والتنين
 </t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t xml:space="preserve">إدوار الخراط
 </t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t xml:space="preserve"> مصر
 </t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+    <row r="10">
+      <c r="B10" t="inlineStr">
         <is>
           <t xml:space="preserve">9
 </t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t xml:space="preserve">حدث أبو هريرة قال
 </t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t xml:space="preserve">محمود المسعدي
 </t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t xml:space="preserve"> تونس
 </t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="11">
+      <c r="B11" t="inlineStr">
         <is>
           <t xml:space="preserve">10
 </t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t xml:space="preserve">كوابيس بيروت
 </t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t xml:space="preserve">غادة السمان
 </t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t xml:space="preserve"> سوريا
 </t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="12">
+      <c r="B12" t="inlineStr">
         <is>
           <t xml:space="preserve">11
 </t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t xml:space="preserve">المجوس
 </t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t xml:space="preserve">إبراهيم الكوني
 </t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t xml:space="preserve"> ليبيا
 </t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="13">
+      <c r="B13" t="inlineStr">
         <is>
           <t xml:space="preserve">12
 </t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t xml:space="preserve">الوشم
 </t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t xml:space="preserve">عبد الرحمن مجيد الربيعي
 </t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t xml:space="preserve"> العراق
 </t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="14">
+      <c r="B14" t="inlineStr">
         <is>
           <t xml:space="preserve">13
 </t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t xml:space="preserve">الرجع البعيد
 </t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t xml:space="preserve">فؤاد التكرلي
 </t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t xml:space="preserve"> العراق
 </t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="15">
+      <c r="B15" t="inlineStr">
         <is>
           <t xml:space="preserve">14
 </t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t xml:space="preserve">الشراع والعاصفة
 </t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t xml:space="preserve">حنا مينه
 </t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t xml:space="preserve"> سوريا
 </t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="16">
+      <c r="B16" t="inlineStr">
         <is>
           <t xml:space="preserve">15
 </t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t xml:space="preserve">الزيني بركات
 </t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t xml:space="preserve">جمال الغيطاني
 </t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t xml:space="preserve"> مصر
 </t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="17">
+      <c r="B17" t="inlineStr">
         <is>
           <t xml:space="preserve">16
 </t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t xml:space="preserve">ثلاثية 'سأهبك مدينة أخرى'
 </t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t xml:space="preserve">أحمد إبراهيم الفقيه
 </t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t xml:space="preserve"> ليبيا
 </t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="18">
+      <c r="B18" t="inlineStr">
         <is>
           <t xml:space="preserve">17
 </t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t xml:space="preserve">أنا أحيا
 </t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t xml:space="preserve">ليلى بعلبكي
 </t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t xml:space="preserve"> لبنان
 </t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="19">
+      <c r="B19" t="inlineStr">
         <is>
           <t xml:space="preserve">18
 </t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t xml:space="preserve">لا أحد ينام في الإسكندرية
 </t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t xml:space="preserve">إبراهيم عبد المجيد
 </t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t xml:space="preserve"> مصر
 </t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+    <row r="20">
+      <c r="B20" t="inlineStr">
         <is>
           <t xml:space="preserve">19
 </t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t xml:space="preserve">الحب في المنفى
 </t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t xml:space="preserve">بهاء طاهر
 </t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t xml:space="preserve"> مصر
 </t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+    <row r="21">
+      <c r="B21" t="inlineStr">
         <is>
           <t xml:space="preserve">20
 </t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t xml:space="preserve">مدارات الشرق
 </t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t xml:space="preserve">نبيل سليمان
 </t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t xml:space="preserve"> سوريا
 </t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+    <row r="22">
+      <c r="B22" t="inlineStr">
         <is>
           <t xml:space="preserve">21
 </t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t xml:space="preserve">الوباء
 </t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t xml:space="preserve">هاني الراهب
 </t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t xml:space="preserve"> سوريا
 </t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+    <row r="23">
+      <c r="B23" t="inlineStr">
         <is>
           <t xml:space="preserve">22
 </t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t xml:space="preserve">الحرام
 </t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t xml:space="preserve">يوسف ادريس
 </t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t xml:space="preserve"> مصر
 </t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+    <row r="24">
+      <c r="B24" t="inlineStr">
         <is>
           <t xml:space="preserve">23
 </t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t xml:space="preserve">ليلة السنوات العشر
 </t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t xml:space="preserve">محمد صالح الجابري
 </t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t xml:space="preserve"> تونس
 </t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+    <row r="25">
+      <c r="B25" t="inlineStr">
         <is>
           <t xml:space="preserve">24
 </t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t xml:space="preserve">موسم الهجرة إلى الشمال
 </t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t xml:space="preserve">الطيب صالح
 </t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t xml:space="preserve"> السودان
 </t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+    <row r="26">
+      <c r="B26" t="inlineStr">
         <is>
           <t xml:space="preserve">25
 </t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t xml:space="preserve">ذاكرة الجسد
 </t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t xml:space="preserve">أحلام مستغانمي
 </t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t xml:space="preserve"> الجزائر
 </t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+    <row r="27">
+      <c r="B27" t="inlineStr">
         <is>
           <t xml:space="preserve">26
 </t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="C27" t="inlineStr">
         <is>
           <t xml:space="preserve">الخبز الحافي
 </t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t xml:space="preserve">محمد شكري
 </t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t xml:space="preserve"> المغرب
 </t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+    <row r="28">
+      <c r="B28" t="inlineStr">
         <is>
           <t xml:space="preserve">27
 </t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="C28" t="inlineStr">
         <is>
           <t xml:space="preserve">تشريفة آل المر
 </t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t xml:space="preserve">عبد الكريم ناصيف
 </t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t xml:space="preserve"> سوريا
 </t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+    <row r="29">
+      <c r="B29" t="inlineStr">
         <is>
           <t xml:space="preserve">28
 </t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="C29" t="inlineStr">
         <is>
           <t xml:space="preserve">دار المتعة
 </t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t xml:space="preserve">وليد اخلاصي
 </t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t xml:space="preserve"> سوريا
 </t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+    <row r="30">
+      <c r="B30" t="inlineStr">
         <is>
           <t xml:space="preserve">29
 </t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="C30" t="inlineStr">
         <is>
           <t xml:space="preserve">طواحين بيروت
 </t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="D30" t="inlineStr">
         <is>
           <t xml:space="preserve">توفيق يوسف عواد
 </t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t xml:space="preserve"> لبنان
 </t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+    <row r="31">
+      <c r="B31" t="inlineStr">
         <is>
           <t xml:space="preserve">30
 </t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="C31" t="inlineStr">
         <is>
           <t xml:space="preserve">الأفيال
 </t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="D31" t="inlineStr">
         <is>
           <t xml:space="preserve">فتحي غانم
 </t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t xml:space="preserve"> مصر
 </t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+    <row r="32">
+      <c r="B32" t="inlineStr">
         <is>
           <t xml:space="preserve">31
 </t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="C32" t="inlineStr">
         <is>
           <t xml:space="preserve">نجران تحت الصفر
 </t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="D32" t="inlineStr">
         <is>
           <t xml:space="preserve">يحيي يخلف
 </t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t xml:space="preserve"> فلسطين
 </t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+    <row r="33">
+      <c r="B33" t="inlineStr">
         <is>
           <t xml:space="preserve">32
 </t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="C33" t="inlineStr">
         <is>
           <t xml:space="preserve">العشاق
 </t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="D33" t="inlineStr">
         <is>
           <t xml:space="preserve">رشاد أبو شاور
 </t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t xml:space="preserve"> فلسطين
 </t>
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
+    <row r="34">
+      <c r="B34" t="inlineStr">
         <is>
           <t xml:space="preserve">33
 </t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="C34" t="inlineStr">
         <is>
           <t xml:space="preserve">الاعتراف
 </t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="D34" t="inlineStr">
         <is>
           <t xml:space="preserve">علي أبو الريش
 </t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t xml:space="preserve"> الإمارات العربية المتحدة
 </t>
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
+    <row r="35">
+      <c r="B35" t="inlineStr">
         <is>
           <t xml:space="preserve">34
 </t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="C35" t="inlineStr">
         <is>
           <t xml:space="preserve">النخلة والجيران
 </t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="D35" t="inlineStr">
         <is>
           <t xml:space="preserve">غائب طعمة فرمان
 </t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t xml:space="preserve"> العراق
 </t>
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
+    <row r="36">
+      <c r="B36" t="inlineStr">
         <is>
           <t xml:space="preserve">35
 </t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="C36" t="inlineStr">
         <is>
           <t xml:space="preserve">العصفورية
 </t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="D36" t="inlineStr">
         <is>
           <t xml:space="preserve">غازي القصيبي
 </t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t xml:space="preserve"> السعودية
 </t>
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
+    <row r="37">
+      <c r="B37" t="inlineStr">
         <is>
           <t xml:space="preserve">36
 </t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="C37" t="inlineStr">
         <is>
           <t xml:space="preserve">قنديل أم هاشم
 </t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="D37" t="inlineStr">
         <is>
           <t xml:space="preserve">يحيي حقي
 </t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t xml:space="preserve"> مصر
 </t>
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
+    <row r="38">
+      <c r="B38" t="inlineStr">
         <is>
           <t xml:space="preserve">37
 </t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="C38" t="inlineStr">
         <is>
           <t xml:space="preserve">العودة إلى المنفى
 </t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="D38" t="inlineStr">
         <is>
           <t xml:space="preserve">أبو المعاطي أبو النجا
 </t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t xml:space="preserve"> مصر
 </t>
         </is>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
+    <row r="39">
+      <c r="B39" t="inlineStr">
         <is>
           <t xml:space="preserve">38
 </t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="C39" t="inlineStr">
         <is>
           <t xml:space="preserve">وكالة عطية
 </t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="D39" t="inlineStr">
         <is>
           <t xml:space="preserve">خيري شلبي
 </t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t xml:space="preserve"> مصر
 </t>
         </is>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
+    <row r="40">
+      <c r="B40" t="inlineStr">
         <is>
           <t xml:space="preserve">39
 </t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="C40" t="inlineStr">
         <is>
           <t xml:space="preserve">تماس
 </t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="D40" t="inlineStr">
         <is>
           <t xml:space="preserve">عروسية النالوتي
 </t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t xml:space="preserve"> تونس
 </t>
         </is>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
+    <row r="41">
+      <c r="B41" t="inlineStr">
         <is>
           <t xml:space="preserve">40
 </t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="C41" t="inlineStr">
         <is>
           <t xml:space="preserve">سلطانة
 </t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="D41" t="inlineStr">
         <is>
           <t xml:space="preserve">غالب هلسا
 </t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t xml:space="preserve"> الأردن
 </t>
         </is>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
+    <row r="42">
+      <c r="B42" t="inlineStr">
         <is>
           <t xml:space="preserve">41
 </t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="C42" t="inlineStr">
         <is>
           <t xml:space="preserve">مالك الحزين
 </t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="D42" t="inlineStr">
         <is>
           <t xml:space="preserve">إبراهيم أصلان
 </t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t xml:space="preserve"> مصر
 </t>
         </is>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
+    <row r="43">
+      <c r="B43" t="inlineStr">
         <is>
           <t xml:space="preserve">42
 </t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="C43" t="inlineStr">
         <is>
           <t xml:space="preserve">باب الشمس
 </t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="D43" t="inlineStr">
         <is>
           <t xml:space="preserve">إلياس خوري
 </t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t xml:space="preserve"> لبنان
 </t>
         </is>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
+    <row r="44">
+      <c r="B44" t="inlineStr">
         <is>
           <t xml:space="preserve">43
 </t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="C44" t="inlineStr">
         <is>
           <t xml:space="preserve">الحي اللاتيني
 </t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="D44" t="inlineStr">
         <is>
           <t xml:space="preserve">سهيل ادريس
 </t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t xml:space="preserve"> لبنان
 </t>
         </is>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
+    <row r="45">
+      <c r="B45" t="inlineStr">
         <is>
           <t xml:space="preserve">44
 </t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="C45" t="inlineStr">
         <is>
           <t xml:space="preserve">عودة الروح
 </t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="D45" t="inlineStr">
         <is>
           <t xml:space="preserve">توفيق الحكيم
 </t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t xml:space="preserve"> مصر
 </t>
         </is>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
+    <row r="46">
+      <c r="B46" t="inlineStr">
         <is>
           <t xml:space="preserve">45
 </t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="C46" t="inlineStr">
         <is>
           <t xml:space="preserve">الرهينة
 </t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="D46" t="inlineStr">
         <is>
           <t xml:space="preserve">زيد مطيع دماج
 </t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t xml:space="preserve"> اليمن
 </t>
         </is>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
+    <row r="47">
+      <c r="B47" t="inlineStr">
         <is>
           <t xml:space="preserve">46
 </t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="C47" t="inlineStr">
         <is>
           <t xml:space="preserve">لعبة النسيان
 </t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="D47" t="inlineStr">
         <is>
           <t xml:space="preserve">محمد برادة
 </t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t xml:space="preserve"> المغرب
 </t>
         </is>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
+    <row r="48">
+      <c r="B48" t="inlineStr">
         <is>
           <t xml:space="preserve">47
 </t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="C48" t="inlineStr">
         <is>
           <t xml:space="preserve">الريح الشتوية
 </t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="D48" t="inlineStr">
         <is>
           <t xml:space="preserve">مبارك الربيع
 </t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t xml:space="preserve"> المغرب
 </t>
         </is>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
+    <row r="49">
+      <c r="B49" t="inlineStr">
         <is>
           <t xml:space="preserve">48
 </t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="C49" t="inlineStr">
         <is>
           <t xml:space="preserve">دار الباشا
 </t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="D49" t="inlineStr">
         <is>
           <t xml:space="preserve">حسن نصر
 </t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t xml:space="preserve"> تونس
 </t>
         </is>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
+    <row r="50">
+      <c r="B50" t="inlineStr">
         <is>
           <t xml:space="preserve">49
 </t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="C50" t="inlineStr">
         <is>
           <t xml:space="preserve">مدينة الرياح
 </t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="D50" t="inlineStr">
         <is>
           <t xml:space="preserve">موسى ولد ابنو
 </t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t xml:space="preserve"> موريتانيا
 </t>
         </is>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
+    <row r="51">
+      <c r="B51" t="inlineStr">
         <is>
           <t xml:space="preserve">50
 </t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="C51" t="inlineStr">
         <is>
           <t xml:space="preserve">أبواب الروح السبعة
 </t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="D51" t="inlineStr">
         <is>
           <t xml:space="preserve">أيوب الحجلي
 </t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t xml:space="preserve"> سوريا
 </t>
         </is>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
+    <row r="52">
+      <c r="B52" t="inlineStr">
         <is>
           <t xml:space="preserve">51
 </t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="C52" t="inlineStr">
         <is>
           <t xml:space="preserve">أيام الإنسان السبعة
 </t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="D52" t="inlineStr">
         <is>
           <t xml:space="preserve">عبد الحكيم قاسم
 </t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t xml:space="preserve"> مصر
 </t>
         </is>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
+    <row r="53">
+      <c r="B53" t="inlineStr">
         <is>
           <t xml:space="preserve">52
 </t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="C53" t="inlineStr">
         <is>
           <t xml:space="preserve">طائر الحوم
 </t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="D53" t="inlineStr">
         <is>
           <t xml:space="preserve">حليم بركات
 </t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t xml:space="preserve"> سوريا
 </t>
         </is>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
+    <row r="54">
+      <c r="B54" t="inlineStr">
         <is>
           <t xml:space="preserve">53
 </t>
         </is>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="C54" t="inlineStr">
         <is>
           <t xml:space="preserve">حكاية زهرة
 </t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="D54" t="inlineStr">
         <is>
           <t xml:space="preserve">حنان الشيخ
 </t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t xml:space="preserve"> لبنان
 </t>
         </is>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
+    <row r="55">
+      <c r="B55" t="inlineStr">
         <is>
           <t xml:space="preserve">54
 </t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="C55" t="inlineStr">
         <is>
           <t xml:space="preserve">ريح الجنوب
 </t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="D55" t="inlineStr">
         <is>
           <t xml:space="preserve">عبد الحميد بن هدوقة
 </t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t xml:space="preserve"> الجزائر
 </t>
         </is>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
+    <row r="56">
+      <c r="B56" t="inlineStr">
         <is>
           <t xml:space="preserve">55
 </t>
         </is>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="C56" t="inlineStr">
         <is>
           <t xml:space="preserve">فردوس الجنون
 </t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="D56" t="inlineStr">
         <is>
           <t xml:space="preserve">أحمد يوسف داوود
 </t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t xml:space="preserve"> سوريا
 </t>
         </is>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
+    <row r="57">
+      <c r="B57" t="inlineStr">
         <is>
           <t xml:space="preserve">56
 </t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="C57" t="inlineStr">
         <is>
           <t xml:space="preserve">وسمية تخرج من البحر
 </t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="D57" t="inlineStr">
         <is>
           <t xml:space="preserve">ليلى العثمان
 </t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t xml:space="preserve"> الكويت
 </t>
         </is>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
+    <row r="58">
+      <c r="B58" t="inlineStr">
         <is>
           <t xml:space="preserve">57
 </t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="C58" t="inlineStr">
         <is>
           <t xml:space="preserve">اعترافات كاتم صوت
 </t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="D58" t="inlineStr">
         <is>
           <t xml:space="preserve">مؤنس الرزاز
 </t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t xml:space="preserve"> الأردن
 </t>
         </is>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
+    <row r="59">
+      <c r="B59" t="inlineStr">
         <is>
           <t xml:space="preserve">58
 </t>
         </is>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="C59" t="inlineStr">
         <is>
           <t xml:space="preserve">رباعية بحري
 </t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="D59" t="inlineStr">
         <is>
           <t xml:space="preserve">محمد جبريل
 </t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t xml:space="preserve"> مصر
 </t>
         </is>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
+    <row r="60">
+      <c r="B60" t="inlineStr">
         <is>
           <t xml:space="preserve">59
 </t>
         </is>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="C60" t="inlineStr">
         <is>
           <t xml:space="preserve">صنعاء مدينة مفتوحة
 </t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="D60" t="inlineStr">
         <is>
           <t xml:space="preserve">محمد عبد الولي
 </t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t xml:space="preserve"> اليمن
 </t>
         </is>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
+    <row r="61">
+      <c r="B61" t="inlineStr">
         <is>
           <t xml:space="preserve">60
 </t>
         </is>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="C61" t="inlineStr">
         <is>
           <t xml:space="preserve">ثلاثية غرناطة
 </t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="D61" t="inlineStr">
         <is>
           <t xml:space="preserve">رضوى عاشور
 </t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t xml:space="preserve"> مصر
 </t>
         </is>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
+    <row r="62">
+      <c r="B62" t="inlineStr">
         <is>
           <t xml:space="preserve">61
 </t>
         </is>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="C62" t="inlineStr">
         <is>
           <t xml:space="preserve">دعاء الكروان
 </t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="D62" t="inlineStr">
         <is>
           <t xml:space="preserve">طه حسين
 </t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t xml:space="preserve"> مصر
 </t>
         </is>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
+    <row r="63">
+      <c r="B63" t="inlineStr">
         <is>
           <t xml:space="preserve">62
 </t>
         </is>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="C63" t="inlineStr">
         <is>
           <t xml:space="preserve">فساد الامكنة
 </t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="D63" t="inlineStr">
         <is>
           <t xml:space="preserve">صبري موسي
 </t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t xml:space="preserve"> مصر
 </t>
         </is>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
+    <row r="64">
+      <c r="B64" t="inlineStr">
         <is>
           <t xml:space="preserve">63
 </t>
         </is>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="C64" t="inlineStr">
         <is>
           <t xml:space="preserve">السقا مات
 </t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="D64" t="inlineStr">
         <is>
           <t xml:space="preserve">يوسف السباعي
 </t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t xml:space="preserve"> مصر
 </t>
         </is>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
+    <row r="65">
+      <c r="B65" t="inlineStr">
         <is>
           <t xml:space="preserve">64
 </t>
         </is>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="C65" t="inlineStr">
         <is>
           <t xml:space="preserve">تغريبه بني حتحوت
 </t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="D65" t="inlineStr">
         <is>
           <t xml:space="preserve">مجيد طوبيا
 </t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t xml:space="preserve"> مصر
 </t>
         </is>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
+    <row r="66">
+      <c r="B66" t="inlineStr">
         <is>
           <t xml:space="preserve">65
 </t>
         </is>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="C66" t="inlineStr">
         <is>
           <t xml:space="preserve">بعد الغروب
 </t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="D66" t="inlineStr">
         <is>
           <t xml:space="preserve">محمد عبد الحليم عبد الله
 </t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t xml:space="preserve"> مصر
 </t>
         </is>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
+    <row r="67">
+      <c r="B67" t="inlineStr">
         <is>
           <t xml:space="preserve">66
 </t>
         </is>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="C67" t="inlineStr">
         <is>
           <t xml:space="preserve">قلوب علي الاسلاك
 </t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="D67" t="inlineStr">
         <is>
           <t xml:space="preserve">عبد السلام العجيلي
 </t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t xml:space="preserve"> سوريا
 </t>
         </is>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
+    <row r="68">
+      <c r="B68" t="inlineStr">
         <is>
           <t xml:space="preserve">67
 </t>
         </is>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="C68" t="inlineStr">
         <is>
           <t xml:space="preserve">عائشة
 </t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="D68" t="inlineStr">
         <is>
           <t xml:space="preserve">البشير بن سلامة
 </t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t xml:space="preserve"> تونس
 </t>
         </is>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
+    <row r="69">
+      <c r="B69" t="inlineStr">
         <is>
           <t xml:space="preserve">68
 </t>
         </is>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="C69" t="inlineStr">
         <is>
           <t xml:space="preserve">الظل والصدي
 </t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="D69" t="inlineStr">
         <is>
           <t xml:space="preserve">يوسف حبشي الأشقر
 </t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t xml:space="preserve"> لبنان
 </t>
         </is>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
+    <row r="70">
+      <c r="B70" t="inlineStr">
         <is>
           <t xml:space="preserve">69
 </t>
         </is>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="C70" t="inlineStr">
         <is>
           <t xml:space="preserve">الدقلة في عراجينها
 </t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="D70" t="inlineStr">
         <is>
           <t xml:space="preserve">بشير خريف
 </t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t xml:space="preserve"> تونس
 </t>
         </is>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
+    <row r="71">
+      <c r="B71" t="inlineStr">
         <is>
           <t xml:space="preserve">70
 </t>
         </is>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="C71" t="inlineStr">
         <is>
           <t xml:space="preserve">النخاس
 </t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="D71" t="inlineStr">
         <is>
           <t xml:space="preserve">صلاح الدين بوجاه
 </t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t xml:space="preserve"> تونس
 </t>
         </is>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
+    <row r="72">
+      <c r="B72" t="inlineStr">
         <is>
           <t xml:space="preserve">71
 </t>
         </is>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="C72" t="inlineStr">
         <is>
           <t xml:space="preserve">باب الساحة
 </t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="D72" t="inlineStr">
         <is>
           <t xml:space="preserve">سحر خليفة
 </t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t xml:space="preserve"> فلسطين
 </t>
         </is>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
+    <row r="73">
+      <c r="B73" t="inlineStr">
         <is>
           <t xml:space="preserve">72
 </t>
         </is>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="C73" t="inlineStr">
         <is>
           <t xml:space="preserve">سابع ايام الخلق
 </t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="D73" t="inlineStr">
         <is>
           <t xml:space="preserve">عبد الخالق الركابي
 </t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t xml:space="preserve"> العراق
 </t>
         </is>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
+    <row r="74">
+      <c r="B74" t="inlineStr">
         <is>
           <t xml:space="preserve">73
 </t>
         </is>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="C74" t="inlineStr">
         <is>
           <t xml:space="preserve">شيء من الخوف
 </t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="D74" t="inlineStr">
         <is>
           <t xml:space="preserve">ثروت أباظة
 </t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t xml:space="preserve"> مصر
 </t>
         </is>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
+    <row r="75">
+      <c r="B75" t="inlineStr">
         <is>
           <t xml:space="preserve">74
 </t>
         </is>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="C75" t="inlineStr">
         <is>
           <t xml:space="preserve">اللاز
 </t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="D75" t="inlineStr">
         <is>
           <t xml:space="preserve">الطاهر وطار
 </t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t xml:space="preserve"> الجزائر
 </t>
         </is>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
+    <row r="76">
+      <c r="B76" t="inlineStr">
         <is>
           <t xml:space="preserve">75
 </t>
         </is>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="C76" t="inlineStr">
         <is>
           <t xml:space="preserve">المرأة والوردة
 </t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="D76" t="inlineStr">
         <is>
           <t xml:space="preserve">محمد زفزاف
 </t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t xml:space="preserve"> المغرب
 </t>
         </is>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
+    <row r="77">
+      <c r="B77" t="inlineStr">
         <is>
           <t xml:space="preserve">76
 </t>
         </is>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="C77" t="inlineStr">
         <is>
           <t xml:space="preserve">ألف عام وعام من الحنين
 </t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="D77" t="inlineStr">
         <is>
           <t xml:space="preserve">رشيد بوجدرة
 </t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t xml:space="preserve"> الجزائر
 </t>
         </is>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
+    <row r="78">
+      <c r="B78" t="inlineStr">
         <is>
           <t xml:space="preserve">77
 </t>
         </is>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="C78" t="inlineStr">
         <is>
           <t xml:space="preserve">القبر المجهول
 </t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="D78" t="inlineStr">
         <is>
           <t xml:space="preserve">احمد بن عبد القادر
 </t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t xml:space="preserve"> موريتانيا
 </t>
         </is>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
+    <row r="79">
+      <c r="B79" t="inlineStr">
         <is>
           <t xml:space="preserve">78
 </t>
         </is>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="C79" t="inlineStr">
         <is>
           <t xml:space="preserve">الاغتيال والغضب
 </t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="D79" t="inlineStr">
         <is>
           <t xml:space="preserve">موفق خضر
 </t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t xml:space="preserve"> العراق
 </t>
         </is>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
+    <row r="80">
+      <c r="B80" t="inlineStr">
         <is>
           <t xml:space="preserve">79
 </t>
         </is>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="C80" t="inlineStr">
         <is>
           <t xml:space="preserve">الدوامة
 </t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="D80" t="inlineStr">
         <is>
           <t xml:space="preserve">قمر كيلاني
 </t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t xml:space="preserve"> سوريا
 </t>
         </is>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
+    <row r="81">
+      <c r="B81" t="inlineStr">
         <is>
           <t xml:space="preserve">80
 </t>
         </is>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="C81" t="inlineStr">
         <is>
           <t xml:space="preserve">الحصار
 </t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="D81" t="inlineStr">
         <is>
           <t xml:space="preserve">فوزية رشيد
 </t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t xml:space="preserve"> البحرين
 </t>
         </is>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
+    <row r="82">
+      <c r="B82" t="inlineStr">
         <is>
           <t xml:space="preserve">81
 </t>
         </is>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="C82" t="inlineStr">
         <is>
           <t xml:space="preserve">في بيتنا رجل
 </t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="D82" t="inlineStr">
         <is>
           <t xml:space="preserve">احسان عبد القدوس
 </t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t xml:space="preserve"> مصر
 </t>
         </is>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
+    <row r="83">
+      <c r="B83" t="inlineStr">
         <is>
           <t xml:space="preserve">82
 </t>
         </is>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="C83" t="inlineStr">
         <is>
           <t xml:space="preserve">رموز عصرية
 </t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="D83" t="inlineStr">
         <is>
           <t xml:space="preserve">خضير عبد الأمير
 </t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t xml:space="preserve"> العراق
 </t>
         </is>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
+    <row r="84">
+      <c r="B84" t="inlineStr">
         <is>
           <t xml:space="preserve">83
 </t>
         </is>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="C84" t="inlineStr">
         <is>
           <t xml:space="preserve">ونصيبي من الافق
 </t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="D84" t="inlineStr">
         <is>
           <t xml:space="preserve">عبد القادر بن الشيخ
 </t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t xml:space="preserve"> تونس
 </t>
         </is>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
+    <row r="85">
+      <c r="B85" t="inlineStr">
         <is>
           <t xml:space="preserve">84
 </t>
         </is>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="C85" t="inlineStr">
         <is>
           <t xml:space="preserve">مجنون الحكم
 </t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="D85" t="inlineStr">
         <is>
           <t xml:space="preserve">بنسالم حميش
 </t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t xml:space="preserve"> المغرب
 </t>
         </is>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
+    <row r="86">
+      <c r="B86" t="inlineStr">
         <is>
           <t xml:space="preserve">85
 </t>
         </is>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="C86" t="inlineStr">
         <is>
           <t xml:space="preserve">الخماسية
 </t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="D86" t="inlineStr">
         <is>
           <t xml:space="preserve">إسماعيل فهد إسماعيل
 </t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t xml:space="preserve"> الكويت
 </t>
         </is>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
+    <row r="87">
+      <c r="B87" t="inlineStr">
         <is>
           <t xml:space="preserve">86
 </t>
         </is>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="C87" t="inlineStr">
         <is>
           <t xml:space="preserve">أجنحة التيه
 </t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="D87" t="inlineStr">
         <is>
           <t xml:space="preserve">جواد الصيداوي
 </t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t xml:space="preserve"> لبنان
 </t>
         </is>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
+    <row r="88">
+      <c r="B88" t="inlineStr">
         <is>
           <t xml:space="preserve">87
 </t>
         </is>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="C88" t="inlineStr">
         <is>
           <t xml:space="preserve">ايام الرماد
 </t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="D88" t="inlineStr">
         <is>
           <t xml:space="preserve">محمد عز الدين التازي
 </t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t xml:space="preserve"> المغرب
 </t>
         </is>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
+    <row r="89">
+      <c r="B89" t="inlineStr">
         <is>
           <t xml:space="preserve">88
 </t>
         </is>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="C89" t="inlineStr">
         <is>
           <t xml:space="preserve">رأس بيروت
 </t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="D89" t="inlineStr">
         <is>
           <t xml:space="preserve">ياسين رفاعية
 </t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t xml:space="preserve"> سوريا
 </t>
         </is>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
+    <row r="90">
+      <c r="B90" t="inlineStr">
         <is>
           <t xml:space="preserve">89
 </t>
         </is>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="C90" t="inlineStr">
         <is>
           <t xml:space="preserve">عين الشمس
 </t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="D90" t="inlineStr">
         <is>
           <t xml:space="preserve">خليفة حسين مصطفي
 </t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t xml:space="preserve"> ليبيا
 </t>
         </is>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
+    <row r="91">
+      <c r="B91" t="inlineStr">
         <is>
           <t xml:space="preserve">90
 </t>
         </is>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="C91" t="inlineStr">
         <is>
           <t xml:space="preserve">لونجه والغول
 </t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="D91" t="inlineStr">
         <is>
           <t xml:space="preserve">زهور ونيسي
 </t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t xml:space="preserve"> الجزائر
 </t>
         </is>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
+    <row r="92">
+      <c r="B92" t="inlineStr">
         <is>
           <t xml:space="preserve">91
 </t>
         </is>
       </c>
-      <c r="B91" t="inlineStr">
+      <c r="C92" t="inlineStr">
         <is>
           <t xml:space="preserve">صخب البحيرة
 </t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
+      <c r="D92" t="inlineStr">
         <is>
           <t xml:space="preserve">محمد البساطي
 </t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t xml:space="preserve"> مصر
 </t>
         </is>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
+    <row r="93">
+      <c r="B93" t="inlineStr">
         <is>
           <t xml:space="preserve">92
 </t>
         </is>
       </c>
-      <c r="B92" t="inlineStr">
+      <c r="C93" t="inlineStr">
         <is>
           <t xml:space="preserve">السائرون نياما
 </t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
+      <c r="D93" t="inlineStr">
         <is>
           <t xml:space="preserve">سعد مكاوي
 </t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="E93" t="inlineStr">
         <is>
           <t xml:space="preserve"> مصر
 </t>
         </is>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
+    <row r="94">
+      <c r="B94" t="inlineStr">
         <is>
           <t xml:space="preserve">93
 </t>
         </is>
       </c>
-      <c r="B93" t="inlineStr">
+      <c r="C94" t="inlineStr">
         <is>
           <t xml:space="preserve">1952
 </t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
+      <c r="D94" t="inlineStr">
         <is>
           <t xml:space="preserve">جميل عطية إبراهيم
 </t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t xml:space="preserve"> مصر
 </t>
         </is>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
+    <row r="95">
+      <c r="B95" t="inlineStr">
         <is>
           <t xml:space="preserve">94
 </t>
         </is>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="C95" t="inlineStr">
         <is>
           <t xml:space="preserve">طيور أيلول
 </t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
+      <c r="D95" t="inlineStr">
         <is>
           <t xml:space="preserve">إميلي نصر الله
 </t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t xml:space="preserve"> لبنان
 </t>
         </is>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
+    <row r="96">
+      <c r="B96" t="inlineStr">
         <is>
           <t xml:space="preserve">95
 </t>
         </is>
       </c>
-      <c r="B95" t="inlineStr">
+      <c r="C96" t="inlineStr">
         <is>
           <t xml:space="preserve">المؤامرة
 </t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
+      <c r="D96" t="inlineStr">
         <is>
           <t xml:space="preserve">فرج الحوار
 </t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
+      <c r="E96" t="inlineStr">
         <is>
           <t xml:space="preserve"> تونس
 </t>
         </is>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
+    <row r="97">
+      <c r="B97" t="inlineStr">
         <is>
           <t xml:space="preserve">96
 </t>
         </is>
       </c>
-      <c r="B96" t="inlineStr">
+      <c r="C97" t="inlineStr">
         <is>
           <t xml:space="preserve">المعلم علي
 </t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
+      <c r="D97" t="inlineStr">
         <is>
           <t xml:space="preserve">عبد الكريم غلاب
 </t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
+      <c r="E97" t="inlineStr">
         <is>
           <t xml:space="preserve"> المغرب
 </t>
         </is>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
+    <row r="98">
+      <c r="B98" t="inlineStr">
         <is>
           <t xml:space="preserve">97
 </t>
         </is>
       </c>
-      <c r="B97" t="inlineStr">
+      <c r="C98" t="inlineStr">
         <is>
           <t xml:space="preserve">قامات الزبد
 </t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
+      <c r="D98" t="inlineStr">
         <is>
           <t xml:space="preserve">إلياس فركوح
 </t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
+      <c r="E98" t="inlineStr">
         <is>
           <t xml:space="preserve"> الأردن
 </t>
         </is>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
+    <row r="99">
+      <c r="B99" t="inlineStr">
         <is>
           <t xml:space="preserve">98
 </t>
         </is>
       </c>
-      <c r="B98" t="inlineStr">
+      <c r="C99" t="inlineStr">
         <is>
           <t xml:space="preserve">عصافير الفجر
 </t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
+      <c r="D99" t="inlineStr">
         <is>
           <t xml:space="preserve">ليلى عسيران
 </t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
+      <c r="E99" t="inlineStr">
         <is>
           <t xml:space="preserve"> لبنان
 </t>
         </is>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
+    <row r="100">
+      <c r="B100" t="inlineStr">
         <is>
           <t xml:space="preserve">99
 </t>
         </is>
       </c>
-      <c r="B99" t="inlineStr">
+      <c r="C100" t="inlineStr">
         <is>
           <t xml:space="preserve">جسر بنات يعقوب
 </t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
+      <c r="D100" t="inlineStr">
         <is>
           <t xml:space="preserve">حسن حميد
 </t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
+      <c r="E100" t="inlineStr">
         <is>
           <t xml:space="preserve"> فلسطين
 </t>
         </is>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
+    <row r="101">
+      <c r="B101" t="inlineStr">
         <is>
           <t xml:space="preserve">100
 </t>
         </is>
       </c>
-      <c r="B100" t="inlineStr">
+      <c r="C101" t="inlineStr">
         <is>
           <t xml:space="preserve">الوسمية
 </t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
+      <c r="D101" t="inlineStr">
         <is>
           <t xml:space="preserve">عبد العزيز مشري
 </t>
         </is>
       </c>
-      <c r="D100" t="inlineStr">
+      <c r="E101" t="inlineStr">
         <is>
           <t xml:space="preserve"> السعودية
 </t>
         </is>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
+    <row r="102">
+      <c r="B102" t="inlineStr">
         <is>
           <t xml:space="preserve">101
 </t>
         </is>
       </c>
-      <c r="B101" t="inlineStr">
+      <c r="C102" t="inlineStr">
         <is>
           <t xml:space="preserve">البشموري
 </t>
         </is>
       </c>
-      <c r="C101" t="inlineStr">
+      <c r="D102" t="inlineStr">
         <is>
           <t xml:space="preserve">سلوى بكر
 </t>
         </is>
       </c>
-      <c r="D101" t="inlineStr">
+      <c r="E102" t="inlineStr">
         <is>
           <t xml:space="preserve"> مصر
 </t>
         </is>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
+    <row r="103">
+      <c r="B103" t="inlineStr">
         <is>
           <t xml:space="preserve">102
 </t>
         </is>
       </c>
-      <c r="B102" t="inlineStr">
+      <c r="C103" t="inlineStr">
         <is>
           <t xml:space="preserve">الفارس القتيل يترجل
 </t>
         </is>
       </c>
-      <c r="C102" t="inlineStr">
+      <c r="D103" t="inlineStr">
         <is>
           <t xml:space="preserve">إلياس الديري
 </t>
         </is>
       </c>
-      <c r="D102" t="inlineStr">
+      <c r="E103" t="inlineStr">
         <is>
           <t xml:space="preserve"> لبنان
 </t>
         </is>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
+    <row r="104">
+      <c r="B104" t="inlineStr">
         <is>
           <t xml:space="preserve">103
 </t>
         </is>
       </c>
-      <c r="B103" t="inlineStr">
+      <c r="C104" t="inlineStr">
         <is>
           <t xml:space="preserve">التوت المر
 </t>
         </is>
       </c>
-      <c r="C103" t="inlineStr">
+      <c r="D104" t="inlineStr">
         <is>
           <t xml:space="preserve">محمد العروسي المطوي
 </t>
         </is>
       </c>
-      <c r="D103" t="inlineStr">
+      <c r="E104" t="inlineStr">
         <is>
           <t xml:space="preserve"> تونس
 </t>
         </is>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
+    <row r="105">
+      <c r="B105" t="inlineStr">
         <is>
           <t xml:space="preserve">104
 </t>
         </is>
       </c>
-      <c r="B104" t="inlineStr">
+      <c r="C105" t="inlineStr">
         <is>
           <t xml:space="preserve">أغنية الماء والنار
 </t>
         </is>
       </c>
-      <c r="C104" t="inlineStr">
+      <c r="D105" t="inlineStr">
         <is>
           <t xml:space="preserve">عبد الله خليفة
 </t>
         </is>
       </c>
-      <c r="D104" t="inlineStr">
+      <c r="E105" t="inlineStr">
         <is>
           <t xml:space="preserve"> البحرين
 </t>
         </is>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
+    <row r="106">
+      <c r="B106" t="inlineStr">
         <is>
           <t xml:space="preserve">105
 </t>
         </is>
       </c>
-      <c r="B105" t="inlineStr">
+      <c r="C106" t="inlineStr">
         <is>
           <t xml:space="preserve">الباب المفتوح
 </t>
         </is>
       </c>
-      <c r="C105" t="inlineStr">
+      <c r="D106" t="inlineStr">
         <is>
           <t xml:space="preserve">لطيفة الزيات
 </t>
         </is>
       </c>
-      <c r="D105" t="inlineStr">
+      <c r="E106" t="inlineStr">
         <is>
           <t xml:space="preserve"> مصر
 </t>
         </is>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
+    <row r="107">
+      <c r="B107" t="inlineStr">
         <is>
           <t xml:space="preserve">106
 </t>
         </is>
       </c>
-      <c r="B106" t="inlineStr">
+      <c r="C107" t="inlineStr">
         <is>
           <t xml:space="preserve">مدن الملح (خماسية)
 </t>
         </is>
       </c>
-      <c r="C106" t="inlineStr">
+      <c r="D107" t="inlineStr">
         <is>
           <t xml:space="preserve">عبد الرحمن منيف
 </t>
         </is>
       </c>
-      <c r="D106" t="inlineStr">
+      <c r="E107" t="inlineStr">
         <is>
           <t xml:space="preserve"> السعودية
 </t>
@@ -3179,430 +3179,430 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1"/>
-    <hyperlink ref="B1" r:id="rId2"/>
-    <hyperlink ref="C1" r:id="rId3"/>
-    <hyperlink ref="D1" r:id="rId4"/>
-    <hyperlink ref="A2" r:id="rId5"/>
-    <hyperlink ref="B2" r:id="rId6"/>
-    <hyperlink ref="C2" r:id="rId7"/>
-    <hyperlink ref="D2" r:id="rId8"/>
-    <hyperlink ref="A3" r:id="rId9"/>
-    <hyperlink ref="B3" r:id="rId10"/>
-    <hyperlink ref="C3" r:id="rId11"/>
-    <hyperlink ref="D3" r:id="rId12"/>
-    <hyperlink ref="A4" r:id="rId13"/>
-    <hyperlink ref="B4" r:id="rId14"/>
-    <hyperlink ref="C4" r:id="rId15"/>
-    <hyperlink ref="D4" r:id="rId16"/>
-    <hyperlink ref="A5" r:id="rId17"/>
-    <hyperlink ref="B5" r:id="rId18"/>
-    <hyperlink ref="C5" r:id="rId19"/>
-    <hyperlink ref="D5" r:id="rId20"/>
-    <hyperlink ref="A6" r:id="rId21"/>
-    <hyperlink ref="B6" r:id="rId22"/>
-    <hyperlink ref="C6" r:id="rId23"/>
-    <hyperlink ref="D6" r:id="rId24"/>
-    <hyperlink ref="A7" r:id="rId25"/>
-    <hyperlink ref="B7" r:id="rId26"/>
-    <hyperlink ref="C7" r:id="rId27"/>
-    <hyperlink ref="D7" r:id="rId28"/>
-    <hyperlink ref="A8" r:id="rId29"/>
-    <hyperlink ref="B8" r:id="rId30"/>
-    <hyperlink ref="C8" r:id="rId31"/>
-    <hyperlink ref="D8" r:id="rId32"/>
-    <hyperlink ref="A9" r:id="rId33"/>
-    <hyperlink ref="B9" r:id="rId34"/>
-    <hyperlink ref="C9" r:id="rId35"/>
-    <hyperlink ref="D9" r:id="rId36"/>
-    <hyperlink ref="A10" r:id="rId37"/>
-    <hyperlink ref="B10" r:id="rId38"/>
-    <hyperlink ref="C10" r:id="rId39"/>
-    <hyperlink ref="D10" r:id="rId40"/>
-    <hyperlink ref="A11" r:id="rId41"/>
-    <hyperlink ref="B11" r:id="rId42"/>
-    <hyperlink ref="C11" r:id="rId43"/>
-    <hyperlink ref="D11" r:id="rId44"/>
-    <hyperlink ref="A12" r:id="rId45"/>
-    <hyperlink ref="B12" r:id="rId46"/>
-    <hyperlink ref="C12" r:id="rId47"/>
-    <hyperlink ref="D12" r:id="rId48"/>
-    <hyperlink ref="A13" r:id="rId49"/>
-    <hyperlink ref="B13" r:id="rId50"/>
-    <hyperlink ref="C13" r:id="rId51"/>
-    <hyperlink ref="D13" r:id="rId52"/>
-    <hyperlink ref="A14" r:id="rId53"/>
-    <hyperlink ref="B14" r:id="rId54"/>
-    <hyperlink ref="C14" r:id="rId55"/>
-    <hyperlink ref="D14" r:id="rId56"/>
-    <hyperlink ref="A15" r:id="rId57"/>
-    <hyperlink ref="B15" r:id="rId58"/>
-    <hyperlink ref="C15" r:id="rId59"/>
-    <hyperlink ref="D15" r:id="rId60"/>
-    <hyperlink ref="A16" r:id="rId61"/>
-    <hyperlink ref="B16" r:id="rId62"/>
-    <hyperlink ref="C16" r:id="rId63"/>
-    <hyperlink ref="D16" r:id="rId64"/>
-    <hyperlink ref="A17" r:id="rId65"/>
-    <hyperlink ref="B17" r:id="rId66"/>
-    <hyperlink ref="C17" r:id="rId67"/>
-    <hyperlink ref="D17" r:id="rId68"/>
-    <hyperlink ref="A18" r:id="rId69"/>
-    <hyperlink ref="B18" r:id="rId70"/>
-    <hyperlink ref="C18" r:id="rId71"/>
-    <hyperlink ref="D18" r:id="rId72"/>
-    <hyperlink ref="A19" r:id="rId73"/>
-    <hyperlink ref="B19" r:id="rId74"/>
-    <hyperlink ref="C19" r:id="rId75"/>
-    <hyperlink ref="D19" r:id="rId76"/>
-    <hyperlink ref="A20" r:id="rId77"/>
-    <hyperlink ref="B20" r:id="rId78"/>
-    <hyperlink ref="C20" r:id="rId79"/>
-    <hyperlink ref="D20" r:id="rId80"/>
-    <hyperlink ref="A21" r:id="rId81"/>
-    <hyperlink ref="B21" r:id="rId82"/>
-    <hyperlink ref="C21" r:id="rId83"/>
-    <hyperlink ref="D21" r:id="rId84"/>
-    <hyperlink ref="A22" r:id="rId85"/>
-    <hyperlink ref="B22" r:id="rId86"/>
-    <hyperlink ref="C22" r:id="rId87"/>
-    <hyperlink ref="D22" r:id="rId88"/>
-    <hyperlink ref="A23" r:id="rId89"/>
-    <hyperlink ref="B23" r:id="rId90"/>
-    <hyperlink ref="C23" r:id="rId91"/>
-    <hyperlink ref="D23" r:id="rId92"/>
-    <hyperlink ref="A24" r:id="rId93"/>
-    <hyperlink ref="B24" r:id="rId94"/>
-    <hyperlink ref="C24" r:id="rId95"/>
-    <hyperlink ref="D24" r:id="rId96"/>
-    <hyperlink ref="A25" r:id="rId97"/>
-    <hyperlink ref="B25" r:id="rId98"/>
-    <hyperlink ref="C25" r:id="rId99"/>
-    <hyperlink ref="D25" r:id="rId100"/>
-    <hyperlink ref="A26" r:id="rId101"/>
-    <hyperlink ref="B26" r:id="rId102"/>
-    <hyperlink ref="C26" r:id="rId103"/>
-    <hyperlink ref="D26" r:id="rId104"/>
-    <hyperlink ref="A27" r:id="rId105"/>
-    <hyperlink ref="B27" r:id="rId106"/>
-    <hyperlink ref="C27" r:id="rId107"/>
-    <hyperlink ref="D27" r:id="rId108"/>
-    <hyperlink ref="A28" r:id="rId109"/>
-    <hyperlink ref="B28" r:id="rId110"/>
-    <hyperlink ref="C28" r:id="rId111"/>
-    <hyperlink ref="D28" r:id="rId112"/>
-    <hyperlink ref="A29" r:id="rId113"/>
-    <hyperlink ref="B29" r:id="rId114"/>
-    <hyperlink ref="C29" r:id="rId115"/>
-    <hyperlink ref="D29" r:id="rId116"/>
-    <hyperlink ref="A30" r:id="rId117"/>
-    <hyperlink ref="B30" r:id="rId118"/>
-    <hyperlink ref="C30" r:id="rId119"/>
-    <hyperlink ref="D30" r:id="rId120"/>
-    <hyperlink ref="A31" r:id="rId121"/>
-    <hyperlink ref="B31" r:id="rId122"/>
-    <hyperlink ref="C31" r:id="rId123"/>
-    <hyperlink ref="D31" r:id="rId124"/>
-    <hyperlink ref="A32" r:id="rId125"/>
-    <hyperlink ref="B32" r:id="rId126"/>
-    <hyperlink ref="C32" r:id="rId127"/>
-    <hyperlink ref="D32" r:id="rId128"/>
-    <hyperlink ref="A33" r:id="rId129"/>
-    <hyperlink ref="B33" r:id="rId130"/>
-    <hyperlink ref="C33" r:id="rId131"/>
-    <hyperlink ref="D33" r:id="rId132"/>
-    <hyperlink ref="A34" r:id="rId133"/>
-    <hyperlink ref="B34" r:id="rId134"/>
-    <hyperlink ref="C34" r:id="rId135"/>
-    <hyperlink ref="D34" r:id="rId136"/>
-    <hyperlink ref="A35" r:id="rId137"/>
-    <hyperlink ref="B35" r:id="rId138"/>
-    <hyperlink ref="C35" r:id="rId139"/>
-    <hyperlink ref="D35" r:id="rId140"/>
-    <hyperlink ref="A36" r:id="rId141"/>
-    <hyperlink ref="B36" r:id="rId142"/>
-    <hyperlink ref="C36" r:id="rId143"/>
-    <hyperlink ref="D36" r:id="rId144"/>
-    <hyperlink ref="A37" r:id="rId145"/>
-    <hyperlink ref="B37" r:id="rId146"/>
-    <hyperlink ref="C37" r:id="rId147"/>
-    <hyperlink ref="D37" r:id="rId148"/>
-    <hyperlink ref="A38" r:id="rId149"/>
-    <hyperlink ref="B38" r:id="rId150"/>
-    <hyperlink ref="C38" r:id="rId151"/>
-    <hyperlink ref="D38" r:id="rId152"/>
-    <hyperlink ref="A39" r:id="rId153"/>
-    <hyperlink ref="B39" r:id="rId154"/>
-    <hyperlink ref="C39" r:id="rId155"/>
-    <hyperlink ref="D39" r:id="rId156"/>
-    <hyperlink ref="A40" r:id="rId157"/>
-    <hyperlink ref="B40" r:id="rId158"/>
-    <hyperlink ref="C40" r:id="rId159"/>
-    <hyperlink ref="D40" r:id="rId160"/>
-    <hyperlink ref="A41" r:id="rId161"/>
-    <hyperlink ref="B41" r:id="rId162"/>
-    <hyperlink ref="C41" r:id="rId163"/>
-    <hyperlink ref="D41" r:id="rId164"/>
-    <hyperlink ref="A42" r:id="rId165"/>
-    <hyperlink ref="B42" r:id="rId166"/>
-    <hyperlink ref="C42" r:id="rId167"/>
-    <hyperlink ref="D42" r:id="rId168"/>
-    <hyperlink ref="A43" r:id="rId169"/>
-    <hyperlink ref="B43" r:id="rId170"/>
-    <hyperlink ref="C43" r:id="rId171"/>
-    <hyperlink ref="D43" r:id="rId172"/>
-    <hyperlink ref="A44" r:id="rId173"/>
-    <hyperlink ref="B44" r:id="rId174"/>
-    <hyperlink ref="C44" r:id="rId175"/>
-    <hyperlink ref="D44" r:id="rId176"/>
-    <hyperlink ref="A45" r:id="rId177"/>
-    <hyperlink ref="B45" r:id="rId178"/>
-    <hyperlink ref="C45" r:id="rId179"/>
-    <hyperlink ref="D45" r:id="rId180"/>
-    <hyperlink ref="A46" r:id="rId181"/>
-    <hyperlink ref="B46" r:id="rId182"/>
-    <hyperlink ref="C46" r:id="rId183"/>
-    <hyperlink ref="D46" r:id="rId184"/>
-    <hyperlink ref="A47" r:id="rId185"/>
-    <hyperlink ref="B47" r:id="rId186"/>
-    <hyperlink ref="C47" r:id="rId187"/>
-    <hyperlink ref="D47" r:id="rId188"/>
-    <hyperlink ref="A48" r:id="rId189"/>
-    <hyperlink ref="B48" r:id="rId190"/>
-    <hyperlink ref="C48" r:id="rId191"/>
-    <hyperlink ref="D48" r:id="rId192"/>
-    <hyperlink ref="A49" r:id="rId193"/>
-    <hyperlink ref="B49" r:id="rId194"/>
-    <hyperlink ref="C49" r:id="rId195"/>
-    <hyperlink ref="D49" r:id="rId196"/>
-    <hyperlink ref="A50" r:id="rId197"/>
-    <hyperlink ref="B50" r:id="rId198"/>
-    <hyperlink ref="C50" r:id="rId199"/>
-    <hyperlink ref="D50" r:id="rId200"/>
-    <hyperlink ref="A51" r:id="rId201"/>
-    <hyperlink ref="B51" r:id="rId202"/>
-    <hyperlink ref="C51" r:id="rId203"/>
-    <hyperlink ref="D51" r:id="rId204"/>
-    <hyperlink ref="A52" r:id="rId205"/>
-    <hyperlink ref="B52" r:id="rId206"/>
-    <hyperlink ref="C52" r:id="rId207"/>
-    <hyperlink ref="D52" r:id="rId208"/>
-    <hyperlink ref="A53" r:id="rId209"/>
-    <hyperlink ref="B53" r:id="rId210"/>
-    <hyperlink ref="C53" r:id="rId211"/>
-    <hyperlink ref="D53" r:id="rId212"/>
-    <hyperlink ref="A54" r:id="rId213"/>
-    <hyperlink ref="B54" r:id="rId214"/>
-    <hyperlink ref="C54" r:id="rId215"/>
-    <hyperlink ref="D54" r:id="rId216"/>
-    <hyperlink ref="A55" r:id="rId217"/>
-    <hyperlink ref="B55" r:id="rId218"/>
-    <hyperlink ref="C55" r:id="rId219"/>
-    <hyperlink ref="D55" r:id="rId220"/>
-    <hyperlink ref="A56" r:id="rId221"/>
-    <hyperlink ref="B56" r:id="rId222"/>
-    <hyperlink ref="C56" r:id="rId223"/>
-    <hyperlink ref="D56" r:id="rId224"/>
-    <hyperlink ref="A57" r:id="rId225"/>
-    <hyperlink ref="B57" r:id="rId226"/>
-    <hyperlink ref="C57" r:id="rId227"/>
-    <hyperlink ref="D57" r:id="rId228"/>
-    <hyperlink ref="A58" r:id="rId229"/>
-    <hyperlink ref="B58" r:id="rId230"/>
-    <hyperlink ref="C58" r:id="rId231"/>
-    <hyperlink ref="D58" r:id="rId232"/>
-    <hyperlink ref="A59" r:id="rId233"/>
-    <hyperlink ref="B59" r:id="rId234"/>
-    <hyperlink ref="C59" r:id="rId235"/>
-    <hyperlink ref="D59" r:id="rId236"/>
-    <hyperlink ref="A60" r:id="rId237"/>
-    <hyperlink ref="B60" r:id="rId238"/>
-    <hyperlink ref="C60" r:id="rId239"/>
-    <hyperlink ref="D60" r:id="rId240"/>
-    <hyperlink ref="A61" r:id="rId241"/>
-    <hyperlink ref="B61" r:id="rId242"/>
-    <hyperlink ref="C61" r:id="rId243"/>
-    <hyperlink ref="D61" r:id="rId244"/>
-    <hyperlink ref="A62" r:id="rId245"/>
-    <hyperlink ref="B62" r:id="rId246"/>
-    <hyperlink ref="C62" r:id="rId247"/>
-    <hyperlink ref="D62" r:id="rId248"/>
-    <hyperlink ref="A63" r:id="rId249"/>
-    <hyperlink ref="B63" r:id="rId250"/>
-    <hyperlink ref="C63" r:id="rId251"/>
-    <hyperlink ref="D63" r:id="rId252"/>
-    <hyperlink ref="A64" r:id="rId253"/>
-    <hyperlink ref="B64" r:id="rId254"/>
-    <hyperlink ref="C64" r:id="rId255"/>
-    <hyperlink ref="D64" r:id="rId256"/>
-    <hyperlink ref="A65" r:id="rId257"/>
-    <hyperlink ref="B65" r:id="rId258"/>
-    <hyperlink ref="C65" r:id="rId259"/>
-    <hyperlink ref="D65" r:id="rId260"/>
-    <hyperlink ref="A66" r:id="rId261"/>
-    <hyperlink ref="B66" r:id="rId262"/>
-    <hyperlink ref="C66" r:id="rId263"/>
-    <hyperlink ref="D66" r:id="rId264"/>
-    <hyperlink ref="A67" r:id="rId265"/>
-    <hyperlink ref="B67" r:id="rId266"/>
-    <hyperlink ref="C67" r:id="rId267"/>
-    <hyperlink ref="D67" r:id="rId268"/>
-    <hyperlink ref="A68" r:id="rId269"/>
-    <hyperlink ref="B68" r:id="rId270"/>
-    <hyperlink ref="C68" r:id="rId271"/>
-    <hyperlink ref="D68" r:id="rId272"/>
-    <hyperlink ref="A69" r:id="rId273"/>
-    <hyperlink ref="B69" r:id="rId274"/>
-    <hyperlink ref="C69" r:id="rId275"/>
-    <hyperlink ref="D69" r:id="rId276"/>
-    <hyperlink ref="A70" r:id="rId277"/>
-    <hyperlink ref="B70" r:id="rId278"/>
-    <hyperlink ref="C70" r:id="rId279"/>
-    <hyperlink ref="D70" r:id="rId280"/>
-    <hyperlink ref="A71" r:id="rId281"/>
-    <hyperlink ref="B71" r:id="rId282"/>
-    <hyperlink ref="C71" r:id="rId283"/>
-    <hyperlink ref="D71" r:id="rId284"/>
-    <hyperlink ref="A72" r:id="rId285"/>
-    <hyperlink ref="B72" r:id="rId286"/>
-    <hyperlink ref="C72" r:id="rId287"/>
-    <hyperlink ref="D72" r:id="rId288"/>
-    <hyperlink ref="A73" r:id="rId289"/>
-    <hyperlink ref="B73" r:id="rId290"/>
-    <hyperlink ref="C73" r:id="rId291"/>
-    <hyperlink ref="D73" r:id="rId292"/>
-    <hyperlink ref="A74" r:id="rId293"/>
-    <hyperlink ref="B74" r:id="rId294"/>
-    <hyperlink ref="C74" r:id="rId295"/>
-    <hyperlink ref="D74" r:id="rId296"/>
-    <hyperlink ref="A75" r:id="rId297"/>
-    <hyperlink ref="B75" r:id="rId298"/>
-    <hyperlink ref="C75" r:id="rId299"/>
-    <hyperlink ref="D75" r:id="rId300"/>
-    <hyperlink ref="A76" r:id="rId301"/>
-    <hyperlink ref="B76" r:id="rId302"/>
-    <hyperlink ref="C76" r:id="rId303"/>
-    <hyperlink ref="D76" r:id="rId304"/>
-    <hyperlink ref="A77" r:id="rId305"/>
-    <hyperlink ref="B77" r:id="rId306"/>
-    <hyperlink ref="C77" r:id="rId307"/>
-    <hyperlink ref="D77" r:id="rId308"/>
-    <hyperlink ref="A78" r:id="rId309"/>
-    <hyperlink ref="B78" r:id="rId310"/>
-    <hyperlink ref="C78" r:id="rId311"/>
-    <hyperlink ref="D78" r:id="rId312"/>
-    <hyperlink ref="A79" r:id="rId313"/>
-    <hyperlink ref="B79" r:id="rId314"/>
-    <hyperlink ref="C79" r:id="rId315"/>
-    <hyperlink ref="D79" r:id="rId316"/>
-    <hyperlink ref="A80" r:id="rId317"/>
-    <hyperlink ref="B80" r:id="rId318"/>
-    <hyperlink ref="C80" r:id="rId319"/>
-    <hyperlink ref="D80" r:id="rId320"/>
-    <hyperlink ref="A81" r:id="rId321"/>
-    <hyperlink ref="B81" r:id="rId322"/>
-    <hyperlink ref="C81" r:id="rId323"/>
-    <hyperlink ref="D81" r:id="rId324"/>
-    <hyperlink ref="A82" r:id="rId325"/>
-    <hyperlink ref="B82" r:id="rId326"/>
-    <hyperlink ref="C82" r:id="rId327"/>
-    <hyperlink ref="D82" r:id="rId328"/>
-    <hyperlink ref="A83" r:id="rId329"/>
-    <hyperlink ref="B83" r:id="rId330"/>
-    <hyperlink ref="C83" r:id="rId331"/>
-    <hyperlink ref="D83" r:id="rId332"/>
-    <hyperlink ref="A84" r:id="rId333"/>
-    <hyperlink ref="B84" r:id="rId334"/>
-    <hyperlink ref="C84" r:id="rId335"/>
-    <hyperlink ref="D84" r:id="rId336"/>
-    <hyperlink ref="A85" r:id="rId337"/>
-    <hyperlink ref="B85" r:id="rId338"/>
-    <hyperlink ref="C85" r:id="rId339"/>
-    <hyperlink ref="D85" r:id="rId340"/>
-    <hyperlink ref="A86" r:id="rId341"/>
-    <hyperlink ref="B86" r:id="rId342"/>
-    <hyperlink ref="C86" r:id="rId343"/>
-    <hyperlink ref="D86" r:id="rId344"/>
-    <hyperlink ref="A87" r:id="rId345"/>
-    <hyperlink ref="B87" r:id="rId346"/>
-    <hyperlink ref="C87" r:id="rId347"/>
-    <hyperlink ref="D87" r:id="rId348"/>
-    <hyperlink ref="A88" r:id="rId349"/>
-    <hyperlink ref="B88" r:id="rId350"/>
-    <hyperlink ref="C88" r:id="rId351"/>
-    <hyperlink ref="D88" r:id="rId352"/>
-    <hyperlink ref="A89" r:id="rId353"/>
-    <hyperlink ref="B89" r:id="rId354"/>
-    <hyperlink ref="C89" r:id="rId355"/>
-    <hyperlink ref="D89" r:id="rId356"/>
-    <hyperlink ref="A90" r:id="rId357"/>
-    <hyperlink ref="B90" r:id="rId358"/>
-    <hyperlink ref="C90" r:id="rId359"/>
-    <hyperlink ref="D90" r:id="rId360"/>
-    <hyperlink ref="A91" r:id="rId361"/>
-    <hyperlink ref="B91" r:id="rId362"/>
-    <hyperlink ref="C91" r:id="rId363"/>
-    <hyperlink ref="D91" r:id="rId364"/>
-    <hyperlink ref="A92" r:id="rId365"/>
-    <hyperlink ref="B92" r:id="rId366"/>
-    <hyperlink ref="C92" r:id="rId367"/>
-    <hyperlink ref="D92" r:id="rId368"/>
-    <hyperlink ref="A93" r:id="rId369"/>
-    <hyperlink ref="B93" r:id="rId370"/>
-    <hyperlink ref="C93" r:id="rId371"/>
-    <hyperlink ref="D93" r:id="rId372"/>
-    <hyperlink ref="A94" r:id="rId373"/>
-    <hyperlink ref="B94" r:id="rId374"/>
-    <hyperlink ref="C94" r:id="rId375"/>
-    <hyperlink ref="D94" r:id="rId376"/>
-    <hyperlink ref="A95" r:id="rId377"/>
-    <hyperlink ref="B95" r:id="rId378"/>
-    <hyperlink ref="C95" r:id="rId379"/>
-    <hyperlink ref="D95" r:id="rId380"/>
-    <hyperlink ref="A96" r:id="rId381"/>
-    <hyperlink ref="B96" r:id="rId382"/>
-    <hyperlink ref="C96" r:id="rId383"/>
-    <hyperlink ref="D96" r:id="rId384"/>
-    <hyperlink ref="A97" r:id="rId385"/>
-    <hyperlink ref="B97" r:id="rId386"/>
-    <hyperlink ref="C97" r:id="rId387"/>
-    <hyperlink ref="D97" r:id="rId388"/>
-    <hyperlink ref="A98" r:id="rId389"/>
-    <hyperlink ref="B98" r:id="rId390"/>
-    <hyperlink ref="C98" r:id="rId391"/>
-    <hyperlink ref="D98" r:id="rId392"/>
-    <hyperlink ref="A99" r:id="rId393"/>
-    <hyperlink ref="B99" r:id="rId394"/>
-    <hyperlink ref="C99" r:id="rId395"/>
-    <hyperlink ref="D99" r:id="rId396"/>
-    <hyperlink ref="A100" r:id="rId397"/>
-    <hyperlink ref="B100" r:id="rId398"/>
-    <hyperlink ref="C100" r:id="rId399"/>
-    <hyperlink ref="D100" r:id="rId400"/>
-    <hyperlink ref="A101" r:id="rId401"/>
-    <hyperlink ref="B101" r:id="rId402"/>
-    <hyperlink ref="C101" r:id="rId403"/>
-    <hyperlink ref="D101" r:id="rId404"/>
-    <hyperlink ref="A102" r:id="rId405"/>
-    <hyperlink ref="B102" r:id="rId406"/>
-    <hyperlink ref="C102" r:id="rId407"/>
-    <hyperlink ref="D102" r:id="rId408"/>
-    <hyperlink ref="A103" r:id="rId409"/>
-    <hyperlink ref="B103" r:id="rId410"/>
-    <hyperlink ref="C103" r:id="rId411"/>
-    <hyperlink ref="D103" r:id="rId412"/>
-    <hyperlink ref="A104" r:id="rId413"/>
-    <hyperlink ref="B104" r:id="rId414"/>
-    <hyperlink ref="C104" r:id="rId415"/>
-    <hyperlink ref="D104" r:id="rId416"/>
-    <hyperlink ref="A105" r:id="rId417"/>
-    <hyperlink ref="B105" r:id="rId418"/>
-    <hyperlink ref="C105" r:id="rId419"/>
-    <hyperlink ref="D105" r:id="rId420"/>
-    <hyperlink ref="A106" r:id="rId421"/>
-    <hyperlink ref="B106" r:id="rId422"/>
-    <hyperlink ref="C106" r:id="rId423"/>
-    <hyperlink ref="D106" r:id="rId424"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="C2" r:id="rId2"/>
+    <hyperlink ref="D2" r:id="rId3"/>
+    <hyperlink ref="E2" r:id="rId4"/>
+    <hyperlink ref="B3" r:id="rId5"/>
+    <hyperlink ref="C3" r:id="rId6"/>
+    <hyperlink ref="D3" r:id="rId7"/>
+    <hyperlink ref="E3" r:id="rId8"/>
+    <hyperlink ref="B4" r:id="rId9"/>
+    <hyperlink ref="C4" r:id="rId10"/>
+    <hyperlink ref="D4" r:id="rId11"/>
+    <hyperlink ref="E4" r:id="rId12"/>
+    <hyperlink ref="B5" r:id="rId13"/>
+    <hyperlink ref="C5" r:id="rId14"/>
+    <hyperlink ref="D5" r:id="rId15"/>
+    <hyperlink ref="E5" r:id="rId16"/>
+    <hyperlink ref="B6" r:id="rId17"/>
+    <hyperlink ref="C6" r:id="rId18"/>
+    <hyperlink ref="D6" r:id="rId19"/>
+    <hyperlink ref="E6" r:id="rId20"/>
+    <hyperlink ref="B7" r:id="rId21"/>
+    <hyperlink ref="C7" r:id="rId22"/>
+    <hyperlink ref="D7" r:id="rId23"/>
+    <hyperlink ref="E7" r:id="rId24"/>
+    <hyperlink ref="B8" r:id="rId25"/>
+    <hyperlink ref="C8" r:id="rId26"/>
+    <hyperlink ref="D8" r:id="rId27"/>
+    <hyperlink ref="E8" r:id="rId28"/>
+    <hyperlink ref="B9" r:id="rId29"/>
+    <hyperlink ref="C9" r:id="rId30"/>
+    <hyperlink ref="D9" r:id="rId31"/>
+    <hyperlink ref="E9" r:id="rId32"/>
+    <hyperlink ref="B10" r:id="rId33"/>
+    <hyperlink ref="C10" r:id="rId34"/>
+    <hyperlink ref="D10" r:id="rId35"/>
+    <hyperlink ref="E10" r:id="rId36"/>
+    <hyperlink ref="B11" r:id="rId37"/>
+    <hyperlink ref="C11" r:id="rId38"/>
+    <hyperlink ref="D11" r:id="rId39"/>
+    <hyperlink ref="E11" r:id="rId40"/>
+    <hyperlink ref="B12" r:id="rId41"/>
+    <hyperlink ref="C12" r:id="rId42"/>
+    <hyperlink ref="D12" r:id="rId43"/>
+    <hyperlink ref="E12" r:id="rId44"/>
+    <hyperlink ref="B13" r:id="rId45"/>
+    <hyperlink ref="C13" r:id="rId46"/>
+    <hyperlink ref="D13" r:id="rId47"/>
+    <hyperlink ref="E13" r:id="rId48"/>
+    <hyperlink ref="B14" r:id="rId49"/>
+    <hyperlink ref="C14" r:id="rId50"/>
+    <hyperlink ref="D14" r:id="rId51"/>
+    <hyperlink ref="E14" r:id="rId52"/>
+    <hyperlink ref="B15" r:id="rId53"/>
+    <hyperlink ref="C15" r:id="rId54"/>
+    <hyperlink ref="D15" r:id="rId55"/>
+    <hyperlink ref="E15" r:id="rId56"/>
+    <hyperlink ref="B16" r:id="rId57"/>
+    <hyperlink ref="C16" r:id="rId58"/>
+    <hyperlink ref="D16" r:id="rId59"/>
+    <hyperlink ref="E16" r:id="rId60"/>
+    <hyperlink ref="B17" r:id="rId61"/>
+    <hyperlink ref="C17" r:id="rId62"/>
+    <hyperlink ref="D17" r:id="rId63"/>
+    <hyperlink ref="E17" r:id="rId64"/>
+    <hyperlink ref="B18" r:id="rId65"/>
+    <hyperlink ref="C18" r:id="rId66"/>
+    <hyperlink ref="D18" r:id="rId67"/>
+    <hyperlink ref="E18" r:id="rId68"/>
+    <hyperlink ref="B19" r:id="rId69"/>
+    <hyperlink ref="C19" r:id="rId70"/>
+    <hyperlink ref="D19" r:id="rId71"/>
+    <hyperlink ref="E19" r:id="rId72"/>
+    <hyperlink ref="B20" r:id="rId73"/>
+    <hyperlink ref="C20" r:id="rId74"/>
+    <hyperlink ref="D20" r:id="rId75"/>
+    <hyperlink ref="E20" r:id="rId76"/>
+    <hyperlink ref="B21" r:id="rId77"/>
+    <hyperlink ref="C21" r:id="rId78"/>
+    <hyperlink ref="D21" r:id="rId79"/>
+    <hyperlink ref="E21" r:id="rId80"/>
+    <hyperlink ref="B22" r:id="rId81"/>
+    <hyperlink ref="C22" r:id="rId82"/>
+    <hyperlink ref="D22" r:id="rId83"/>
+    <hyperlink ref="E22" r:id="rId84"/>
+    <hyperlink ref="B23" r:id="rId85"/>
+    <hyperlink ref="C23" r:id="rId86"/>
+    <hyperlink ref="D23" r:id="rId87"/>
+    <hyperlink ref="E23" r:id="rId88"/>
+    <hyperlink ref="B24" r:id="rId89"/>
+    <hyperlink ref="C24" r:id="rId90"/>
+    <hyperlink ref="D24" r:id="rId91"/>
+    <hyperlink ref="E24" r:id="rId92"/>
+    <hyperlink ref="B25" r:id="rId93"/>
+    <hyperlink ref="C25" r:id="rId94"/>
+    <hyperlink ref="D25" r:id="rId95"/>
+    <hyperlink ref="E25" r:id="rId96"/>
+    <hyperlink ref="B26" r:id="rId97"/>
+    <hyperlink ref="C26" r:id="rId98"/>
+    <hyperlink ref="D26" r:id="rId99"/>
+    <hyperlink ref="E26" r:id="rId100"/>
+    <hyperlink ref="B27" r:id="rId101"/>
+    <hyperlink ref="C27" r:id="rId102"/>
+    <hyperlink ref="D27" r:id="rId103"/>
+    <hyperlink ref="E27" r:id="rId104"/>
+    <hyperlink ref="B28" r:id="rId105"/>
+    <hyperlink ref="C28" r:id="rId106"/>
+    <hyperlink ref="D28" r:id="rId107"/>
+    <hyperlink ref="E28" r:id="rId108"/>
+    <hyperlink ref="B29" r:id="rId109"/>
+    <hyperlink ref="C29" r:id="rId110"/>
+    <hyperlink ref="D29" r:id="rId111"/>
+    <hyperlink ref="E29" r:id="rId112"/>
+    <hyperlink ref="B30" r:id="rId113"/>
+    <hyperlink ref="C30" r:id="rId114"/>
+    <hyperlink ref="D30" r:id="rId115"/>
+    <hyperlink ref="E30" r:id="rId116"/>
+    <hyperlink ref="B31" r:id="rId117"/>
+    <hyperlink ref="C31" r:id="rId118"/>
+    <hyperlink ref="D31" r:id="rId119"/>
+    <hyperlink ref="E31" r:id="rId120"/>
+    <hyperlink ref="B32" r:id="rId121"/>
+    <hyperlink ref="C32" r:id="rId122"/>
+    <hyperlink ref="D32" r:id="rId123"/>
+    <hyperlink ref="E32" r:id="rId124"/>
+    <hyperlink ref="B33" r:id="rId125"/>
+    <hyperlink ref="C33" r:id="rId126"/>
+    <hyperlink ref="D33" r:id="rId127"/>
+    <hyperlink ref="E33" r:id="rId128"/>
+    <hyperlink ref="B34" r:id="rId129"/>
+    <hyperlink ref="C34" r:id="rId130"/>
+    <hyperlink ref="D34" r:id="rId131"/>
+    <hyperlink ref="E34" r:id="rId132"/>
+    <hyperlink ref="B35" r:id="rId133"/>
+    <hyperlink ref="C35" r:id="rId134"/>
+    <hyperlink ref="D35" r:id="rId135"/>
+    <hyperlink ref="E35" r:id="rId136"/>
+    <hyperlink ref="B36" r:id="rId137"/>
+    <hyperlink ref="C36" r:id="rId138"/>
+    <hyperlink ref="D36" r:id="rId139"/>
+    <hyperlink ref="E36" r:id="rId140"/>
+    <hyperlink ref="B37" r:id="rId141"/>
+    <hyperlink ref="C37" r:id="rId142"/>
+    <hyperlink ref="D37" r:id="rId143"/>
+    <hyperlink ref="E37" r:id="rId144"/>
+    <hyperlink ref="B38" r:id="rId145"/>
+    <hyperlink ref="C38" r:id="rId146"/>
+    <hyperlink ref="D38" r:id="rId147"/>
+    <hyperlink ref="E38" r:id="rId148"/>
+    <hyperlink ref="B39" r:id="rId149"/>
+    <hyperlink ref="C39" r:id="rId150"/>
+    <hyperlink ref="D39" r:id="rId151"/>
+    <hyperlink ref="E39" r:id="rId152"/>
+    <hyperlink ref="B40" r:id="rId153"/>
+    <hyperlink ref="C40" r:id="rId154"/>
+    <hyperlink ref="D40" r:id="rId155"/>
+    <hyperlink ref="E40" r:id="rId156"/>
+    <hyperlink ref="B41" r:id="rId157"/>
+    <hyperlink ref="C41" r:id="rId158"/>
+    <hyperlink ref="D41" r:id="rId159"/>
+    <hyperlink ref="E41" r:id="rId160"/>
+    <hyperlink ref="B42" r:id="rId161"/>
+    <hyperlink ref="C42" r:id="rId162"/>
+    <hyperlink ref="D42" r:id="rId163"/>
+    <hyperlink ref="E42" r:id="rId164"/>
+    <hyperlink ref="B43" r:id="rId165"/>
+    <hyperlink ref="C43" r:id="rId166"/>
+    <hyperlink ref="D43" r:id="rId167"/>
+    <hyperlink ref="E43" r:id="rId168"/>
+    <hyperlink ref="B44" r:id="rId169"/>
+    <hyperlink ref="C44" r:id="rId170"/>
+    <hyperlink ref="D44" r:id="rId171"/>
+    <hyperlink ref="E44" r:id="rId172"/>
+    <hyperlink ref="B45" r:id="rId173"/>
+    <hyperlink ref="C45" r:id="rId174"/>
+    <hyperlink ref="D45" r:id="rId175"/>
+    <hyperlink ref="E45" r:id="rId176"/>
+    <hyperlink ref="B46" r:id="rId177"/>
+    <hyperlink ref="C46" r:id="rId178"/>
+    <hyperlink ref="D46" r:id="rId179"/>
+    <hyperlink ref="E46" r:id="rId180"/>
+    <hyperlink ref="B47" r:id="rId181"/>
+    <hyperlink ref="C47" r:id="rId182"/>
+    <hyperlink ref="D47" r:id="rId183"/>
+    <hyperlink ref="E47" r:id="rId184"/>
+    <hyperlink ref="B48" r:id="rId185"/>
+    <hyperlink ref="C48" r:id="rId186"/>
+    <hyperlink ref="D48" r:id="rId187"/>
+    <hyperlink ref="E48" r:id="rId188"/>
+    <hyperlink ref="B49" r:id="rId189"/>
+    <hyperlink ref="C49" r:id="rId190"/>
+    <hyperlink ref="D49" r:id="rId191"/>
+    <hyperlink ref="E49" r:id="rId192"/>
+    <hyperlink ref="B50" r:id="rId193"/>
+    <hyperlink ref="C50" r:id="rId194"/>
+    <hyperlink ref="D50" r:id="rId195"/>
+    <hyperlink ref="E50" r:id="rId196"/>
+    <hyperlink ref="B51" r:id="rId197"/>
+    <hyperlink ref="C51" r:id="rId198"/>
+    <hyperlink ref="D51" r:id="rId199"/>
+    <hyperlink ref="E51" r:id="rId200"/>
+    <hyperlink ref="B52" r:id="rId201"/>
+    <hyperlink ref="C52" r:id="rId202"/>
+    <hyperlink ref="D52" r:id="rId203"/>
+    <hyperlink ref="E52" r:id="rId204"/>
+    <hyperlink ref="B53" r:id="rId205"/>
+    <hyperlink ref="C53" r:id="rId206"/>
+    <hyperlink ref="D53" r:id="rId207"/>
+    <hyperlink ref="E53" r:id="rId208"/>
+    <hyperlink ref="B54" r:id="rId209"/>
+    <hyperlink ref="C54" r:id="rId210"/>
+    <hyperlink ref="D54" r:id="rId211"/>
+    <hyperlink ref="E54" r:id="rId212"/>
+    <hyperlink ref="B55" r:id="rId213"/>
+    <hyperlink ref="C55" r:id="rId214"/>
+    <hyperlink ref="D55" r:id="rId215"/>
+    <hyperlink ref="E55" r:id="rId216"/>
+    <hyperlink ref="B56" r:id="rId217"/>
+    <hyperlink ref="C56" r:id="rId218"/>
+    <hyperlink ref="D56" r:id="rId219"/>
+    <hyperlink ref="E56" r:id="rId220"/>
+    <hyperlink ref="B57" r:id="rId221"/>
+    <hyperlink ref="C57" r:id="rId222"/>
+    <hyperlink ref="D57" r:id="rId223"/>
+    <hyperlink ref="E57" r:id="rId224"/>
+    <hyperlink ref="B58" r:id="rId225"/>
+    <hyperlink ref="C58" r:id="rId226"/>
+    <hyperlink ref="D58" r:id="rId227"/>
+    <hyperlink ref="E58" r:id="rId228"/>
+    <hyperlink ref="B59" r:id="rId229"/>
+    <hyperlink ref="C59" r:id="rId230"/>
+    <hyperlink ref="D59" r:id="rId231"/>
+    <hyperlink ref="E59" r:id="rId232"/>
+    <hyperlink ref="B60" r:id="rId233"/>
+    <hyperlink ref="C60" r:id="rId234"/>
+    <hyperlink ref="D60" r:id="rId235"/>
+    <hyperlink ref="E60" r:id="rId236"/>
+    <hyperlink ref="B61" r:id="rId237"/>
+    <hyperlink ref="C61" r:id="rId238"/>
+    <hyperlink ref="D61" r:id="rId239"/>
+    <hyperlink ref="E61" r:id="rId240"/>
+    <hyperlink ref="B62" r:id="rId241"/>
+    <hyperlink ref="C62" r:id="rId242"/>
+    <hyperlink ref="D62" r:id="rId243"/>
+    <hyperlink ref="E62" r:id="rId244"/>
+    <hyperlink ref="B63" r:id="rId245"/>
+    <hyperlink ref="C63" r:id="rId246"/>
+    <hyperlink ref="D63" r:id="rId247"/>
+    <hyperlink ref="E63" r:id="rId248"/>
+    <hyperlink ref="B64" r:id="rId249"/>
+    <hyperlink ref="C64" r:id="rId250"/>
+    <hyperlink ref="D64" r:id="rId251"/>
+    <hyperlink ref="E64" r:id="rId252"/>
+    <hyperlink ref="B65" r:id="rId253"/>
+    <hyperlink ref="C65" r:id="rId254"/>
+    <hyperlink ref="D65" r:id="rId255"/>
+    <hyperlink ref="E65" r:id="rId256"/>
+    <hyperlink ref="B66" r:id="rId257"/>
+    <hyperlink ref="C66" r:id="rId258"/>
+    <hyperlink ref="D66" r:id="rId259"/>
+    <hyperlink ref="E66" r:id="rId260"/>
+    <hyperlink ref="B67" r:id="rId261"/>
+    <hyperlink ref="C67" r:id="rId262"/>
+    <hyperlink ref="D67" r:id="rId263"/>
+    <hyperlink ref="E67" r:id="rId264"/>
+    <hyperlink ref="B68" r:id="rId265"/>
+    <hyperlink ref="C68" r:id="rId266"/>
+    <hyperlink ref="D68" r:id="rId267"/>
+    <hyperlink ref="E68" r:id="rId268"/>
+    <hyperlink ref="B69" r:id="rId269"/>
+    <hyperlink ref="C69" r:id="rId270"/>
+    <hyperlink ref="D69" r:id="rId271"/>
+    <hyperlink ref="E69" r:id="rId272"/>
+    <hyperlink ref="B70" r:id="rId273"/>
+    <hyperlink ref="C70" r:id="rId274"/>
+    <hyperlink ref="D70" r:id="rId275"/>
+    <hyperlink ref="E70" r:id="rId276"/>
+    <hyperlink ref="B71" r:id="rId277"/>
+    <hyperlink ref="C71" r:id="rId278"/>
+    <hyperlink ref="D71" r:id="rId279"/>
+    <hyperlink ref="E71" r:id="rId280"/>
+    <hyperlink ref="B72" r:id="rId281"/>
+    <hyperlink ref="C72" r:id="rId282"/>
+    <hyperlink ref="D72" r:id="rId283"/>
+    <hyperlink ref="E72" r:id="rId284"/>
+    <hyperlink ref="B73" r:id="rId285"/>
+    <hyperlink ref="C73" r:id="rId286"/>
+    <hyperlink ref="D73" r:id="rId287"/>
+    <hyperlink ref="E73" r:id="rId288"/>
+    <hyperlink ref="B74" r:id="rId289"/>
+    <hyperlink ref="C74" r:id="rId290"/>
+    <hyperlink ref="D74" r:id="rId291"/>
+    <hyperlink ref="E74" r:id="rId292"/>
+    <hyperlink ref="B75" r:id="rId293"/>
+    <hyperlink ref="C75" r:id="rId294"/>
+    <hyperlink ref="D75" r:id="rId295"/>
+    <hyperlink ref="E75" r:id="rId296"/>
+    <hyperlink ref="B76" r:id="rId297"/>
+    <hyperlink ref="C76" r:id="rId298"/>
+    <hyperlink ref="D76" r:id="rId299"/>
+    <hyperlink ref="E76" r:id="rId300"/>
+    <hyperlink ref="B77" r:id="rId301"/>
+    <hyperlink ref="C77" r:id="rId302"/>
+    <hyperlink ref="D77" r:id="rId303"/>
+    <hyperlink ref="E77" r:id="rId304"/>
+    <hyperlink ref="B78" r:id="rId305"/>
+    <hyperlink ref="C78" r:id="rId306"/>
+    <hyperlink ref="D78" r:id="rId307"/>
+    <hyperlink ref="E78" r:id="rId308"/>
+    <hyperlink ref="B79" r:id="rId309"/>
+    <hyperlink ref="C79" r:id="rId310"/>
+    <hyperlink ref="D79" r:id="rId311"/>
+    <hyperlink ref="E79" r:id="rId312"/>
+    <hyperlink ref="B80" r:id="rId313"/>
+    <hyperlink ref="C80" r:id="rId314"/>
+    <hyperlink ref="D80" r:id="rId315"/>
+    <hyperlink ref="E80" r:id="rId316"/>
+    <hyperlink ref="B81" r:id="rId317"/>
+    <hyperlink ref="C81" r:id="rId318"/>
+    <hyperlink ref="D81" r:id="rId319"/>
+    <hyperlink ref="E81" r:id="rId320"/>
+    <hyperlink ref="B82" r:id="rId321"/>
+    <hyperlink ref="C82" r:id="rId322"/>
+    <hyperlink ref="D82" r:id="rId323"/>
+    <hyperlink ref="E82" r:id="rId324"/>
+    <hyperlink ref="B83" r:id="rId325"/>
+    <hyperlink ref="C83" r:id="rId326"/>
+    <hyperlink ref="D83" r:id="rId327"/>
+    <hyperlink ref="E83" r:id="rId328"/>
+    <hyperlink ref="B84" r:id="rId329"/>
+    <hyperlink ref="C84" r:id="rId330"/>
+    <hyperlink ref="D84" r:id="rId331"/>
+    <hyperlink ref="E84" r:id="rId332"/>
+    <hyperlink ref="B85" r:id="rId333"/>
+    <hyperlink ref="C85" r:id="rId334"/>
+    <hyperlink ref="D85" r:id="rId335"/>
+    <hyperlink ref="E85" r:id="rId336"/>
+    <hyperlink ref="B86" r:id="rId337"/>
+    <hyperlink ref="C86" r:id="rId338"/>
+    <hyperlink ref="D86" r:id="rId339"/>
+    <hyperlink ref="E86" r:id="rId340"/>
+    <hyperlink ref="B87" r:id="rId341"/>
+    <hyperlink ref="C87" r:id="rId342"/>
+    <hyperlink ref="D87" r:id="rId343"/>
+    <hyperlink ref="E87" r:id="rId344"/>
+    <hyperlink ref="B88" r:id="rId345"/>
+    <hyperlink ref="C88" r:id="rId346"/>
+    <hyperlink ref="D88" r:id="rId347"/>
+    <hyperlink ref="E88" r:id="rId348"/>
+    <hyperlink ref="B89" r:id="rId349"/>
+    <hyperlink ref="C89" r:id="rId350"/>
+    <hyperlink ref="D89" r:id="rId351"/>
+    <hyperlink ref="E89" r:id="rId352"/>
+    <hyperlink ref="B90" r:id="rId353"/>
+    <hyperlink ref="C90" r:id="rId354"/>
+    <hyperlink ref="D90" r:id="rId355"/>
+    <hyperlink ref="E90" r:id="rId356"/>
+    <hyperlink ref="B91" r:id="rId357"/>
+    <hyperlink ref="C91" r:id="rId358"/>
+    <hyperlink ref="D91" r:id="rId359"/>
+    <hyperlink ref="E91" r:id="rId360"/>
+    <hyperlink ref="B92" r:id="rId361"/>
+    <hyperlink ref="C92" r:id="rId362"/>
+    <hyperlink ref="D92" r:id="rId363"/>
+    <hyperlink ref="E92" r:id="rId364"/>
+    <hyperlink ref="B93" r:id="rId365"/>
+    <hyperlink ref="C93" r:id="rId366"/>
+    <hyperlink ref="D93" r:id="rId367"/>
+    <hyperlink ref="E93" r:id="rId368"/>
+    <hyperlink ref="B94" r:id="rId369"/>
+    <hyperlink ref="C94" r:id="rId370"/>
+    <hyperlink ref="D94" r:id="rId371"/>
+    <hyperlink ref="E94" r:id="rId372"/>
+    <hyperlink ref="B95" r:id="rId373"/>
+    <hyperlink ref="C95" r:id="rId374"/>
+    <hyperlink ref="D95" r:id="rId375"/>
+    <hyperlink ref="E95" r:id="rId376"/>
+    <hyperlink ref="B96" r:id="rId377"/>
+    <hyperlink ref="C96" r:id="rId378"/>
+    <hyperlink ref="D96" r:id="rId379"/>
+    <hyperlink ref="E96" r:id="rId380"/>
+    <hyperlink ref="B97" r:id="rId381"/>
+    <hyperlink ref="C97" r:id="rId382"/>
+    <hyperlink ref="D97" r:id="rId383"/>
+    <hyperlink ref="E97" r:id="rId384"/>
+    <hyperlink ref="B98" r:id="rId385"/>
+    <hyperlink ref="C98" r:id="rId386"/>
+    <hyperlink ref="D98" r:id="rId387"/>
+    <hyperlink ref="E98" r:id="rId388"/>
+    <hyperlink ref="B99" r:id="rId389"/>
+    <hyperlink ref="C99" r:id="rId390"/>
+    <hyperlink ref="D99" r:id="rId391"/>
+    <hyperlink ref="E99" r:id="rId392"/>
+    <hyperlink ref="B100" r:id="rId393"/>
+    <hyperlink ref="C100" r:id="rId394"/>
+    <hyperlink ref="D100" r:id="rId395"/>
+    <hyperlink ref="E100" r:id="rId396"/>
+    <hyperlink ref="B101" r:id="rId397"/>
+    <hyperlink ref="C101" r:id="rId398"/>
+    <hyperlink ref="D101" r:id="rId399"/>
+    <hyperlink ref="E101" r:id="rId400"/>
+    <hyperlink ref="B102" r:id="rId401"/>
+    <hyperlink ref="C102" r:id="rId402"/>
+    <hyperlink ref="D102" r:id="rId403"/>
+    <hyperlink ref="E102" r:id="rId404"/>
+    <hyperlink ref="B103" r:id="rId405"/>
+    <hyperlink ref="C103" r:id="rId406"/>
+    <hyperlink ref="D103" r:id="rId407"/>
+    <hyperlink ref="E103" r:id="rId408"/>
+    <hyperlink ref="B104" r:id="rId409"/>
+    <hyperlink ref="C104" r:id="rId410"/>
+    <hyperlink ref="D104" r:id="rId411"/>
+    <hyperlink ref="E104" r:id="rId412"/>
+    <hyperlink ref="B105" r:id="rId413"/>
+    <hyperlink ref="C105" r:id="rId414"/>
+    <hyperlink ref="D105" r:id="rId415"/>
+    <hyperlink ref="E105" r:id="rId416"/>
+    <hyperlink ref="B106" r:id="rId417"/>
+    <hyperlink ref="C106" r:id="rId418"/>
+    <hyperlink ref="D106" r:id="rId419"/>
+    <hyperlink ref="E106" r:id="rId420"/>
+    <hyperlink ref="B107" r:id="rId421"/>
+    <hyperlink ref="C107" r:id="rId422"/>
+    <hyperlink ref="D107" r:id="rId423"/>
+    <hyperlink ref="E107" r:id="rId424"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/test.xlsx
+++ b/test.xlsx
@@ -2,14 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -49,7 +50,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -407,120 +408,3096 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B1" t="n">
-        <v>3</v>
-      </c>
-      <c r="C1" t="n">
-        <v>4</v>
+      <c r="A1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1
+</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">الثلاثية
+</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">نجيب محفوظ
+</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> مصر
+</t>
+        </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>23</v>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3"/>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2
+</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">البحث عن وليد مسعود
+</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">جبرا إبراهيم جبرا
+</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> فلسطين
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">3
+</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">شرف
+</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">صنع الله إبراهيم
+</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> مصر
+</t>
+        </is>
+      </c>
+    </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>4</v>
-      </c>
-      <c r="B4" t="n">
-        <v>4</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4
+</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">الحرب في بر مصر
+</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">يوسف القعيد
+</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> مصر
+</t>
+        </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5
+</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">رجال في الشمس
+</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">غسان كنفاني
+</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> فلسطين
+</t>
+        </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">6
+</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">الوقائع الغريبة في اختفاء سعيد ابي النحس المتشائل
+</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">إميل حبيبي
+</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> فلسطين
+</t>
+        </is>
       </c>
     </row>
     <row r="7">
-      <c r="B7" t="n">
-        <v>4</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">7
+</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">الزمن الموحش
+</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">حيدر حيدر
+</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> سوريا
+</t>
+        </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>4</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8
+</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">رامة والتنين
+</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">إدوار الخراط
+</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> مصر
+</t>
+        </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>4</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9
+</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">حدث أبو هريرة قال
+</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">محمود المسعدي
+</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> تونس
+</t>
+        </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>4</v>
-      </c>
-      <c r="B10" t="n">
-        <v>4</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10
+</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">كوابيس بيروت
+</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">غادة السمان
+</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> سوريا
+</t>
+        </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v>4</v>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">11
+</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">المجوس
+</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">إبراهيم الكوني
+</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ليبيا
+</t>
+        </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
-        <v>4</v>
-      </c>
-      <c r="B12" t="n">
-        <v>44</v>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">12
+</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">الوشم
+</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">عبد الرحمن مجيد الربيعي
+</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> العراق
+</t>
+        </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
-        <v>13</v>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">13
+</t>
+        </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ay 7aga</t>
+          <t xml:space="preserve">الرجع البعيد
+</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>ay 7ad</t>
+          <t xml:space="preserve">فؤاد التكرلي
+</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>ay 7eta</t>
+          <t xml:space="preserve"> العراق
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">14
+</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">الشراع والعاصفة
+</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">حنا مينه
+</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> سوريا
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">15
+</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">الزيني بركات
+</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">جمال الغيطاني
+</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> مصر
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">16
+</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ثلاثية 'سأهبك مدينة أخرى'
+</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">أحمد إبراهيم الفقيه
+</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ليبيا
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">17
+</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">أنا أحيا
+</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ليلى بعلبكي
+</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> لبنان
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">18
+</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">لا أحد ينام في الإسكندرية
+</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">إبراهيم عبد المجيد
+</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> مصر
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">19
+</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">الحب في المنفى
+</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">بهاء طاهر
+</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> مصر
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">20
+</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">مدارات الشرق
+</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">نبيل سليمان
+</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> سوريا
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">21
+</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">الوباء
+</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">هاني الراهب
+</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> سوريا
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">22
+</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">الحرام
+</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">يوسف ادريس
+</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> مصر
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">23
+</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ليلة السنوات العشر
+</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">محمد صالح الجابري
+</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> تونس
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">24
+</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">موسم الهجرة إلى الشمال
+</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">الطيب صالح
+</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> السودان
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">25
+</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ذاكرة الجسد
+</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">أحلام مستغانمي
+</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> الجزائر
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">26
+</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">الخبز الحافي
+</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">محمد شكري
+</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> المغرب
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">27
+</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">تشريفة آل المر
+</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">عبد الكريم ناصيف
+</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> سوريا
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28
+</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">دار المتعة
+</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">وليد اخلاصي
+</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> سوريا
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">29
+</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">طواحين بيروت
+</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">توفيق يوسف عواد
+</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> لبنان
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">30
+</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">الأفيال
+</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">فتحي غانم
+</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> مصر
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">31
+</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">نجران تحت الصفر
+</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">يحيي يخلف
+</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> فلسطين
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">32
+</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">العشاق
+</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">رشاد أبو شاور
+</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> فلسطين
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">33
+</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">الاعتراف
+</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">علي أبو الريش
+</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> الإمارات العربية المتحدة
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">34
+</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">النخلة والجيران
+</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">غائب طعمة فرمان
+</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> العراق
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">35
+</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">العصفورية
+</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">غازي القصيبي
+</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> السعودية
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">36
+</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">قنديل أم هاشم
+</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">يحيي حقي
+</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> مصر
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">37
+</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">العودة إلى المنفى
+</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">أبو المعاطي أبو النجا
+</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> مصر
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">38
+</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">وكالة عطية
+</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">خيري شلبي
+</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> مصر
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">39
+</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">تماس
+</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">عروسية النالوتي
+</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> تونس
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">40
+</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">سلطانة
+</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">غالب هلسا
+</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> الأردن
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">41
+</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">مالك الحزين
+</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">إبراهيم أصلان
+</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> مصر
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">42
+</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">باب الشمس
+</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">إلياس خوري
+</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> لبنان
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">43
+</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">الحي اللاتيني
+</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">سهيل ادريس
+</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> لبنان
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">44
+</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">عودة الروح
+</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">توفيق الحكيم
+</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> مصر
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">45
+</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">الرهينة
+</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">زيد مطيع دماج
+</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> اليمن
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">46
+</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">لعبة النسيان
+</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">محمد برادة
+</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> المغرب
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">47
+</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">الريح الشتوية
+</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">مبارك الربيع
+</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> المغرب
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">48
+</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">دار الباشا
+</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">حسن نصر
+</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> تونس
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">49
+</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">مدينة الرياح
+</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">موسى ولد ابنو
+</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> موريتانيا
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">50
+</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">أبواب الروح السبعة
+</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">أيوب الحجلي
+</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> سوريا
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">51
+</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">أيام الإنسان السبعة
+</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">عبد الحكيم قاسم
+</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> مصر
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">52
+</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">طائر الحوم
+</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">حليم بركات
+</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> سوريا
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">53
+</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">حكاية زهرة
+</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">حنان الشيخ
+</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> لبنان
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">54
+</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ريح الجنوب
+</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">عبد الحميد بن هدوقة
+</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> الجزائر
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">55
+</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">فردوس الجنون
+</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">أحمد يوسف داوود
+</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> سوريا
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">56
+</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">وسمية تخرج من البحر
+</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ليلى العثمان
+</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> الكويت
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">57
+</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">اعترافات كاتم صوت
+</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">مؤنس الرزاز
+</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> الأردن
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">58
+</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">رباعية بحري
+</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">محمد جبريل
+</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> مصر
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">59
+</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">صنعاء مدينة مفتوحة
+</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">محمد عبد الولي
+</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> اليمن
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">60
+</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ثلاثية غرناطة
+</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">رضوى عاشور
+</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> مصر
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">61
+</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">دعاء الكروان
+</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">طه حسين
+</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> مصر
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">62
+</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">فساد الامكنة
+</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">صبري موسي
+</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> مصر
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">63
+</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">السقا مات
+</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">يوسف السباعي
+</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> مصر
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">64
+</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">تغريبه بني حتحوت
+</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">مجيد طوبيا
+</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> مصر
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">65
+</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">بعد الغروب
+</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">محمد عبد الحليم عبد الله
+</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> مصر
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">66
+</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">قلوب علي الاسلاك
+</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">عبد السلام العجيلي
+</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> سوريا
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">67
+</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">عائشة
+</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">البشير بن سلامة
+</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> تونس
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">68
+</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">الظل والصدي
+</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">يوسف حبشي الأشقر
+</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> لبنان
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">69
+</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">الدقلة في عراجينها
+</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">بشير خريف
+</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> تونس
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">70
+</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">النخاس
+</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">صلاح الدين بوجاه
+</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> تونس
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">71
+</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">باب الساحة
+</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">سحر خليفة
+</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> فلسطين
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">72
+</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">سابع ايام الخلق
+</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">عبد الخالق الركابي
+</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> العراق
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">73
+</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">شيء من الخوف
+</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ثروت أباظة
+</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> مصر
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">74
+</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">اللاز
+</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">الطاهر وطار
+</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> الجزائر
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">75
+</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">المرأة والوردة
+</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">محمد زفزاف
+</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> المغرب
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">76
+</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ألف عام وعام من الحنين
+</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">رشيد بوجدرة
+</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> الجزائر
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">77
+</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">القبر المجهول
+</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">احمد بن عبد القادر
+</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> موريتانيا
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">78
+</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">الاغتيال والغضب
+</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">موفق خضر
+</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> العراق
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">79
+</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">الدوامة
+</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">قمر كيلاني
+</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> سوريا
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">80
+</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">الحصار
+</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">فوزية رشيد
+</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> البحرين
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">81
+</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">في بيتنا رجل
+</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">احسان عبد القدوس
+</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> مصر
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">82
+</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">رموز عصرية
+</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">خضير عبد الأمير
+</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> العراق
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">83
+</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ونصيبي من الافق
+</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">عبد القادر بن الشيخ
+</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> تونس
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">84
+</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">مجنون الحكم
+</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">بنسالم حميش
+</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> المغرب
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">85
+</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">الخماسية
+</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">إسماعيل فهد إسماعيل
+</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> الكويت
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">86
+</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">أجنحة التيه
+</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">جواد الصيداوي
+</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> لبنان
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">87
+</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ايام الرماد
+</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">محمد عز الدين التازي
+</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> المغرب
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">88
+</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">رأس بيروت
+</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ياسين رفاعية
+</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> سوريا
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">89
+</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">عين الشمس
+</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">خليفة حسين مصطفي
+</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ليبيا
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">90
+</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">لونجه والغول
+</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">زهور ونيسي
+</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> الجزائر
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">91
+</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">صخب البحيرة
+</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">محمد البساطي
+</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> مصر
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">92
+</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">السائرون نياما
+</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">سعد مكاوي
+</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> مصر
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">93
+</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1952
+</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">جميل عطية إبراهيم
+</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> مصر
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">94
+</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">طيور أيلول
+</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">إميلي نصر الله
+</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> لبنان
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">95
+</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">المؤامرة
+</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">فرج الحوار
+</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> تونس
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">96
+</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">المعلم علي
+</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">عبد الكريم غلاب
+</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> المغرب
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">97
+</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">قامات الزبد
+</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">إلياس فركوح
+</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> الأردن
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">98
+</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">عصافير الفجر
+</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ليلى عسيران
+</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> لبنان
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t xml:space="preserve">99
+</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t xml:space="preserve">جسر بنات يعقوب
+</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t xml:space="preserve">حسن حميد
+</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> فلسطين
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t xml:space="preserve">100
+</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t xml:space="preserve">الوسمية
+</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t xml:space="preserve">عبد العزيز مشري
+</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> السعودية
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t xml:space="preserve">101
+</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t xml:space="preserve">البشموري
+</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t xml:space="preserve">سلوى بكر
+</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> مصر
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t xml:space="preserve">102
+</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t xml:space="preserve">الفارس القتيل يترجل
+</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t xml:space="preserve">إلياس الديري
+</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> لبنان
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t xml:space="preserve">103
+</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t xml:space="preserve">التوت المر
+</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t xml:space="preserve">محمد العروسي المطوي
+</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> تونس
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t xml:space="preserve">104
+</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t xml:space="preserve">أغنية الماء والنار
+</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t xml:space="preserve">عبد الله خليفة
+</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> البحرين
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t xml:space="preserve">105
+</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t xml:space="preserve">الباب المفتوح
+</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t xml:space="preserve">لطيفة الزيات
+</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> مصر
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t xml:space="preserve">106
+</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t xml:space="preserve">مدن الملح (خماسية)
+</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t xml:space="preserve">عبد الرحمن منيف
+</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> السعودية
+</t>
         </is>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1"/>
+    <hyperlink ref="C1" r:id="rId2"/>
+    <hyperlink ref="D1" r:id="rId3"/>
+    <hyperlink ref="B2" r:id="rId4"/>
+    <hyperlink ref="C2" r:id="rId5"/>
+    <hyperlink ref="D2" r:id="rId6"/>
+    <hyperlink ref="B3" r:id="rId7"/>
+    <hyperlink ref="C3" r:id="rId8"/>
+    <hyperlink ref="D3" r:id="rId9"/>
+    <hyperlink ref="B4" r:id="rId10"/>
+    <hyperlink ref="C4" r:id="rId11"/>
+    <hyperlink ref="D4" r:id="rId12"/>
+    <hyperlink ref="B5" r:id="rId13"/>
+    <hyperlink ref="C5" r:id="rId14"/>
+    <hyperlink ref="D5" r:id="rId15"/>
+    <hyperlink ref="B6" r:id="rId16"/>
+    <hyperlink ref="C6" r:id="rId17"/>
+    <hyperlink ref="D6" r:id="rId18"/>
+    <hyperlink ref="B7" r:id="rId19"/>
+    <hyperlink ref="C7" r:id="rId20"/>
+    <hyperlink ref="D7" r:id="rId21"/>
+    <hyperlink ref="B8" r:id="rId22"/>
+    <hyperlink ref="C8" r:id="rId23"/>
+    <hyperlink ref="D8" r:id="rId24"/>
+    <hyperlink ref="B9" r:id="rId25"/>
+    <hyperlink ref="C9" r:id="rId26"/>
+    <hyperlink ref="D9" r:id="rId27"/>
+    <hyperlink ref="B10" r:id="rId28"/>
+    <hyperlink ref="C10" r:id="rId29"/>
+    <hyperlink ref="D10" r:id="rId30"/>
+    <hyperlink ref="B11" r:id="rId31"/>
+    <hyperlink ref="C11" r:id="rId32"/>
+    <hyperlink ref="D11" r:id="rId33"/>
+    <hyperlink ref="B12" r:id="rId34"/>
+    <hyperlink ref="C12" r:id="rId35"/>
+    <hyperlink ref="D12" r:id="rId36"/>
+    <hyperlink ref="B13" r:id="rId37"/>
+    <hyperlink ref="C13" r:id="rId38"/>
+    <hyperlink ref="D13" r:id="rId39"/>
+    <hyperlink ref="B14" r:id="rId40"/>
+    <hyperlink ref="C14" r:id="rId41"/>
+    <hyperlink ref="D14" r:id="rId42"/>
+    <hyperlink ref="B15" r:id="rId43"/>
+    <hyperlink ref="C15" r:id="rId44"/>
+    <hyperlink ref="D15" r:id="rId45"/>
+    <hyperlink ref="B16" r:id="rId46"/>
+    <hyperlink ref="C16" r:id="rId47"/>
+    <hyperlink ref="D16" r:id="rId48"/>
+    <hyperlink ref="B17" r:id="rId49"/>
+    <hyperlink ref="C17" r:id="rId50"/>
+    <hyperlink ref="D17" r:id="rId51"/>
+    <hyperlink ref="B18" r:id="rId52"/>
+    <hyperlink ref="C18" r:id="rId53"/>
+    <hyperlink ref="D18" r:id="rId54"/>
+    <hyperlink ref="B19" r:id="rId55"/>
+    <hyperlink ref="C19" r:id="rId56"/>
+    <hyperlink ref="D19" r:id="rId57"/>
+    <hyperlink ref="B20" r:id="rId58"/>
+    <hyperlink ref="C20" r:id="rId59"/>
+    <hyperlink ref="D20" r:id="rId60"/>
+    <hyperlink ref="B21" r:id="rId61"/>
+    <hyperlink ref="C21" r:id="rId62"/>
+    <hyperlink ref="D21" r:id="rId63"/>
+    <hyperlink ref="B22" r:id="rId64"/>
+    <hyperlink ref="C22" r:id="rId65"/>
+    <hyperlink ref="D22" r:id="rId66"/>
+    <hyperlink ref="B23" r:id="rId67"/>
+    <hyperlink ref="C23" r:id="rId68"/>
+    <hyperlink ref="D23" r:id="rId69"/>
+    <hyperlink ref="B24" r:id="rId70"/>
+    <hyperlink ref="C24" r:id="rId71"/>
+    <hyperlink ref="D24" r:id="rId72"/>
+    <hyperlink ref="B25" r:id="rId73"/>
+    <hyperlink ref="C25" r:id="rId74"/>
+    <hyperlink ref="D25" r:id="rId75"/>
+    <hyperlink ref="B26" r:id="rId76"/>
+    <hyperlink ref="C26" r:id="rId77"/>
+    <hyperlink ref="D26" r:id="rId78"/>
+    <hyperlink ref="B27" r:id="rId79"/>
+    <hyperlink ref="C27" r:id="rId80"/>
+    <hyperlink ref="D27" r:id="rId81"/>
+    <hyperlink ref="B28" r:id="rId82"/>
+    <hyperlink ref="C28" r:id="rId83"/>
+    <hyperlink ref="D28" r:id="rId84"/>
+    <hyperlink ref="B29" r:id="rId85"/>
+    <hyperlink ref="C29" r:id="rId86"/>
+    <hyperlink ref="D29" r:id="rId87"/>
+    <hyperlink ref="B30" r:id="rId88"/>
+    <hyperlink ref="C30" r:id="rId89"/>
+    <hyperlink ref="D30" r:id="rId90"/>
+    <hyperlink ref="B31" r:id="rId91"/>
+    <hyperlink ref="C31" r:id="rId92"/>
+    <hyperlink ref="D31" r:id="rId93"/>
+    <hyperlink ref="B32" r:id="rId94"/>
+    <hyperlink ref="C32" r:id="rId95"/>
+    <hyperlink ref="D32" r:id="rId96"/>
+    <hyperlink ref="B33" r:id="rId97"/>
+    <hyperlink ref="C33" r:id="rId98"/>
+    <hyperlink ref="D33" r:id="rId99"/>
+    <hyperlink ref="B34" r:id="rId100"/>
+    <hyperlink ref="C34" r:id="rId101"/>
+    <hyperlink ref="D34" r:id="rId102"/>
+    <hyperlink ref="B35" r:id="rId103"/>
+    <hyperlink ref="C35" r:id="rId104"/>
+    <hyperlink ref="D35" r:id="rId105"/>
+    <hyperlink ref="B36" r:id="rId106"/>
+    <hyperlink ref="C36" r:id="rId107"/>
+    <hyperlink ref="D36" r:id="rId108"/>
+    <hyperlink ref="B37" r:id="rId109"/>
+    <hyperlink ref="C37" r:id="rId110"/>
+    <hyperlink ref="D37" r:id="rId111"/>
+    <hyperlink ref="B38" r:id="rId112"/>
+    <hyperlink ref="C38" r:id="rId113"/>
+    <hyperlink ref="D38" r:id="rId114"/>
+    <hyperlink ref="B39" r:id="rId115"/>
+    <hyperlink ref="C39" r:id="rId116"/>
+    <hyperlink ref="D39" r:id="rId117"/>
+    <hyperlink ref="B40" r:id="rId118"/>
+    <hyperlink ref="C40" r:id="rId119"/>
+    <hyperlink ref="D40" r:id="rId120"/>
+    <hyperlink ref="B41" r:id="rId121"/>
+    <hyperlink ref="C41" r:id="rId122"/>
+    <hyperlink ref="D41" r:id="rId123"/>
+    <hyperlink ref="B42" r:id="rId124"/>
+    <hyperlink ref="C42" r:id="rId125"/>
+    <hyperlink ref="D42" r:id="rId126"/>
+    <hyperlink ref="B43" r:id="rId127"/>
+    <hyperlink ref="C43" r:id="rId128"/>
+    <hyperlink ref="D43" r:id="rId129"/>
+    <hyperlink ref="B44" r:id="rId130"/>
+    <hyperlink ref="C44" r:id="rId131"/>
+    <hyperlink ref="D44" r:id="rId132"/>
+    <hyperlink ref="B45" r:id="rId133"/>
+    <hyperlink ref="C45" r:id="rId134"/>
+    <hyperlink ref="D45" r:id="rId135"/>
+    <hyperlink ref="B46" r:id="rId136"/>
+    <hyperlink ref="C46" r:id="rId137"/>
+    <hyperlink ref="D46" r:id="rId138"/>
+    <hyperlink ref="B47" r:id="rId139"/>
+    <hyperlink ref="C47" r:id="rId140"/>
+    <hyperlink ref="D47" r:id="rId141"/>
+    <hyperlink ref="B48" r:id="rId142"/>
+    <hyperlink ref="C48" r:id="rId143"/>
+    <hyperlink ref="D48" r:id="rId144"/>
+    <hyperlink ref="B49" r:id="rId145"/>
+    <hyperlink ref="C49" r:id="rId146"/>
+    <hyperlink ref="D49" r:id="rId147"/>
+    <hyperlink ref="B50" r:id="rId148"/>
+    <hyperlink ref="C50" r:id="rId149"/>
+    <hyperlink ref="D50" r:id="rId150"/>
+    <hyperlink ref="B51" r:id="rId151"/>
+    <hyperlink ref="C51" r:id="rId152"/>
+    <hyperlink ref="D51" r:id="rId153"/>
+    <hyperlink ref="B52" r:id="rId154"/>
+    <hyperlink ref="C52" r:id="rId155"/>
+    <hyperlink ref="D52" r:id="rId156"/>
+    <hyperlink ref="B53" r:id="rId157"/>
+    <hyperlink ref="C53" r:id="rId158"/>
+    <hyperlink ref="D53" r:id="rId159"/>
+    <hyperlink ref="B54" r:id="rId160"/>
+    <hyperlink ref="C54" r:id="rId161"/>
+    <hyperlink ref="D54" r:id="rId162"/>
+    <hyperlink ref="B55" r:id="rId163"/>
+    <hyperlink ref="C55" r:id="rId164"/>
+    <hyperlink ref="D55" r:id="rId165"/>
+    <hyperlink ref="B56" r:id="rId166"/>
+    <hyperlink ref="C56" r:id="rId167"/>
+    <hyperlink ref="D56" r:id="rId168"/>
+    <hyperlink ref="B57" r:id="rId169"/>
+    <hyperlink ref="C57" r:id="rId170"/>
+    <hyperlink ref="D57" r:id="rId171"/>
+    <hyperlink ref="B58" r:id="rId172"/>
+    <hyperlink ref="C58" r:id="rId173"/>
+    <hyperlink ref="D58" r:id="rId174"/>
+    <hyperlink ref="B59" r:id="rId175"/>
+    <hyperlink ref="C59" r:id="rId176"/>
+    <hyperlink ref="D59" r:id="rId177"/>
+    <hyperlink ref="B60" r:id="rId178"/>
+    <hyperlink ref="C60" r:id="rId179"/>
+    <hyperlink ref="D60" r:id="rId180"/>
+    <hyperlink ref="B61" r:id="rId181"/>
+    <hyperlink ref="C61" r:id="rId182"/>
+    <hyperlink ref="D61" r:id="rId183"/>
+    <hyperlink ref="B62" r:id="rId184"/>
+    <hyperlink ref="C62" r:id="rId185"/>
+    <hyperlink ref="D62" r:id="rId186"/>
+    <hyperlink ref="B63" r:id="rId187"/>
+    <hyperlink ref="C63" r:id="rId188"/>
+    <hyperlink ref="D63" r:id="rId189"/>
+    <hyperlink ref="B64" r:id="rId190"/>
+    <hyperlink ref="C64" r:id="rId191"/>
+    <hyperlink ref="D64" r:id="rId192"/>
+    <hyperlink ref="B65" r:id="rId193"/>
+    <hyperlink ref="C65" r:id="rId194"/>
+    <hyperlink ref="D65" r:id="rId195"/>
+    <hyperlink ref="B66" r:id="rId196"/>
+    <hyperlink ref="C66" r:id="rId197"/>
+    <hyperlink ref="D66" r:id="rId198"/>
+    <hyperlink ref="B67" r:id="rId199"/>
+    <hyperlink ref="C67" r:id="rId200"/>
+    <hyperlink ref="D67" r:id="rId201"/>
+    <hyperlink ref="B68" r:id="rId202"/>
+    <hyperlink ref="C68" r:id="rId203"/>
+    <hyperlink ref="D68" r:id="rId204"/>
+    <hyperlink ref="B69" r:id="rId205"/>
+    <hyperlink ref="C69" r:id="rId206"/>
+    <hyperlink ref="D69" r:id="rId207"/>
+    <hyperlink ref="B70" r:id="rId208"/>
+    <hyperlink ref="C70" r:id="rId209"/>
+    <hyperlink ref="D70" r:id="rId210"/>
+    <hyperlink ref="B71" r:id="rId211"/>
+    <hyperlink ref="C71" r:id="rId212"/>
+    <hyperlink ref="D71" r:id="rId213"/>
+    <hyperlink ref="B72" r:id="rId214"/>
+    <hyperlink ref="C72" r:id="rId215"/>
+    <hyperlink ref="D72" r:id="rId216"/>
+    <hyperlink ref="B73" r:id="rId217"/>
+    <hyperlink ref="C73" r:id="rId218"/>
+    <hyperlink ref="D73" r:id="rId219"/>
+    <hyperlink ref="B74" r:id="rId220"/>
+    <hyperlink ref="C74" r:id="rId221"/>
+    <hyperlink ref="D74" r:id="rId222"/>
+    <hyperlink ref="B75" r:id="rId223"/>
+    <hyperlink ref="C75" r:id="rId224"/>
+    <hyperlink ref="D75" r:id="rId225"/>
+    <hyperlink ref="B76" r:id="rId226"/>
+    <hyperlink ref="C76" r:id="rId227"/>
+    <hyperlink ref="D76" r:id="rId228"/>
+    <hyperlink ref="B77" r:id="rId229"/>
+    <hyperlink ref="C77" r:id="rId230"/>
+    <hyperlink ref="D77" r:id="rId231"/>
+    <hyperlink ref="B78" r:id="rId232"/>
+    <hyperlink ref="C78" r:id="rId233"/>
+    <hyperlink ref="D78" r:id="rId234"/>
+    <hyperlink ref="B79" r:id="rId235"/>
+    <hyperlink ref="C79" r:id="rId236"/>
+    <hyperlink ref="D79" r:id="rId237"/>
+    <hyperlink ref="B80" r:id="rId238"/>
+    <hyperlink ref="C80" r:id="rId239"/>
+    <hyperlink ref="D80" r:id="rId240"/>
+    <hyperlink ref="B81" r:id="rId241"/>
+    <hyperlink ref="C81" r:id="rId242"/>
+    <hyperlink ref="D81" r:id="rId243"/>
+    <hyperlink ref="B82" r:id="rId244"/>
+    <hyperlink ref="C82" r:id="rId245"/>
+    <hyperlink ref="D82" r:id="rId246"/>
+    <hyperlink ref="B83" r:id="rId247"/>
+    <hyperlink ref="C83" r:id="rId248"/>
+    <hyperlink ref="D83" r:id="rId249"/>
+    <hyperlink ref="B84" r:id="rId250"/>
+    <hyperlink ref="C84" r:id="rId251"/>
+    <hyperlink ref="D84" r:id="rId252"/>
+    <hyperlink ref="B85" r:id="rId253"/>
+    <hyperlink ref="C85" r:id="rId254"/>
+    <hyperlink ref="D85" r:id="rId255"/>
+    <hyperlink ref="B86" r:id="rId256"/>
+    <hyperlink ref="C86" r:id="rId257"/>
+    <hyperlink ref="D86" r:id="rId258"/>
+    <hyperlink ref="B87" r:id="rId259"/>
+    <hyperlink ref="C87" r:id="rId260"/>
+    <hyperlink ref="D87" r:id="rId261"/>
+    <hyperlink ref="B88" r:id="rId262"/>
+    <hyperlink ref="C88" r:id="rId263"/>
+    <hyperlink ref="D88" r:id="rId264"/>
+    <hyperlink ref="B89" r:id="rId265"/>
+    <hyperlink ref="C89" r:id="rId266"/>
+    <hyperlink ref="D89" r:id="rId267"/>
+    <hyperlink ref="B90" r:id="rId268"/>
+    <hyperlink ref="C90" r:id="rId269"/>
+    <hyperlink ref="D90" r:id="rId270"/>
+    <hyperlink ref="B91" r:id="rId271"/>
+    <hyperlink ref="C91" r:id="rId272"/>
+    <hyperlink ref="D91" r:id="rId273"/>
+    <hyperlink ref="B92" r:id="rId274"/>
+    <hyperlink ref="C92" r:id="rId275"/>
+    <hyperlink ref="D92" r:id="rId276"/>
+    <hyperlink ref="B93" r:id="rId277"/>
+    <hyperlink ref="C93" r:id="rId278"/>
+    <hyperlink ref="D93" r:id="rId279"/>
+    <hyperlink ref="B94" r:id="rId280"/>
+    <hyperlink ref="C94" r:id="rId281"/>
+    <hyperlink ref="D94" r:id="rId282"/>
+    <hyperlink ref="B95" r:id="rId283"/>
+    <hyperlink ref="C95" r:id="rId284"/>
+    <hyperlink ref="D95" r:id="rId285"/>
+    <hyperlink ref="B96" r:id="rId286"/>
+    <hyperlink ref="C96" r:id="rId287"/>
+    <hyperlink ref="D96" r:id="rId288"/>
+    <hyperlink ref="B97" r:id="rId289"/>
+    <hyperlink ref="C97" r:id="rId290"/>
+    <hyperlink ref="D97" r:id="rId291"/>
+    <hyperlink ref="B98" r:id="rId292"/>
+    <hyperlink ref="C98" r:id="rId293"/>
+    <hyperlink ref="D98" r:id="rId294"/>
+    <hyperlink ref="B99" r:id="rId295"/>
+    <hyperlink ref="C99" r:id="rId296"/>
+    <hyperlink ref="D99" r:id="rId297"/>
+    <hyperlink ref="B100" r:id="rId298"/>
+    <hyperlink ref="C100" r:id="rId299"/>
+    <hyperlink ref="D100" r:id="rId300"/>
+    <hyperlink ref="B101" r:id="rId301"/>
+    <hyperlink ref="C101" r:id="rId302"/>
+    <hyperlink ref="D101" r:id="rId303"/>
+    <hyperlink ref="B102" r:id="rId304"/>
+    <hyperlink ref="C102" r:id="rId305"/>
+    <hyperlink ref="D102" r:id="rId306"/>
+    <hyperlink ref="B103" r:id="rId307"/>
+    <hyperlink ref="C103" r:id="rId308"/>
+    <hyperlink ref="D103" r:id="rId309"/>
+    <hyperlink ref="B104" r:id="rId310"/>
+    <hyperlink ref="C104" r:id="rId311"/>
+    <hyperlink ref="D104" r:id="rId312"/>
+    <hyperlink ref="B105" r:id="rId313"/>
+    <hyperlink ref="C105" r:id="rId314"/>
+    <hyperlink ref="D105" r:id="rId315"/>
+    <hyperlink ref="B106" r:id="rId316"/>
+    <hyperlink ref="C106" r:id="rId317"/>
+    <hyperlink ref="D106" r:id="rId318"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/test.xlsx
+++ b/test.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,14 +425,2785 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:E107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1
+</t>
+        </is>
+      </c>
+      <c r="C2">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%A7%D9%84%D8%AB%D9%84%D8%A7%D8%AB%D9%8A%D8%A9_(%D9%86%D8%AC%D9%8A%D8%A8_%D9%85%D8%AD%D9%81%D9%88%D8%B8)","الثلاثية
+")</f>
+        <v/>
+      </c>
+      <c r="D2">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D9%86%D8%AC%D9%8A%D8%A8_%D9%85%D8%AD%D9%81%D9%88%D8%B8","نجيب محفوظ
+")</f>
+        <v/>
+      </c>
+      <c r="E2">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D9%85%D8%B5%D8%B1"," مصر
+")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2
+</t>
+        </is>
+      </c>
+      <c r="C3">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%A7%D9%84%D8%A8%D8%AD%D8%AB_%D8%B9%D9%86_%D9%88%D9%84%D9%8A%D8%AF_%D9%85%D8%B3%D8%B9%D9%88%D8%AF_(%D8%B1%D9%88%D8%A7%D9%8A%D8%A9)","البحث عن وليد مسعود
+")</f>
+        <v/>
+      </c>
+      <c r="D3">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%AC%D8%A8%D8%B1%D8%A7_%D8%A5%D8%A8%D8%B1%D8%A7%D9%87%D9%8A%D9%85_%D8%AC%D8%A8%D8%B1%D8%A7","جبرا إبراهيم جبرا
+")</f>
+        <v/>
+      </c>
+      <c r="E3">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%AF%D9%88%D9%84%D8%A9_%D9%81%D9%84%D8%B3%D8%B7%D9%8A%D9%86"," فلسطين
+")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">3
+</t>
+        </is>
+      </c>
+      <c r="C4">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%B4%D8%B1%D9%81_(%D8%B1%D9%88%D8%A7%D9%8A%D8%A9)","شرف
+")</f>
+        <v/>
+      </c>
+      <c r="D4">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%B5%D9%86%D8%B9_%D8%A7%D9%84%D9%84%D9%87_%D8%A5%D8%A8%D8%B1%D8%A7%D9%87%D9%8A%D9%85","صنع الله إبراهيم
+")</f>
+        <v/>
+      </c>
+      <c r="E4">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D9%85%D8%B5%D8%B1"," مصر
+")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4
+</t>
+        </is>
+      </c>
+      <c r="C5">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%A7%D9%84%D8%AD%D8%B1%D8%A8_%D9%81%D9%8A_%D8%A8%D8%B1_%D9%85%D8%B5%D8%B1","الحرب في بر مصر
+")</f>
+        <v/>
+      </c>
+      <c r="D5">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D9%8A%D9%88%D8%B3%D9%81_%D8%A7%D9%84%D9%82%D8%B9%D9%8A%D8%AF","يوسف القعيد
+")</f>
+        <v/>
+      </c>
+      <c r="E5">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D9%85%D8%B5%D8%B1"," مصر
+")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5
+</t>
+        </is>
+      </c>
+      <c r="C6">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%B1%D8%AC%D8%A7%D9%84_%D9%81%D9%8A_%D8%A7%D9%84%D8%B4%D9%85%D8%B3_(%D8%B1%D9%88%D8%A7%D9%8A%D8%A9)","رجال في الشمس
+")</f>
+        <v/>
+      </c>
+      <c r="D6">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%BA%D8%B3%D8%A7%D9%86_%D9%83%D9%86%D9%81%D8%A7%D9%86%D9%8A","غسان كنفاني
+")</f>
+        <v/>
+      </c>
+      <c r="E6">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%AF%D9%88%D9%84%D8%A9_%D9%81%D9%84%D8%B3%D8%B7%D9%8A%D9%86"," فلسطين
+")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">6
+</t>
+        </is>
+      </c>
+      <c r="C7">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%A7%D9%84%D9%88%D9%82%D8%A7%D8%A6%D8%B9_%D8%A7%D9%84%D8%BA%D8%B1%D9%8A%D8%A8%D8%A9_%D9%81%D9%8A_%D8%A7%D8%AE%D8%AA%D9%81%D8%A7%D8%A1_%D8%B3%D8%B9%D9%8A%D8%AF_%D8%A3%D8%A8%D9%8A_%D8%A7%D9%84%D9%86%D8%AD%D8%B3_%D8%A7%D9%84%D9%85%D8%AA%D8%B4%D8%A7%D8%A6%D9%84","الوقائع الغريبة في اختفاء سعيد ابي النحس المتشائل
+")</f>
+        <v/>
+      </c>
+      <c r="D7">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%A5%D9%85%D9%8A%D9%84_%D8%AD%D8%A8%D9%8A%D8%A8%D9%8A","إميل حبيبي
+")</f>
+        <v/>
+      </c>
+      <c r="E7">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%AF%D9%88%D9%84%D8%A9_%D9%81%D9%84%D8%B3%D8%B7%D9%8A%D9%86"," فلسطين
+")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">7
+</t>
+        </is>
+      </c>
+      <c r="C8">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%A7%D9%84%D8%B2%D9%85%D9%86_%D8%A7%D9%84%D9%85%D9%88%D8%AD%D8%B4","الزمن الموحش
+")</f>
+        <v/>
+      </c>
+      <c r="D8">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%AD%D9%8A%D8%AF%D8%B1_%D8%AD%D9%8A%D8%AF%D8%B1","حيدر حيدر
+")</f>
+        <v/>
+      </c>
+      <c r="E8">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%B3%D9%88%D8%B1%D9%8A%D8%A7"," سوريا
+")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8
+</t>
+        </is>
+      </c>
+      <c r="C9">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%B1%D8%A7%D9%85%D8%A9_%D9%88%D8%A7%D9%84%D8%AA%D9%86%D9%8A%D9%86","رامة والتنين
+")</f>
+        <v/>
+      </c>
+      <c r="D9">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%A5%D8%AF%D9%88%D8%A7%D8%B1_%D8%AE%D8%B1%D8%A7%D8%B7","إدوار الخراط
+")</f>
+        <v/>
+      </c>
+      <c r="E9">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D9%85%D8%B5%D8%B1"," مصر
+")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9
+</t>
+        </is>
+      </c>
+      <c r="C10">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%AD%D8%AF%D8%AB_%D8%A3%D8%A8%D9%88_%D9%87%D8%B1%D9%8A%D8%B1%D8%A9_%D9%82%D8%A7%D9%84","حدث أبو هريرة قال
+")</f>
+        <v/>
+      </c>
+      <c r="D10">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D9%85%D8%AD%D9%85%D9%88%D8%AF_%D8%A7%D9%84%D9%85%D8%B3%D8%B9%D8%AF%D9%8A","محمود المسعدي
+")</f>
+        <v/>
+      </c>
+      <c r="E10">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%AA%D9%88%D9%86%D8%B3"," تونس
+")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10
+</t>
+        </is>
+      </c>
+      <c r="C11">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D9%83%D9%88%D8%A7%D8%A8%D9%8A%D8%B3_%D8%A8%D9%8A%D8%B1%D9%88%D8%AA","كوابيس بيروت
+")</f>
+        <v/>
+      </c>
+      <c r="D11">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%BA%D8%A7%D8%AF%D8%A9_%D8%A7%D9%84%D8%B3%D9%85%D8%A7%D9%86","غادة السمان
+")</f>
+        <v/>
+      </c>
+      <c r="E11">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%B3%D9%88%D8%B1%D9%8A%D8%A7"," سوريا
+")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">11
+</t>
+        </is>
+      </c>
+      <c r="C12">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%A7%D9%84%D9%85%D8%AC%D9%88%D8%B3_(%D8%B1%D9%88%D8%A7%D9%8A%D8%A9)","المجوس
+")</f>
+        <v/>
+      </c>
+      <c r="D12">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%A5%D8%A8%D8%B1%D8%A7%D9%87%D9%8A%D9%85_%D8%A7%D9%84%D9%83%D9%88%D9%86%D9%8A","إبراهيم الكوني
+")</f>
+        <v/>
+      </c>
+      <c r="E12">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D9%84%D9%8A%D8%A8%D9%8A%D8%A7"," ليبيا
+")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">12
+</t>
+        </is>
+      </c>
+      <c r="C13">
+        <f>HYPERLINK("https://ar.wikipedia.org//w/index.php?title=%D8%A7%D9%84%D9%88%D8%B4%D9%85_(%D8%B1%D9%88%D8%A7%D9%8A%D8%A9)&amp;action=edit&amp;redlink=1","الوشم
+")</f>
+        <v/>
+      </c>
+      <c r="D13">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%B9%D8%A8%D8%AF_%D8%A7%D9%84%D8%B1%D8%AD%D9%85%D9%86_%D9%85%D8%AC%D9%8A%D8%AF_%D8%A7%D9%84%D8%B1%D8%A8%D9%8A%D8%B9%D9%8A","عبد الرحمن مجيد الربيعي
+")</f>
+        <v/>
+      </c>
+      <c r="E13">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%A7%D9%84%D8%B9%D8%B1%D8%A7%D9%82"," العراق
+")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">13
+</t>
+        </is>
+      </c>
+      <c r="C14">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%A7%D9%84%D8%B1%D8%AC%D8%B9_%D8%A7%D9%84%D8%A8%D8%B9%D9%8A%D8%AF_(%D8%B1%D9%88%D8%A7%D9%8A%D8%A9)","الرجع البعيد
+")</f>
+        <v/>
+      </c>
+      <c r="D14">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D9%81%D8%A4%D8%A7%D8%AF_%D8%A7%D9%84%D8%AA%D9%83%D8%B1%D9%84%D9%8A","فؤاد التكرلي
+")</f>
+        <v/>
+      </c>
+      <c r="E14">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%A7%D9%84%D8%B9%D8%B1%D8%A7%D9%82"," العراق
+")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">14
+</t>
+        </is>
+      </c>
+      <c r="C15">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%A7%D9%84%D8%B4%D8%B1%D8%A7%D8%B9_%D9%88%D8%A7%D9%84%D8%B9%D8%A7%D8%B5%D9%81%D8%A9_(%D8%B1%D9%88%D8%A7%D9%8A%D8%A9)","الشراع والعاصفة
+")</f>
+        <v/>
+      </c>
+      <c r="D15">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%AD%D9%86%D8%A7_%D9%85%D9%8A%D9%86%D9%87","حنا مينه
+")</f>
+        <v/>
+      </c>
+      <c r="E15">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%B3%D9%88%D8%B1%D9%8A%D8%A7"," سوريا
+")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">15
+</t>
+        </is>
+      </c>
+      <c r="C16">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%A7%D9%84%D8%B2%D9%8A%D9%86%D9%8A_%D8%A8%D8%B1%D9%83%D8%A7%D8%AA_(%D8%AA%D9%88%D8%B6%D9%8A%D8%AD)","الزيني بركات
+")</f>
+        <v/>
+      </c>
+      <c r="D16">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%AC%D9%85%D8%A7%D9%84_%D8%A7%D9%84%D8%BA%D9%8A%D8%B7%D8%A7%D9%86%D9%8A","جمال الغيطاني
+")</f>
+        <v/>
+      </c>
+      <c r="E16">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D9%85%D8%B5%D8%B1"," مصر
+")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">16
+</t>
+        </is>
+      </c>
+      <c r="C17">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%B3%D8%A3%D9%87%D8%A8%D9%83_%D9%85%D8%AF%D9%8A%D9%86%D8%A9_%D8%A3%D8%AE%D8%B1%D9%89_(%D8%B1%D9%88%D8%A7%D9%8A%D8%A9_%D8%AB%D9%84%D8%A7%D8%AB%D9%8A%D8%A9)","ثلاثية 'سأهبك مدينة أخرى'
+")</f>
+        <v/>
+      </c>
+      <c r="D17">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%A3%D8%AD%D9%85%D8%AF_%D8%A5%D8%A8%D8%B1%D8%A7%D9%87%D9%8A%D9%85_%D8%A7%D9%84%D9%81%D9%82%D9%8A%D9%87","أحمد إبراهيم الفقيه
+")</f>
+        <v/>
+      </c>
+      <c r="E17">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D9%84%D9%8A%D8%A8%D9%8A%D8%A7"," ليبيا
+")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">17
+</t>
+        </is>
+      </c>
+      <c r="C18">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%A3%D9%86%D8%A7_%D8%A3%D8%AD%D9%8A%D8%A7","أنا أحيا
+")</f>
+        <v/>
+      </c>
+      <c r="D18">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D9%84%D9%8A%D9%84%D9%89_%D8%A8%D8%B9%D9%84%D8%A8%D9%83%D9%8A","ليلى بعلبكي
+")</f>
+        <v/>
+      </c>
+      <c r="E18">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D9%84%D8%A8%D9%86%D8%A7%D9%86"," لبنان
+")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">18
+</t>
+        </is>
+      </c>
+      <c r="C19">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D9%84%D8%A7_%D8%A3%D8%AD%D8%AF_%D9%8A%D9%86%D8%A7%D9%85_%D9%81%D9%8A_%D8%A7%D9%84%D8%A5%D8%B3%D9%83%D9%86%D8%AF%D8%B1%D9%8A%D8%A9","لا أحد ينام في الإسكندرية
+")</f>
+        <v/>
+      </c>
+      <c r="D19">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%A5%D8%A8%D8%B1%D8%A7%D9%87%D9%8A%D9%85_%D8%B9%D8%A8%D8%AF_%D8%A7%D9%84%D9%85%D8%AC%D9%8A%D8%AF","إبراهيم عبد المجيد
+")</f>
+        <v/>
+      </c>
+      <c r="E19">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D9%85%D8%B5%D8%B1"," مصر
+")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">19
+</t>
+        </is>
+      </c>
+      <c r="C20">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%A7%D9%84%D8%AD%D8%A8_%D9%81%D9%8A_%D8%A7%D9%84%D9%85%D9%86%D9%81%D9%89","الحب في المنفى
+")</f>
+        <v/>
+      </c>
+      <c r="D20">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%A8%D9%87%D8%A7%D8%A1_%D8%B7%D8%A7%D9%87%D8%B1","بهاء طاهر
+")</f>
+        <v/>
+      </c>
+      <c r="E20">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D9%85%D8%B5%D8%B1"," مصر
+")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">20
+</t>
+        </is>
+      </c>
+      <c r="C21">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D9%85%D8%AF%D8%A7%D8%B1%D8%A7%D8%AA_%D8%A7%D9%84%D8%B4%D8%B1%D9%82","مدارات الشرق
+")</f>
+        <v/>
+      </c>
+      <c r="D21">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D9%86%D8%A8%D9%8A%D9%84_%D8%B3%D9%84%D9%8A%D9%85%D8%A7%D9%86","نبيل سليمان
+")</f>
+        <v/>
+      </c>
+      <c r="E21">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%B3%D9%88%D8%B1%D9%8A%D8%A7"," سوريا
+")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">21
+</t>
+        </is>
+      </c>
+      <c r="C22">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%A7%D9%84%D9%88%D8%A8%D8%A7%D8%A1_(%D8%B1%D9%88%D8%A7%D9%8A%D8%A9)","الوباء
+")</f>
+        <v/>
+      </c>
+      <c r="D22">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D9%87%D8%A7%D9%86%D9%8A_%D8%A7%D9%84%D8%B1%D8%A7%D9%87%D8%A8","هاني الراهب
+")</f>
+        <v/>
+      </c>
+      <c r="E22">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%B3%D9%88%D8%B1%D9%8A%D8%A7"," سوريا
+")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">22
+</t>
+        </is>
+      </c>
+      <c r="C23">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%A7%D9%84%D8%AD%D8%B1%D8%A7%D9%85_(%D8%B1%D9%88%D8%A7%D9%8A%D8%A9)","الحرام
+")</f>
+        <v/>
+      </c>
+      <c r="D23">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D9%8A%D9%88%D8%B3%D9%81_%D8%A5%D8%AF%D8%B1%D9%8A%D8%B3","يوسف ادريس
+")</f>
+        <v/>
+      </c>
+      <c r="E23">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D9%85%D8%B5%D8%B1"," مصر
+")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">23
+</t>
+        </is>
+      </c>
+      <c r="C24">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D9%84%D9%8A%D9%84%D8%A9_%D8%A7%D9%84%D8%B3%D9%86%D9%88%D8%A7%D8%AA_%D8%A7%D9%84%D8%B9%D8%B4%D8%B1","ليلة السنوات العشر
+")</f>
+        <v/>
+      </c>
+      <c r="D24">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D9%85%D8%AD%D9%85%D8%AF_%D8%A7%D9%84%D8%B5%D8%A7%D9%84%D8%AD_%D8%A7%D9%84%D8%AC%D8%A7%D8%A8%D8%B1%D9%8A","محمد صالح الجابري
+")</f>
+        <v/>
+      </c>
+      <c r="E24">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%AA%D9%88%D9%86%D8%B3"," تونس
+")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">24
+</t>
+        </is>
+      </c>
+      <c r="C25">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D9%85%D9%88%D8%B3%D9%85_%D8%A7%D9%84%D9%87%D8%AC%D8%B1%D8%A9_%D8%A5%D9%84%D9%89_%D8%A7%D9%84%D8%B4%D9%85%D8%A7%D9%84","موسم الهجرة إلى الشمال
+")</f>
+        <v/>
+      </c>
+      <c r="D25">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%A7%D9%84%D8%B7%D9%8A%D8%A8_%D8%B5%D8%A7%D9%84%D8%AD","الطيب صالح
+")</f>
+        <v/>
+      </c>
+      <c r="E25">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%A7%D9%84%D8%B3%D9%88%D8%AF%D8%A7%D9%86"," السودان
+")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">25
+</t>
+        </is>
+      </c>
+      <c r="C26">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%B0%D8%A7%D9%83%D8%B1%D8%A9_%D8%A7%D9%84%D8%AC%D8%B3%D8%AF_(%D8%B1%D9%88%D8%A7%D9%8A%D8%A9)","ذاكرة الجسد
+")</f>
+        <v/>
+      </c>
+      <c r="D26">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%A3%D8%AD%D9%84%D8%A7%D9%85_%D9%85%D8%B3%D8%AA%D8%BA%D8%A7%D9%86%D9%85%D9%8A","أحلام مستغانمي
+")</f>
+        <v/>
+      </c>
+      <c r="E26">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%A7%D9%84%D8%AC%D8%B2%D8%A7%D8%A6%D8%B1"," الجزائر
+")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">26
+</t>
+        </is>
+      </c>
+      <c r="C27">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%A7%D9%84%D8%AE%D8%A8%D8%B2_%D8%A7%D9%84%D8%AD%D8%A7%D9%81%D9%8A","الخبز الحافي
+")</f>
+        <v/>
+      </c>
+      <c r="D27">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D9%85%D8%AD%D9%85%D8%AF_%D8%B4%D9%83%D8%B1%D9%8A","محمد شكري
+")</f>
+        <v/>
+      </c>
+      <c r="E27">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%A7%D9%84%D9%85%D8%BA%D8%B1%D8%A8"," المغرب
+")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">27
+</t>
+        </is>
+      </c>
+      <c r="C28">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%AA%D8%B4%D8%B1%D9%8A%D9%81%D8%A9_%D8%A2%D9%84_%D8%A7%D9%84%D9%85%D8%B1","تشريفة آل المر
+")</f>
+        <v/>
+      </c>
+      <c r="D28">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%B9%D8%A8%D8%AF_%D8%A7%D9%84%D9%83%D8%B1%D9%8A%D9%85_%D9%86%D8%A7%D8%B5%D9%8A%D9%81","عبد الكريم ناصيف
+")</f>
+        <v/>
+      </c>
+      <c r="E28">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%B3%D9%88%D8%B1%D9%8A%D8%A7"," سوريا
+")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28
+</t>
+        </is>
+      </c>
+      <c r="C29">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%AF%D8%A7%D8%B1_%D8%A7%D9%84%D9%85%D8%AA%D8%B9%D8%A9_(%D8%B1%D9%88%D8%A7%D9%8A%D8%A9)","دار المتعة
+")</f>
+        <v/>
+      </c>
+      <c r="D29">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D9%88%D9%84%D9%8A%D8%AF_%D8%A5%D8%AE%D9%84%D8%A7%D8%B5%D9%8A","وليد اخلاصي
+")</f>
+        <v/>
+      </c>
+      <c r="E29">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%B3%D9%88%D8%B1%D9%8A%D8%A7"," سوريا
+")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">29
+</t>
+        </is>
+      </c>
+      <c r="C30">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%B7%D9%88%D8%A7%D8%AD%D9%8A%D9%86_%D8%A8%D9%8A%D8%B1%D9%88%D8%AA","طواحين بيروت
+")</f>
+        <v/>
+      </c>
+      <c r="D30">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%AA%D9%88%D9%81%D9%8A%D9%82_%D9%8A%D9%88%D8%B3%D9%81_%D8%B9%D9%88%D8%A7%D8%AF","توفيق يوسف عواد
+")</f>
+        <v/>
+      </c>
+      <c r="E30">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D9%84%D8%A8%D9%86%D8%A7%D9%86"," لبنان
+")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">30
+</t>
+        </is>
+      </c>
+      <c r="C31">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%A7%D9%84%D8%A3%D9%81%D9%8A%D8%A7%D9%84_(%D8%B1%D9%88%D8%A7%D9%8A%D8%A9)","الأفيال
+")</f>
+        <v/>
+      </c>
+      <c r="D31">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D9%81%D8%AA%D8%AD%D9%8A_%D8%BA%D8%A7%D9%86%D9%85","فتحي غانم
+")</f>
+        <v/>
+      </c>
+      <c r="E31">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D9%85%D8%B5%D8%B1"," مصر
+")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">31
+</t>
+        </is>
+      </c>
+      <c r="C32">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D9%86%D8%AC%D8%B1%D8%A7%D9%86_%D8%AA%D8%AD%D8%AA_%D8%A7%D9%84%D8%B5%D9%81%D8%B1","نجران تحت الصفر
+")</f>
+        <v/>
+      </c>
+      <c r="D32">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D9%8A%D8%AD%D9%8A%D9%89_%D9%8A%D8%AE%D9%84%D9%81","يحيي يخلف
+")</f>
+        <v/>
+      </c>
+      <c r="E32">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%AF%D9%88%D9%84%D8%A9_%D9%81%D9%84%D8%B3%D8%B7%D9%8A%D9%86"," فلسطين
+")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">32
+</t>
+        </is>
+      </c>
+      <c r="C33">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%A7%D9%84%D8%B9%D8%B4%D8%A7%D9%82_(%D8%B1%D9%88%D8%A7%D9%8A%D8%A9)","العشاق
+")</f>
+        <v/>
+      </c>
+      <c r="D33">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%B1%D8%B4%D8%A7%D8%AF_%D8%A3%D8%A8%D9%88_%D8%B4%D8%A7%D9%88%D8%B1","رشاد أبو شاور
+")</f>
+        <v/>
+      </c>
+      <c r="E33">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%AF%D9%88%D9%84%D8%A9_%D9%81%D9%84%D8%B3%D8%B7%D9%8A%D9%86"," فلسطين
+")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">33
+</t>
+        </is>
+      </c>
+      <c r="C34">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%A7%D9%84%D8%A7%D8%B9%D8%AA%D8%B1%D8%A7%D9%81_(%D8%B1%D9%88%D8%A7%D9%8A%D8%A9)","الاعتراف
+")</f>
+        <v/>
+      </c>
+      <c r="D34">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%B9%D9%84%D9%8A_%D8%A3%D8%A8%D9%88_%D8%A7%D9%84%D8%B1%D9%8A%D8%B4","علي أبو الريش
+")</f>
+        <v/>
+      </c>
+      <c r="E34">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%A7%D9%84%D8%A5%D9%85%D8%A7%D8%B1%D8%A7%D8%AA_%D8%A7%D9%84%D8%B9%D8%B1%D8%A8%D9%8A%D8%A9_%D8%A7%D9%84%D9%85%D8%AA%D8%AD%D8%AF%D8%A9"," الإمارات العربية المتحدة
+")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">34
+</t>
+        </is>
+      </c>
+      <c r="C35">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%A7%D9%84%D9%86%D8%AE%D9%84%D8%A9_%D9%88%D8%A7%D9%84%D8%AC%D9%8A%D8%B1%D8%A7%D9%86_(%D8%B1%D9%88%D8%A7%D9%8A%D8%A9)","النخلة والجيران
+")</f>
+        <v/>
+      </c>
+      <c r="D35">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%BA%D8%A7%D8%A6%D8%A8_%D8%B7%D8%B9%D9%85%D8%A9_%D9%81%D8%B1%D9%85%D8%A7%D9%86","غائب طعمة فرمان
+")</f>
+        <v/>
+      </c>
+      <c r="E35">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%A7%D9%84%D8%B9%D8%B1%D8%A7%D9%82"," العراق
+")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">35
+</t>
+        </is>
+      </c>
+      <c r="C36">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%A7%D9%84%D8%B9%D8%B5%D9%81%D9%88%D8%B1%D9%8A%D8%A9_(%D8%B1%D9%88%D8%A7%D9%8A%D8%A9)","العصفورية
+")</f>
+        <v/>
+      </c>
+      <c r="D36">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%BA%D8%A7%D8%B2%D9%8A_%D8%A7%D9%84%D9%82%D8%B5%D9%8A%D8%A8%D9%8A","غازي القصيبي
+")</f>
+        <v/>
+      </c>
+      <c r="E36">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%A7%D9%84%D8%B3%D8%B9%D9%88%D8%AF%D9%8A%D8%A9"," السعودية
+")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">36
+</t>
+        </is>
+      </c>
+      <c r="C37">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D9%82%D9%86%D8%AF%D9%8A%D9%84_%D8%A3%D9%85_%D9%87%D8%A7%D8%B4%D9%85_(%D8%B1%D9%88%D8%A7%D9%8A%D8%A9)","قنديل أم هاشم
+")</f>
+        <v/>
+      </c>
+      <c r="D37">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D9%8A%D8%AD%D9%8A%D9%89_%D8%AD%D9%82%D9%8A","يحيي حقي
+")</f>
+        <v/>
+      </c>
+      <c r="E37">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D9%85%D8%B5%D8%B1"," مصر
+")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">37
+</t>
+        </is>
+      </c>
+      <c r="C38">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%A7%D9%84%D8%B9%D9%88%D8%AF%D8%A9_%D8%A5%D9%84%D9%89_%D8%A7%D9%84%D9%85%D9%86%D9%81%D9%89","العودة إلى المنفى
+")</f>
+        <v/>
+      </c>
+      <c r="D38">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%A3%D8%A8%D9%88_%D8%A7%D9%84%D9%85%D8%B9%D8%A7%D8%B7%D9%8A_%D8%A3%D8%A8%D9%88_%D8%A7%D9%84%D9%86%D8%AC%D8%A7","أبو المعاطي أبو النجا
+")</f>
+        <v/>
+      </c>
+      <c r="E38">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D9%85%D8%B5%D8%B1"," مصر
+")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">38
+</t>
+        </is>
+      </c>
+      <c r="C39">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D9%88%D9%83%D8%A7%D9%84%D8%A9_%D8%B9%D8%B7%D9%8A%D8%A9_(%D8%B1%D9%88%D8%A7%D9%8A%D8%A9)","وكالة عطية
+")</f>
+        <v/>
+      </c>
+      <c r="D39">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%AE%D9%8A%D8%B1%D9%8A_%D8%B4%D9%84%D8%A8%D9%8A","خيري شلبي
+")</f>
+        <v/>
+      </c>
+      <c r="E39">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D9%85%D8%B5%D8%B1"," مصر
+")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">39
+</t>
+        </is>
+      </c>
+      <c r="C40">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%AA%D9%85%D8%A7%D8%B3_(%D8%B1%D9%88%D8%A7%D9%8A%D8%A9)","تماس
+")</f>
+        <v/>
+      </c>
+      <c r="D40">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%B9%D8%B1%D9%88%D8%B3%D9%8A%D8%A9_%D8%A7%D9%84%D9%86%D8%A7%D9%84%D9%88%D8%AA%D9%8A","عروسية النالوتي
+")</f>
+        <v/>
+      </c>
+      <c r="E40">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%AA%D9%88%D9%86%D8%B3"," تونس
+")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">40
+</t>
+        </is>
+      </c>
+      <c r="C41">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%B3%D9%84%D8%B7%D8%A7%D9%86%D8%A9_(%D8%B1%D9%88%D8%A7%D9%8A%D8%A9)","سلطانة
+")</f>
+        <v/>
+      </c>
+      <c r="D41">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%BA%D8%A7%D9%84%D8%A8_%D9%87%D9%84%D8%B3%D8%A7","غالب هلسا
+")</f>
+        <v/>
+      </c>
+      <c r="E41">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%A7%D9%84%D8%A3%D8%B1%D8%AF%D9%86"," الأردن
+")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">41
+</t>
+        </is>
+      </c>
+      <c r="C42">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D9%85%D8%A7%D9%84%D9%83_%D8%A7%D9%84%D8%AD%D8%B2%D9%8A%D9%86_(%D8%B1%D9%88%D8%A7%D9%8A%D8%A9)","مالك الحزين
+")</f>
+        <v/>
+      </c>
+      <c r="D42">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%A5%D8%A8%D8%B1%D8%A7%D9%87%D9%8A%D9%85_%D8%A3%D8%B5%D9%84%D8%A7%D9%86","إبراهيم أصلان
+")</f>
+        <v/>
+      </c>
+      <c r="E42">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D9%85%D8%B5%D8%B1"," مصر
+")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">42
+</t>
+        </is>
+      </c>
+      <c r="C43">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%A8%D8%A7%D8%A8_%D8%A7%D9%84%D8%B4%D9%85%D8%B3_(%D8%B1%D9%88%D8%A7%D9%8A%D8%A9)","باب الشمس
+")</f>
+        <v/>
+      </c>
+      <c r="D43">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%A5%D9%84%D9%8A%D8%A7%D8%B3_%D8%AE%D9%88%D8%B1%D9%8A","إلياس خوري
+")</f>
+        <v/>
+      </c>
+      <c r="E43">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D9%84%D8%A8%D9%86%D8%A7%D9%86"," لبنان
+")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">43
+</t>
+        </is>
+      </c>
+      <c r="C44">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%A7%D9%84%D8%AD%D9%8A_%D8%A7%D9%84%D9%84%D8%A7%D8%AA%D9%8A%D9%86%D9%8A_(%D8%B1%D9%88%D8%A7%D9%8A%D8%A9)","الحي اللاتيني
+")</f>
+        <v/>
+      </c>
+      <c r="D44">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%B3%D9%87%D9%8A%D9%84_%D8%A5%D8%AF%D8%B1%D9%8A%D8%B3","سهيل ادريس
+")</f>
+        <v/>
+      </c>
+      <c r="E44">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D9%84%D8%A8%D9%86%D8%A7%D9%86"," لبنان
+")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">44
+</t>
+        </is>
+      </c>
+      <c r="C45">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%B9%D9%88%D8%AF%D8%A9_%D8%A7%D9%84%D8%B1%D9%88%D8%AD_(%D8%B1%D9%88%D8%A7%D9%8A%D8%A9)","عودة الروح
+")</f>
+        <v/>
+      </c>
+      <c r="D45">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%AA%D9%88%D9%81%D9%8A%D9%82_%D8%A7%D9%84%D8%AD%D9%83%D9%8A%D9%85","توفيق الحكيم
+")</f>
+        <v/>
+      </c>
+      <c r="E45">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D9%85%D8%B5%D8%B1"," مصر
+")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">45
+</t>
+        </is>
+      </c>
+      <c r="C46">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%A7%D9%84%D8%B1%D9%87%D9%8A%D9%86%D8%A9_(%D8%B1%D9%88%D8%A7%D9%8A%D8%A9)","الرهينة
+")</f>
+        <v/>
+      </c>
+      <c r="D46">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%B2%D9%8A%D8%AF_%D9%85%D8%B7%D9%8A%D8%B9_%D8%AF%D9%85%D8%A7%D8%AC","زيد مطيع دماج
+")</f>
+        <v/>
+      </c>
+      <c r="E46">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%A7%D9%84%D9%8A%D9%85%D9%86"," اليمن
+")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">46
+</t>
+        </is>
+      </c>
+      <c r="C47">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D9%84%D8%B9%D8%A8%D8%A9_%D8%A7%D9%84%D9%86%D8%B3%D9%8A%D8%A7%D9%86","لعبة النسيان
+")</f>
+        <v/>
+      </c>
+      <c r="D47">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D9%85%D8%AD%D9%85%D8%AF_%D8%A8%D8%B1%D8%A7%D8%AF%D8%A9","محمد برادة
+")</f>
+        <v/>
+      </c>
+      <c r="E47">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%A7%D9%84%D9%85%D8%BA%D8%B1%D8%A8"," المغرب
+")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">47
+</t>
+        </is>
+      </c>
+      <c r="C48">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%A7%D9%84%D8%B1%D9%8A%D8%AD_%D8%A7%D9%84%D8%B4%D8%AA%D9%88%D9%8A%D8%A9_(%D8%B1%D9%88%D8%A7%D9%8A%D8%A9)","الريح الشتوية
+")</f>
+        <v/>
+      </c>
+      <c r="D48">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D9%85%D8%A8%D8%A7%D8%B1%D9%83_%D8%B1%D8%A8%D9%8A%D8%B9","مبارك الربيع
+")</f>
+        <v/>
+      </c>
+      <c r="E48">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%A7%D9%84%D9%85%D8%BA%D8%B1%D8%A8"," المغرب
+")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">48
+</t>
+        </is>
+      </c>
+      <c r="C49">
+        <f>HYPERLINK("https://ar.wikipedia.org//w/index.php?title=%D8%AF%D8%A7%D8%B1_%D8%A7%D9%84%D8%A8%D8%A7%D8%B4%D8%A7_(%D8%B1%D9%88%D8%A7%D9%8A%D8%A9)&amp;action=edit&amp;redlink=1","دار الباشا
+")</f>
+        <v/>
+      </c>
+      <c r="D49">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%AD%D8%B3%D9%86_%D9%86%D8%B5%D8%B1","حسن نصر
+")</f>
+        <v/>
+      </c>
+      <c r="E49">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%AA%D9%88%D9%86%D8%B3"," تونس
+")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">49
+</t>
+        </is>
+      </c>
+      <c r="C50">
+        <f>HYPERLINK("https://ar.wikipedia.org//w/index.php?title=%D9%85%D8%AF%D9%8A%D9%86%D8%A9_%D8%A7%D9%84%D8%B1%D9%8A%D8%A7%D8%AD_(%D8%B1%D9%88%D8%A7%D9%8A%D8%A9)&amp;action=edit&amp;redlink=1","مدينة الرياح
+")</f>
+        <v/>
+      </c>
+      <c r="D50">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D9%85%D9%88%D8%B3%D9%89_%D9%88%D9%84%D8%AF_%D8%A7%D8%A8%D9%86%D9%88","موسى ولد ابنو
+")</f>
+        <v/>
+      </c>
+      <c r="E50">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D9%85%D9%88%D8%B1%D9%8A%D8%AA%D8%A7%D9%86%D9%8A%D8%A7"," موريتانيا
+")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">50
+</t>
+        </is>
+      </c>
+      <c r="C51">
+        <f>HYPERLINK("https://ar.wikipedia.org//w/index.php?title=%D8%A3%D8%A8%D9%88%D8%A7%D8%A8_%D8%A7%D9%84%D8%B1%D9%88%D8%AD_%D8%A7%D9%84%D8%B3%D8%A8%D8%B9%D8%A9&amp;action=edit&amp;redlink=1","أبواب الروح السبعة
+")</f>
+        <v/>
+      </c>
+      <c r="D51">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%A3%D9%8A%D9%88%D8%A8_%D8%A7%D9%84%D8%AD%D8%AC%D9%84%D9%8A","أيوب الحجلي
+")</f>
+        <v/>
+      </c>
+      <c r="E51">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%B3%D9%88%D8%B1%D9%8A%D8%A7"," سوريا
+")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">51
+</t>
+        </is>
+      </c>
+      <c r="C52">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%A3%D9%8A%D8%A7%D9%85_%D8%A7%D9%84%D8%A5%D9%86%D8%B3%D8%A7%D9%86_%D8%A7%D9%84%D8%B3%D8%A8%D8%B9%D8%A9_(%D8%B1%D9%88%D8%A7%D9%8A%D8%A9)","أيام الإنسان السبعة
+")</f>
+        <v/>
+      </c>
+      <c r="D52">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%B9%D8%A8%D8%AF_%D8%A7%D9%84%D8%AD%D9%83%D9%8A%D9%85_%D9%82%D8%A7%D8%B3%D9%85","عبد الحكيم قاسم
+")</f>
+        <v/>
+      </c>
+      <c r="E52">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D9%85%D8%B5%D8%B1"," مصر
+")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">52
+</t>
+        </is>
+      </c>
+      <c r="C53">
+        <f>HYPERLINK("https://ar.wikipedia.org//w/index.php?title=%D8%B7%D8%A7%D8%A6%D8%B1_%D8%A7%D9%84%D8%AD%D9%88%D9%85_(%D8%B1%D9%88%D8%A7%D9%8A%D8%A9)&amp;action=edit&amp;redlink=1","طائر الحوم
+")</f>
+        <v/>
+      </c>
+      <c r="D53">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%AD%D9%84%D9%8A%D9%85_%D8%A8%D8%B1%D9%83%D8%A7%D8%AA","حليم بركات
+")</f>
+        <v/>
+      </c>
+      <c r="E53">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%B3%D9%88%D8%B1%D9%8A%D8%A7"," سوريا
+")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">53
+</t>
+        </is>
+      </c>
+      <c r="C54">
+        <f>HYPERLINK("https://ar.wikipedia.org//w/index.php?title=%D8%AD%D9%83%D8%A7%D9%8A%D8%A9_%D8%B2%D9%87%D8%B1%D8%A9_(%D8%B1%D9%88%D8%A7%D9%8A%D8%A9)&amp;action=edit&amp;redlink=1","حكاية زهرة
+")</f>
+        <v/>
+      </c>
+      <c r="D54">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%AD%D9%86%D8%A7%D9%86_%D8%A7%D9%84%D8%B4%D9%8A%D8%AE","حنان الشيخ
+")</f>
+        <v/>
+      </c>
+      <c r="E54">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D9%84%D8%A8%D9%86%D8%A7%D9%86"," لبنان
+")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">54
+</t>
+        </is>
+      </c>
+      <c r="C55">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%B1%D9%8A%D8%AD_%D8%A7%D9%84%D8%AC%D9%86%D9%88%D8%A8_(%D8%B1%D9%88%D8%A7%D9%8A%D8%A9)","ريح الجنوب
+")</f>
+        <v/>
+      </c>
+      <c r="D55">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%B9%D8%A8%D8%AF_%D8%A7%D9%84%D8%AD%D9%85%D9%8A%D8%AF_%D8%A8%D9%86_%D9%87%D8%AF%D9%88%D9%82%D8%A9","عبد الحميد بن هدوقة
+")</f>
+        <v/>
+      </c>
+      <c r="E55">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%A7%D9%84%D8%AC%D8%B2%D8%A7%D8%A6%D8%B1"," الجزائر
+")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">55
+</t>
+        </is>
+      </c>
+      <c r="C56">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D9%81%D8%B1%D8%AF%D9%88%D8%B3_%D8%A7%D9%84%D8%AC%D9%86%D9%88%D9%86_(%D8%B1%D9%88%D8%A7%D9%8A%D8%A9)","فردوس الجنون
+")</f>
+        <v/>
+      </c>
+      <c r="D56">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%A3%D8%AD%D9%85%D8%AF_%D9%8A%D9%88%D8%B3%D9%81_%D8%AF%D8%A7%D9%88%D9%88%D8%AF","أحمد يوسف داوود
+")</f>
+        <v/>
+      </c>
+      <c r="E56">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%B3%D9%88%D8%B1%D9%8A%D8%A7"," سوريا
+")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">56
+</t>
+        </is>
+      </c>
+      <c r="C57">
+        <f>HYPERLINK("https://ar.wikipedia.org//w/index.php?title=%D9%88%D8%B3%D9%85%D9%8A%D8%A9_%D8%AA%D8%AE%D8%B1%D8%AC_%D9%85%D9%86_%D8%A7%D9%84%D8%A8%D8%AD%D8%B1_(%D8%B1%D9%88%D8%A7%D9%8A%D8%A9)&amp;action=edit&amp;redlink=1","وسمية تخرج من البحر
+")</f>
+        <v/>
+      </c>
+      <c r="D57">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D9%84%D9%8A%D9%84%D9%89_%D8%A7%D9%84%D8%B9%D8%AB%D9%85%D8%A7%D9%86","ليلى العثمان
+")</f>
+        <v/>
+      </c>
+      <c r="E57">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%A7%D9%84%D9%83%D9%88%D9%8A%D8%AA"," الكويت
+")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">57
+</t>
+        </is>
+      </c>
+      <c r="C58">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%A7%D8%B9%D8%AA%D8%B1%D8%A7%D9%81%D8%A7%D8%AA_%D9%83%D8%A7%D8%AA%D9%85_%D8%B5%D9%88%D8%AA_(%D8%B1%D9%88%D8%A7%D9%8A%D8%A9)","اعترافات كاتم صوت
+")</f>
+        <v/>
+      </c>
+      <c r="D58">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D9%85%D8%A4%D9%86%D8%B3_%D8%A7%D9%84%D8%B1%D8%B2%D8%A7%D8%B2","مؤنس الرزاز
+")</f>
+        <v/>
+      </c>
+      <c r="E58">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%A7%D9%84%D8%A3%D8%B1%D8%AF%D9%86"," الأردن
+")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">58
+</t>
+        </is>
+      </c>
+      <c r="C59">
+        <f>HYPERLINK("https://ar.wikipedia.org//w/index.php?title=%D8%B1%D8%A8%D8%A7%D8%B9%D9%8A%D8%A9_%D8%A8%D8%AD%D8%B1%D9%8A_(%D8%B1%D9%88%D8%A7%D9%8A%D8%A9)&amp;action=edit&amp;redlink=1","رباعية بحري
+")</f>
+        <v/>
+      </c>
+      <c r="D59">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D9%85%D8%AD%D9%85%D8%AF_%D8%AC%D8%A8%D8%B1%D9%8A%D9%84_(%D8%AA%D9%88%D8%B6%D9%8A%D8%AD)","محمد جبريل
+")</f>
+        <v/>
+      </c>
+      <c r="E59">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D9%85%D8%B5%D8%B1"," مصر
+")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">59
+</t>
+        </is>
+      </c>
+      <c r="C60">
+        <f>HYPERLINK("https://ar.wikipedia.org//w/index.php?title=%D8%B5%D9%86%D8%B9%D8%A7%D8%A1_%D9%85%D8%AF%D9%8A%D9%86%D8%A9_%D9%85%D9%81%D8%AA%D9%88%D8%AD%D8%A9_(%D8%B1%D9%88%D8%A7%D9%8A%D8%A9)&amp;action=edit&amp;redlink=1","صنعاء مدينة مفتوحة
+")</f>
+        <v/>
+      </c>
+      <c r="D60">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D9%85%D8%AD%D9%85%D8%AF_%D8%B9%D8%A8%D8%AF_%D8%A7%D9%84%D9%88%D9%84%D9%8A","محمد عبد الولي
+")</f>
+        <v/>
+      </c>
+      <c r="E60">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%A7%D9%84%D9%8A%D9%85%D9%86"," اليمن
+")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">60
+</t>
+        </is>
+      </c>
+      <c r="C61">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%AB%D9%84%D8%A7%D8%AB%D9%8A%D8%A9_%D8%BA%D8%B1%D9%86%D8%A7%D8%B7%D8%A9","ثلاثية غرناطة
+")</f>
+        <v/>
+      </c>
+      <c r="D61">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%B1%D8%B6%D9%88%D9%89_%D8%B9%D8%A7%D8%B4%D9%88%D8%B1","رضوى عاشور
+")</f>
+        <v/>
+      </c>
+      <c r="E61">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D9%85%D8%B5%D8%B1"," مصر
+")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">61
+</t>
+        </is>
+      </c>
+      <c r="C62">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%AF%D8%B9%D8%A7%D8%A1_%D8%A7%D9%84%D9%83%D8%B1%D9%88%D8%A7%D9%86_(%D8%B1%D9%88%D8%A7%D9%8A%D8%A9)","دعاء الكروان
+")</f>
+        <v/>
+      </c>
+      <c r="D62">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%B7%D9%87_%D8%AD%D8%B3%D9%8A%D9%86","طه حسين
+")</f>
+        <v/>
+      </c>
+      <c r="E62">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D9%85%D8%B5%D8%B1"," مصر
+")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">62
+</t>
+        </is>
+      </c>
+      <c r="C63">
+        <f>HYPERLINK("https://ar.wikipedia.org//w/index.php?title=%D9%81%D8%B3%D8%A7%D8%AF_%D8%A7%D9%84%D8%A7%D9%85%D9%83%D9%86%D8%A9_(%D8%B1%D9%88%D8%A7%D9%8A%D8%A9)&amp;action=edit&amp;redlink=1","فساد الامكنة
+")</f>
+        <v/>
+      </c>
+      <c r="D63">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%B5%D8%A8%D8%B1%D9%8A_%D9%85%D9%88%D8%B3%D9%89","صبري موسي
+")</f>
+        <v/>
+      </c>
+      <c r="E63">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D9%85%D8%B5%D8%B1"," مصر
+")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">63
+</t>
+        </is>
+      </c>
+      <c r="C64">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%A7%D9%84%D8%B3%D9%82%D8%A7_%D9%85%D8%A7%D8%AA_(%D8%B1%D9%88%D8%A7%D9%8A%D8%A9)","السقا مات
+")</f>
+        <v/>
+      </c>
+      <c r="D64">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D9%8A%D9%88%D8%B3%D9%81_%D8%A7%D9%84%D8%B3%D8%A8%D8%A7%D8%B9%D9%8A","يوسف السباعي
+")</f>
+        <v/>
+      </c>
+      <c r="E64">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D9%85%D8%B5%D8%B1"," مصر
+")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">64
+</t>
+        </is>
+      </c>
+      <c r="C65">
+        <f>HYPERLINK("https://ar.wikipedia.org//w/index.php?title=%D8%AA%D8%BA%D8%B1%D9%8A%D8%A8%D9%87_%D8%A8%D9%86%D9%8A_%D8%AD%D8%AA%D8%AD%D9%88%D8%AA_(%D8%B1%D9%88%D8%A7%D9%8A%D8%A9)&amp;action=edit&amp;redlink=1","تغريبه بني حتحوت
+")</f>
+        <v/>
+      </c>
+      <c r="D65">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D9%85%D8%AC%D9%8A%D8%AF_%D8%B7%D9%88%D8%A8%D9%8A%D8%A7","مجيد طوبيا
+")</f>
+        <v/>
+      </c>
+      <c r="E65">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D9%85%D8%B5%D8%B1"," مصر
+")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">65
+</t>
+        </is>
+      </c>
+      <c r="C66">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%A8%D8%B9%D8%AF_%D8%A7%D9%84%D8%BA%D8%B1%D9%88%D8%A8_(%D9%83%D8%AA%D8%A7%D8%A8)","بعد الغروب
+")</f>
+        <v/>
+      </c>
+      <c r="D66">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D9%85%D8%AD%D9%85%D8%AF_%D8%B9%D8%A8%D8%AF_%D8%A7%D9%84%D8%AD%D9%84%D9%8A%D9%85_%D8%B9%D8%A8%D8%AF_%D8%A7%D9%84%D9%84%D9%87","محمد عبد الحليم عبد الله
+")</f>
+        <v/>
+      </c>
+      <c r="E66">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D9%85%D8%B5%D8%B1"," مصر
+")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">66
+</t>
+        </is>
+      </c>
+      <c r="C67">
+        <f>HYPERLINK("https://ar.wikipedia.org//w/index.php?title=%D9%82%D9%84%D9%88%D8%A8_%D8%B9%D9%84%D9%8A_%D8%A7%D9%84%D8%A7%D8%B3%D9%84%D8%A7%D9%83_(%D8%B1%D9%88%D8%A7%D9%8A%D8%A9)&amp;action=edit&amp;redlink=1","قلوب علي الاسلاك
+")</f>
+        <v/>
+      </c>
+      <c r="D67">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%B9%D8%A8%D8%AF_%D8%A7%D9%84%D8%B3%D9%84%D8%A7%D9%85_%D8%A7%D9%84%D8%B9%D8%AC%D9%8A%D9%84%D9%8A","عبد السلام العجيلي
+")</f>
+        <v/>
+      </c>
+      <c r="E67">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%B3%D9%88%D8%B1%D9%8A%D8%A7"," سوريا
+")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">67
+</t>
+        </is>
+      </c>
+      <c r="C68">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%B9%D8%A7%D8%A6%D8%B4%D8%A9_(%D8%B1%D9%88%D8%A7%D9%8A%D8%A9)","عائشة
+")</f>
+        <v/>
+      </c>
+      <c r="D68">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%A7%D9%84%D8%A8%D8%B4%D9%8A%D8%B1_%D8%A8%D9%86_%D8%B3%D9%84%D8%A7%D9%85%D8%A9","البشير بن سلامة
+")</f>
+        <v/>
+      </c>
+      <c r="E68">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%AA%D9%88%D9%86%D8%B3"," تونس
+")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">68
+</t>
+        </is>
+      </c>
+      <c r="C69">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%A7%D9%84%D8%B8%D9%84_%D9%88%D8%A7%D9%84%D8%B5%D8%AF%D9%89_(%D8%B1%D9%88%D8%A7%D9%8A%D8%A9)","الظل والصدي
+")</f>
+        <v/>
+      </c>
+      <c r="D69">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D9%8A%D9%88%D8%B3%D9%81_%D8%AD%D8%A8%D8%B4%D9%8A_%D8%A7%D9%84%D8%A3%D8%B4%D9%82%D8%B1","يوسف حبشي الأشقر
+")</f>
+        <v/>
+      </c>
+      <c r="E69">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D9%84%D8%A8%D9%86%D8%A7%D9%86"," لبنان
+")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">69
+</t>
+        </is>
+      </c>
+      <c r="C70">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%A7%D9%84%D8%AF%D9%82%D9%84%D8%A9_%D9%81%D9%8A_%D8%B9%D8%B1%D8%A7%D8%AC%D9%8A%D9%86%D9%87%D8%A7_(%D8%B1%D9%88%D8%A7%D9%8A%D8%A9)","الدقلة في عراجينها
+")</f>
+        <v/>
+      </c>
+      <c r="D70">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%A8%D8%B4%D9%8A%D8%B1_%D8%AE%D8%B1%D9%8A%D9%81","بشير خريف
+")</f>
+        <v/>
+      </c>
+      <c r="E70">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%AA%D9%88%D9%86%D8%B3"," تونس
+")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">70
+</t>
+        </is>
+      </c>
+      <c r="C71">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%A7%D9%84%D9%86%D8%AE%D8%A7%D8%B3_(%D9%83%D8%AA%D8%A7%D8%A8)","النخاس
+")</f>
+        <v/>
+      </c>
+      <c r="D71">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%B5%D9%84%D8%A7%D8%AD_%D8%A7%D9%84%D8%AF%D9%8A%D9%86_%D8%A8%D9%88%D8%AC%D8%A7%D9%87","صلاح الدين بوجاه
+")</f>
+        <v/>
+      </c>
+      <c r="E71">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%AA%D9%88%D9%86%D8%B3"," تونس
+")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">71
+</t>
+        </is>
+      </c>
+      <c r="C72">
+        <f>HYPERLINK("https://ar.wikipedia.org//w/index.php?title=%D8%A8%D8%A7%D8%A8_%D8%A7%D9%84%D8%B3%D8%A7%D8%AD%D8%A9_(%D8%B1%D9%88%D8%A7%D9%8A%D8%A9)&amp;action=edit&amp;redlink=1","باب الساحة
+")</f>
+        <v/>
+      </c>
+      <c r="D72">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%B3%D8%AD%D8%B1_%D8%AE%D9%84%D9%8A%D9%81%D8%A9","سحر خليفة
+")</f>
+        <v/>
+      </c>
+      <c r="E72">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%AF%D9%88%D9%84%D8%A9_%D9%81%D9%84%D8%B3%D8%B7%D9%8A%D9%86"," فلسطين
+")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">72
+</t>
+        </is>
+      </c>
+      <c r="C73">
+        <f>HYPERLINK("https://ar.wikipedia.org//w/index.php?title=%D8%B3%D8%A7%D8%A8%D8%B9_%D8%A7%D9%8A%D8%A7%D9%85_%D8%A7%D9%84%D8%AE%D9%84%D9%82_(%D8%B1%D9%88%D8%A7%D9%8A%D8%A9)&amp;action=edit&amp;redlink=1","سابع ايام الخلق
+")</f>
+        <v/>
+      </c>
+      <c r="D73">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%B9%D8%A8%D8%AF_%D8%A7%D9%84%D8%AE%D8%A7%D9%84%D9%82_%D8%A7%D9%84%D8%B1%D9%83%D8%A7%D8%A8%D9%8A","عبد الخالق الركابي
+")</f>
+        <v/>
+      </c>
+      <c r="E73">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%A7%D9%84%D8%B9%D8%B1%D8%A7%D9%82"," العراق
+")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">73
+</t>
+        </is>
+      </c>
+      <c r="C74">
+        <f>HYPERLINK("https://ar.wikipedia.org//w/index.php?title=%D8%B4%D9%8A%D8%A1_%D9%85%D9%86_%D8%A7%D9%84%D8%AE%D9%88%D9%81_(%D8%B1%D9%88%D8%A7%D9%8A%D8%A9)&amp;action=edit&amp;redlink=1","شيء من الخوف
+")</f>
+        <v/>
+      </c>
+      <c r="D74">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%AB%D8%B1%D9%88%D8%AA_%D8%A3%D8%A8%D8%A7%D8%B8%D8%A9","ثروت أباظة
+")</f>
+        <v/>
+      </c>
+      <c r="E74">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D9%85%D8%B5%D8%B1"," مصر
+")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">74
+</t>
+        </is>
+      </c>
+      <c r="C75">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%A7%D9%84%D9%84%D8%A7%D8%B2_(%D8%B1%D9%88%D8%A7%D9%8A%D8%A9)","اللاز
+")</f>
+        <v/>
+      </c>
+      <c r="D75">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%A7%D9%84%D8%B7%D8%A7%D9%87%D8%B1_%D9%88%D8%B7%D8%A7%D8%B1","الطاهر وطار
+")</f>
+        <v/>
+      </c>
+      <c r="E75">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%A7%D9%84%D8%AC%D8%B2%D8%A7%D8%A6%D8%B1"," الجزائر
+")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">75
+</t>
+        </is>
+      </c>
+      <c r="C76">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%A7%D9%84%D9%85%D8%B1%D8%A3%D8%A9_%D9%88%D8%A7%D9%84%D9%88%D8%B1%D8%AF%D8%A9_(%D8%B1%D9%88%D8%A7%D9%8A%D8%A9)","المرأة والوردة
+")</f>
+        <v/>
+      </c>
+      <c r="D76">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D9%85%D8%AD%D9%85%D8%AF_%D8%B2%D9%81%D8%B2%D8%A7%D9%81","محمد زفزاف
+")</f>
+        <v/>
+      </c>
+      <c r="E76">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%A7%D9%84%D9%85%D8%BA%D8%B1%D8%A8"," المغرب
+")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">76
+</t>
+        </is>
+      </c>
+      <c r="C77">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%A3%D9%84%D9%81_%D8%B9%D8%A7%D9%85_%D9%88%D8%B9%D8%A7%D9%85_%D9%85%D9%86_%D8%A7%D9%84%D8%AD%D9%86%D9%8A%D9%86_(%D8%B1%D9%88%D8%A7%D9%8A%D8%A9)","ألف عام وعام من الحنين
+")</f>
+        <v/>
+      </c>
+      <c r="D77">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%B1%D8%B4%D9%8A%D8%AF_%D8%A8%D9%88%D8%AC%D8%AF%D8%B1%D8%A9","رشيد بوجدرة
+")</f>
+        <v/>
+      </c>
+      <c r="E77">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%A7%D9%84%D8%AC%D8%B2%D8%A7%D8%A6%D8%B1"," الجزائر
+")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">77
+</t>
+        </is>
+      </c>
+      <c r="C78">
+        <f>HYPERLINK("https://ar.wikipedia.org//w/index.php?title=%D8%A7%D9%84%D9%82%D8%A8%D8%B1_%D8%A7%D9%84%D9%85%D8%AC%D9%87%D9%88%D9%84_(%D8%B1%D9%88%D8%A7%D9%8A%D8%A9)&amp;action=edit&amp;redlink=1","القبر المجهول
+")</f>
+        <v/>
+      </c>
+      <c r="D78">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%A3%D8%AD%D9%85%D8%AF_%D8%A8%D9%86_%D8%B9%D8%A8%D8%AF_%D8%A7%D9%84%D9%82%D8%A7%D8%AF%D8%B1","احمد بن عبد القادر
+")</f>
+        <v/>
+      </c>
+      <c r="E78">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D9%85%D9%88%D8%B1%D9%8A%D8%AA%D8%A7%D9%86%D9%8A%D8%A7"," موريتانيا
+")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">78
+</t>
+        </is>
+      </c>
+      <c r="C79">
+        <f>HYPERLINK("https://ar.wikipedia.org//w/index.php?title=%D8%A7%D9%84%D8%A7%D8%BA%D8%AA%D9%8A%D8%A7%D9%84_%D9%88%D8%A7%D9%84%D8%BA%D8%B6%D8%A8_(%D8%B1%D9%88%D8%A7%D9%8A%D8%A9)&amp;action=edit&amp;redlink=1","الاغتيال والغضب
+")</f>
+        <v/>
+      </c>
+      <c r="D79">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D9%85%D9%88%D9%81%D9%82_%D8%AE%D8%B6%D8%B1","موفق خضر
+")</f>
+        <v/>
+      </c>
+      <c r="E79">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%A7%D9%84%D8%B9%D8%B1%D8%A7%D9%82"," العراق
+")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">79
+</t>
+        </is>
+      </c>
+      <c r="C80">
+        <f>HYPERLINK("https://ar.wikipedia.org//w/index.php?title=%D8%A7%D9%84%D8%AF%D9%88%D8%A7%D9%85%D8%A9_(%D8%B1%D9%88%D8%A7%D9%8A%D8%A9)&amp;action=edit&amp;redlink=1","الدوامة
+")</f>
+        <v/>
+      </c>
+      <c r="D80">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D9%82%D9%85%D8%B1_%D9%83%D9%8A%D9%84%D8%A7%D9%86%D9%8A","قمر كيلاني
+")</f>
+        <v/>
+      </c>
+      <c r="E80">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%B3%D9%88%D8%B1%D9%8A%D8%A7"," سوريا
+")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">80
+</t>
+        </is>
+      </c>
+      <c r="C81">
+        <f>HYPERLINK("https://ar.wikipedia.org//w/index.php?title=%D8%A7%D9%84%D8%AD%D8%B5%D8%A7%D8%B1_(%D8%B1%D9%88%D8%A7%D9%8A%D8%A9)&amp;action=edit&amp;redlink=1","الحصار
+")</f>
+        <v/>
+      </c>
+      <c r="D81">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D9%81%D9%88%D8%B2%D9%8A%D8%A9_%D8%B1%D8%B4%D9%8A%D8%AF","فوزية رشيد
+")</f>
+        <v/>
+      </c>
+      <c r="E81">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%A7%D9%84%D8%A8%D8%AD%D8%B1%D9%8A%D9%86"," البحرين
+")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">81
+</t>
+        </is>
+      </c>
+      <c r="C82">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D9%81%D9%8A_%D8%A8%D9%8A%D8%AA%D9%86%D8%A7_%D8%B1%D8%AC%D9%84_(%D8%B1%D9%88%D8%A7%D9%8A%D8%A9)","في بيتنا رجل
+")</f>
+        <v/>
+      </c>
+      <c r="D82">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%A5%D8%AD%D8%B3%D8%A7%D9%86_%D8%B9%D8%A8%D8%AF_%D8%A7%D9%84%D9%82%D8%AF%D9%88%D8%B3","احسان عبد القدوس
+")</f>
+        <v/>
+      </c>
+      <c r="E82">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D9%85%D8%B5%D8%B1"," مصر
+")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">82
+</t>
+        </is>
+      </c>
+      <c r="C83">
+        <f>HYPERLINK("https://ar.wikipedia.org//w/index.php?title=%D8%B1%D9%85%D9%88%D8%B2_%D8%B9%D8%B5%D8%B1%D9%8A%D8%A9_(%D8%B1%D9%88%D8%A7%D9%8A%D8%A9)&amp;action=edit&amp;redlink=1","رموز عصرية
+")</f>
+        <v/>
+      </c>
+      <c r="D83">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%AE%D8%B6%D9%8A%D8%B1_%D8%B9%D8%A8%D8%AF_%D8%A7%D9%84%D8%A3%D9%85%D9%8A%D8%B1","خضير عبد الأمير
+")</f>
+        <v/>
+      </c>
+      <c r="E83">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%A7%D9%84%D8%B9%D8%B1%D8%A7%D9%82"," العراق
+")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">83
+</t>
+        </is>
+      </c>
+      <c r="C84">
+        <f>HYPERLINK("https://ar.wikipedia.org//w/index.php?title=%D9%88%D9%86%D8%B5%D9%8A%D8%A8%D9%8A_%D9%85%D9%86_%D8%A7%D9%84%D8%A7%D9%81%D9%82_(%D8%B1%D9%88%D8%A7%D9%8A%D8%A9)&amp;action=edit&amp;redlink=1","ونصيبي من الافق
+")</f>
+        <v/>
+      </c>
+      <c r="D84">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%B9%D8%A8%D8%AF_%D8%A7%D9%84%D9%82%D8%A7%D8%AF%D8%B1_%D8%A8%D9%86_%D8%A7%D9%84%D8%B4%D9%8A%D8%AE","عبد القادر بن الشيخ
+")</f>
+        <v/>
+      </c>
+      <c r="E84">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%AA%D9%88%D9%86%D8%B3"," تونس
+")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">84
+</t>
+        </is>
+      </c>
+      <c r="C85">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D9%85%D8%AC%D9%86%D9%88%D9%86_%D8%A7%D9%84%D8%AD%D9%83%D9%85_(%D8%B1%D9%88%D8%A7%D9%8A%D8%A9)","مجنون الحكم
+")</f>
+        <v/>
+      </c>
+      <c r="D85">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%A8%D9%86%D8%B3%D8%A7%D9%84%D9%85_%D8%AD%D9%85%D9%8A%D8%B4","بنسالم حميش
+")</f>
+        <v/>
+      </c>
+      <c r="E85">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%A7%D9%84%D9%85%D8%BA%D8%B1%D8%A8"," المغرب
+")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">85
+</t>
+        </is>
+      </c>
+      <c r="C86">
+        <f>HYPERLINK("https://ar.wikipedia.org//w/index.php?title=%D8%A7%D9%84%D8%AE%D9%85%D8%A7%D8%B3%D9%8A%D8%A9_(%D8%B1%D9%88%D8%A7%D9%8A%D8%A9)&amp;action=edit&amp;redlink=1","الخماسية
+")</f>
+        <v/>
+      </c>
+      <c r="D86">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%A5%D8%B3%D9%85%D8%A7%D8%B9%D9%8A%D9%84_%D9%81%D9%87%D8%AF_%D8%A5%D8%B3%D9%85%D8%A7%D8%B9%D9%8A%D9%84","إسماعيل فهد إسماعيل
+")</f>
+        <v/>
+      </c>
+      <c r="E86">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%A7%D9%84%D9%83%D9%88%D9%8A%D8%AA"," الكويت
+")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">86
+</t>
+        </is>
+      </c>
+      <c r="C87">
+        <f>HYPERLINK("https://ar.wikipedia.org//w/index.php?title=%D8%A3%D8%AC%D9%86%D8%AD%D8%A9_%D8%A7%D9%84%D8%AA%D9%8A%D9%87_(%D8%B1%D9%88%D8%A7%D9%8A%D8%A9)&amp;action=edit&amp;redlink=1","أجنحة التيه
+")</f>
+        <v/>
+      </c>
+      <c r="D87">
+        <f>HYPERLINK("https://ar.wikipedia.org//w/index.php?title=%D8%AC%D9%88%D8%A7%D8%AF_%D8%A7%D9%84%D8%B5%D9%8A%D8%AF%D8%A7%D9%88%D9%8A&amp;action=edit&amp;redlink=1","جواد الصيداوي
+")</f>
+        <v/>
+      </c>
+      <c r="E87">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D9%84%D8%A8%D9%86%D8%A7%D9%86"," لبنان
+")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">87
+</t>
+        </is>
+      </c>
+      <c r="C88">
+        <f>HYPERLINK("https://ar.wikipedia.org//w/index.php?title=%D8%A7%D9%8A%D8%A7%D9%85_%D8%A7%D9%84%D8%B1%D9%85%D8%A7%D8%AF_(%D8%B1%D9%88%D8%A7%D9%8A%D8%A9)&amp;action=edit&amp;redlink=1","ايام الرماد
+")</f>
+        <v/>
+      </c>
+      <c r="D88">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D9%85%D8%AD%D9%85%D8%AF_%D8%B9%D8%B2_%D8%A7%D9%84%D8%AF%D9%8A%D9%86_%D8%A7%D9%84%D8%AA%D8%A7%D8%B2%D9%8A","محمد عز الدين التازي
+")</f>
+        <v/>
+      </c>
+      <c r="E88">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%A7%D9%84%D9%85%D8%BA%D8%B1%D8%A8"," المغرب
+")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">88
+</t>
+        </is>
+      </c>
+      <c r="C89">
+        <f>HYPERLINK("https://ar.wikipedia.org//w/index.php?title=%D8%B1%D8%A3%D8%B3_%D8%A8%D9%8A%D8%B1%D9%88%D8%AA_(%D8%B1%D9%88%D8%A7%D9%8A%D8%A9)&amp;action=edit&amp;redlink=1","رأس بيروت
+")</f>
+        <v/>
+      </c>
+      <c r="D89">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D9%8A%D8%A7%D8%B3%D9%8A%D9%86_%D8%B1%D9%81%D8%A7%D8%B9%D9%8A%D8%A9","ياسين رفاعية
+")</f>
+        <v/>
+      </c>
+      <c r="E89">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%B3%D9%88%D8%B1%D9%8A%D8%A7"," سوريا
+")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">89
+</t>
+        </is>
+      </c>
+      <c r="C90">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%B9%D9%8A%D9%86_%D8%A7%D9%84%D8%B4%D9%85%D8%B3_(%D8%B1%D9%88%D8%A7%D9%8A%D8%A9)","عين الشمس
+")</f>
+        <v/>
+      </c>
+      <c r="D90">
+        <f>HYPERLINK("https://ar.wikipedia.org//w/index.php?title=%D8%AE%D9%84%D9%8A%D9%81%D8%A9_%D8%AD%D8%B3%D9%8A%D9%86_%D9%85%D8%B5%D8%B7%D9%81%D9%8A&amp;action=edit&amp;redlink=1","خليفة حسين مصطفي
+")</f>
+        <v/>
+      </c>
+      <c r="E90">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D9%84%D9%8A%D8%A8%D9%8A%D8%A7"," ليبيا
+")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">90
+</t>
+        </is>
+      </c>
+      <c r="C91">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D9%84%D9%88%D9%86%D8%AC%D8%A9_%D9%88%D8%A7%D9%84%D8%BA%D9%88%D9%84_(%D8%B1%D9%88%D8%A7%D9%8A%D8%A9)","لونجه والغول
+")</f>
+        <v/>
+      </c>
+      <c r="D91">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%B2%D9%87%D9%88%D8%B1_%D9%88%D9%86%D9%8A%D8%B3%D9%8A","زهور ونيسي
+")</f>
+        <v/>
+      </c>
+      <c r="E91">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%A7%D9%84%D8%AC%D8%B2%D8%A7%D8%A6%D8%B1"," الجزائر
+")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">91
+</t>
+        </is>
+      </c>
+      <c r="C92">
+        <f>HYPERLINK("https://ar.wikipedia.org//w/index.php?title=%D8%B5%D8%AE%D8%A8_%D8%A7%D9%84%D8%A8%D8%AD%D9%8A%D8%B1%D8%A9_(%D8%B1%D9%88%D8%A7%D9%8A%D8%A9)&amp;action=edit&amp;redlink=1","صخب البحيرة
+")</f>
+        <v/>
+      </c>
+      <c r="D92">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D9%85%D8%AD%D9%85%D8%AF_%D8%A7%D9%84%D8%A8%D8%B3%D8%A7%D8%B7%D9%8A","محمد البساطي
+")</f>
+        <v/>
+      </c>
+      <c r="E92">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D9%85%D8%B5%D8%B1"," مصر
+")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">92
+</t>
+        </is>
+      </c>
+      <c r="C93">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%A7%D9%84%D8%B3%D8%A7%D8%A6%D8%B1%D9%88%D9%86_%D9%86%D9%8A%D8%A7%D9%85%D8%A7_(%D8%B1%D9%88%D8%A7%D9%8A%D8%A9)","السائرون نياما
+")</f>
+        <v/>
+      </c>
+      <c r="D93">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%B3%D8%B9%D8%AF_%D9%85%D9%83%D8%A7%D9%88%D9%8A","سعد مكاوي
+")</f>
+        <v/>
+      </c>
+      <c r="E93">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D9%85%D8%B5%D8%B1"," مصر
+")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">93
+</t>
+        </is>
+      </c>
+      <c r="C94">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/1952_(%D8%B1%D9%88%D8%A7%D9%8A%D8%A9)","1952
+")</f>
+        <v/>
+      </c>
+      <c r="D94">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%AC%D9%85%D9%8A%D9%84_%D8%B9%D8%B7%D9%8A%D8%A9_%D8%A5%D8%A8%D8%B1%D8%A7%D9%87%D9%8A%D9%85","جميل عطية إبراهيم
+")</f>
+        <v/>
+      </c>
+      <c r="E94">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D9%85%D8%B5%D8%B1"," مصر
+")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">94
+</t>
+        </is>
+      </c>
+      <c r="C95">
+        <f>HYPERLINK("https://ar.wikipedia.org//w/index.php?title=%D8%B7%D9%8A%D9%88%D8%B1_%D8%A3%D9%8A%D9%84%D9%88%D9%84_(%D8%B1%D9%88%D8%A7%D9%8A%D8%A9)&amp;action=edit&amp;redlink=1","طيور أيلول
+")</f>
+        <v/>
+      </c>
+      <c r="D95">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%A5%D9%85%D9%8A%D9%84%D9%8A_%D9%86%D8%B5%D8%B1_%D8%A7%D9%84%D9%84%D9%87","إميلي نصر الله
+")</f>
+        <v/>
+      </c>
+      <c r="E95">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D9%84%D8%A8%D9%86%D8%A7%D9%86"," لبنان
+")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">95
+</t>
+        </is>
+      </c>
+      <c r="C96">
+        <f>HYPERLINK("https://ar.wikipedia.org//w/index.php?title=%D8%A7%D9%84%D9%85%D8%A4%D8%A7%D9%85%D8%B1%D8%A9_(%D8%B1%D9%88%D8%A7%D9%8A%D8%A9)&amp;action=edit&amp;redlink=1","المؤامرة
+")</f>
+        <v/>
+      </c>
+      <c r="D96">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D9%81%D8%B1%D8%AC_%D8%A7%D9%84%D8%AD%D9%88%D8%A7%D8%B1","فرج الحوار
+")</f>
+        <v/>
+      </c>
+      <c r="E96">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%AA%D9%88%D9%86%D8%B3"," تونس
+")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">96
+</t>
+        </is>
+      </c>
+      <c r="C97">
+        <f>HYPERLINK("https://ar.wikipedia.org//w/index.php?title=%D8%A7%D9%84%D9%85%D8%B9%D9%84%D9%85_%D8%B9%D9%84%D9%8A_(%D8%B1%D9%88%D8%A7%D9%8A%D8%A9)&amp;action=edit&amp;redlink=1","المعلم علي
+")</f>
+        <v/>
+      </c>
+      <c r="D97">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%B9%D8%A8%D8%AF_%D8%A7%D9%84%D9%83%D8%B1%D9%8A%D9%85_%D8%BA%D9%84%D8%A7%D8%A8","عبد الكريم غلاب
+")</f>
+        <v/>
+      </c>
+      <c r="E97">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%A7%D9%84%D9%85%D8%BA%D8%B1%D8%A8"," المغرب
+")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">97
+</t>
+        </is>
+      </c>
+      <c r="C98">
+        <f>HYPERLINK("https://ar.wikipedia.org//w/index.php?title=%D9%82%D8%A7%D9%85%D8%A7%D8%AA_%D8%A7%D9%84%D8%B2%D8%A8%D8%AF_(%D8%B1%D9%88%D8%A7%D9%8A%D8%A9)&amp;action=edit&amp;redlink=1","قامات الزبد
+")</f>
+        <v/>
+      </c>
+      <c r="D98">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%A5%D9%84%D9%8A%D8%A7%D8%B3_%D9%81%D8%B1%D9%83%D9%88%D8%AD","إلياس فركوح
+")</f>
+        <v/>
+      </c>
+      <c r="E98">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%A7%D9%84%D8%A3%D8%B1%D8%AF%D9%86"," الأردن
+")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t xml:space="preserve">98
+</t>
+        </is>
+      </c>
+      <c r="C99">
+        <f>HYPERLINK("https://ar.wikipedia.org//w/index.php?title=%D8%B9%D8%B5%D8%A7%D9%81%D9%8A%D8%B1_%D8%A7%D9%84%D9%81%D8%AC%D8%B1_(%D8%B1%D9%88%D8%A7%D9%8A%D8%A9)&amp;action=edit&amp;redlink=1","عصافير الفجر
+")</f>
+        <v/>
+      </c>
+      <c r="D99">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D9%84%D9%8A%D9%84%D9%89_%D8%B9%D8%B3%D9%8A%D8%B1%D8%A7%D9%86","ليلى عسيران
+")</f>
+        <v/>
+      </c>
+      <c r="E99">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D9%84%D8%A8%D9%86%D8%A7%D9%86"," لبنان
+")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t xml:space="preserve">99
+</t>
+        </is>
+      </c>
+      <c r="C100">
+        <f>HYPERLINK("https://ar.wikipedia.org//w/index.php?title=%D8%AC%D8%B3%D8%B1_%D8%A8%D9%86%D8%A7%D8%AA_%D9%8A%D8%B9%D9%82%D9%88%D8%A8_(%D8%B1%D9%88%D8%A7%D9%8A%D8%A9)&amp;action=edit&amp;redlink=1","جسر بنات يعقوب
+")</f>
+        <v/>
+      </c>
+      <c r="D100">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%AD%D8%B3%D9%86_%D8%AD%D9%85%D9%8A%D8%AF","حسن حميد
+")</f>
+        <v/>
+      </c>
+      <c r="E100">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%AF%D9%88%D9%84%D8%A9_%D9%81%D9%84%D8%B3%D8%B7%D9%8A%D9%86"," فلسطين
+")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t xml:space="preserve">100
+</t>
+        </is>
+      </c>
+      <c r="C101">
+        <f>HYPERLINK("https://ar.wikipedia.org//w/index.php?title=%D8%A7%D9%84%D9%88%D8%B3%D9%85%D9%8A%D8%A9_(%D8%B1%D9%88%D8%A7%D9%8A%D8%A9)&amp;action=edit&amp;redlink=1","الوسمية
+")</f>
+        <v/>
+      </c>
+      <c r="D101">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%B9%D8%A8%D8%AF_%D8%A7%D9%84%D8%B9%D8%B2%D9%8A%D8%B2_%D9%85%D8%B4%D8%B1%D9%8A","عبد العزيز مشري
+")</f>
+        <v/>
+      </c>
+      <c r="E101">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%A7%D9%84%D8%B3%D8%B9%D9%88%D8%AF%D9%8A%D8%A9"," السعودية
+")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t xml:space="preserve">101
+</t>
+        </is>
+      </c>
+      <c r="C102">
+        <f>HYPERLINK("https://ar.wikipedia.org//w/index.php?title=%D8%A7%D9%84%D8%A8%D8%B4%D9%85%D9%88%D8%B1%D9%8A_(%D8%B1%D9%88%D8%A7%D9%8A%D8%A9_)&amp;action=edit&amp;redlink=1","البشموري
+")</f>
+        <v/>
+      </c>
+      <c r="D102">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%B3%D9%84%D9%88%D9%89_%D8%A8%D9%83%D8%B1","سلوى بكر
+")</f>
+        <v/>
+      </c>
+      <c r="E102">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D9%85%D8%B5%D8%B1"," مصر
+")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t xml:space="preserve">102
+</t>
+        </is>
+      </c>
+      <c r="C103">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%A7%D9%84%D9%81%D8%A7%D8%B1%D8%B3_%D8%A7%D9%84%D9%82%D8%AA%D9%8A%D9%84_%D9%8A%D8%AA%D8%B1%D8%AC%D9%84_(%D8%B1%D9%88%D8%A7%D9%8A%D8%A9)","الفارس القتيل يترجل
+")</f>
+        <v/>
+      </c>
+      <c r="D103">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%A5%D9%84%D9%8A%D8%A7%D8%B3_%D8%A7%D9%84%D8%AF%D9%8A%D8%B1%D9%8A","إلياس الديري
+")</f>
+        <v/>
+      </c>
+      <c r="E103">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D9%84%D8%A8%D9%86%D8%A7%D9%86"," لبنان
+")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t xml:space="preserve">103
+</t>
+        </is>
+      </c>
+      <c r="C104">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%A7%D9%84%D8%AA%D9%88%D8%AA_%D8%A7%D9%84%D9%85%D8%B1","التوت المر
+")</f>
+        <v/>
+      </c>
+      <c r="D104">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D9%85%D8%AD%D9%85%D8%AF_%D8%A7%D9%84%D8%B9%D8%B1%D9%88%D8%B3%D9%8A_%D8%A7%D9%84%D9%85%D8%B7%D9%88%D9%8A","محمد العروسي المطوي
+")</f>
+        <v/>
+      </c>
+      <c r="E104">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%AA%D9%88%D9%86%D8%B3"," تونس
+")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t xml:space="preserve">104
+</t>
+        </is>
+      </c>
+      <c r="C105">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%A3%D8%BA%D9%86%D9%8A%D8%A9_%D8%A7%D9%84%D9%85%D8%A7%D8%A1_%D9%88%D8%A7%D9%84%D9%86%D8%A7%D8%B1_(%D8%B1%D9%88%D8%A7%D9%8A%D8%A9)","أغنية الماء والنار
+")</f>
+        <v/>
+      </c>
+      <c r="D105">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%B9%D8%A8%D8%AF_%D8%A7%D9%84%D9%84%D9%87_%D8%AE%D9%84%D9%8A%D9%81%D8%A9","عبد الله خليفة
+")</f>
+        <v/>
+      </c>
+      <c r="E105">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%A7%D9%84%D8%A8%D8%AD%D8%B1%D9%8A%D9%86"," البحرين
+")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t xml:space="preserve">105
+</t>
+        </is>
+      </c>
+      <c r="C106">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%A7%D9%84%D8%A8%D8%A7%D8%A8_%D8%A7%D9%84%D9%85%D9%81%D8%AA%D9%88%D8%AD_(%D8%B1%D9%88%D8%A7%D9%8A%D8%A9)","الباب المفتوح
+")</f>
+        <v/>
+      </c>
+      <c r="D106">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D9%84%D8%B7%D9%8A%D9%81%D8%A9_%D8%A7%D9%84%D8%B2%D9%8A%D8%A7%D8%AA","لطيفة الزيات
+")</f>
+        <v/>
+      </c>
+      <c r="E106">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D9%85%D8%B5%D8%B1"," مصر
+")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t xml:space="preserve">106
+</t>
+        </is>
+      </c>
+      <c r="C107">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D9%85%D8%AF%D9%86_%D8%A7%D9%84%D9%85%D9%84%D8%AD","مدن الملح (خماسية)
+")</f>
+        <v/>
+      </c>
+      <c r="D107">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%B9%D8%A8%D8%AF_%D8%A7%D9%84%D8%B1%D8%AD%D9%85%D9%86_%D8%A7%D9%84%D9%85%D9%86%D9%8A%D9%81","عبد الرحمن منيف
+")</f>
+        <v/>
+      </c>
+      <c r="E107">
+        <f>HYPERLINK("https://ar.wikipedia.org//wiki/%D8%A7%D9%84%D8%B3%D8%B9%D9%88%D8%AF%D9%8A%D8%A9"," السعودية
+")</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>